--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R985"/>
+  <dimension ref="A1:R995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="K972" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L972" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="M972" t="n">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="Q972" t="n">
         <v>1</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70404,25 +70404,25 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>3500</v>
+        <v>1100</v>
       </c>
       <c r="K973" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L973" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M973" t="n">
-        <v>650</v>
+        <v>532</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>650</v>
+        <v>532</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70476,16 +70476,16 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="K974" t="n">
         <v>550</v>
@@ -70503,7 +70503,7 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P974" t="n">
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K975" t="n">
+        <v>250</v>
+      </c>
+      <c r="L975" t="n">
         <v>300</v>
       </c>
-      <c r="L975" t="n">
-        <v>320</v>
-      </c>
       <c r="M975" t="n">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="Q975" t="n">
         <v>1</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>2850</v>
+        <v>2000</v>
       </c>
       <c r="K976" t="n">
+        <v>250</v>
+      </c>
+      <c r="L976" t="n">
         <v>300</v>
       </c>
-      <c r="L976" t="n">
-        <v>330</v>
-      </c>
       <c r="M976" t="n">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="Q976" t="n">
         <v>1</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K977" t="n">
         <v>400</v>
       </c>
-      <c r="K977" t="n">
-        <v>220</v>
-      </c>
       <c r="L977" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="M977" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="Q977" t="n">
         <v>1</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K978" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L978" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M978" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q978" t="n">
         <v>1</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>780</v>
+        <v>400</v>
       </c>
       <c r="K979" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="L979" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="M979" t="n">
-        <v>344</v>
+        <v>150</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>344</v>
+        <v>150</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70908,25 +70908,25 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>1100</v>
+        <v>3500</v>
       </c>
       <c r="K980" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="L980" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="M980" t="n">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70980,25 +70980,25 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>760</v>
+        <v>2200</v>
       </c>
       <c r="K981" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="L981" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="M981" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71052,25 +71052,25 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>870</v>
+        <v>1400</v>
       </c>
       <c r="K982" t="n">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="L982" t="n">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="M982" t="n">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>630</v>
+        <v>3500</v>
       </c>
       <c r="K983" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="L983" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="M983" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71196,25 +71196,25 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>880</v>
+        <v>2200</v>
       </c>
       <c r="K984" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L984" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M984" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,38 +71273,758 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>680</v>
+        <v>2000</v>
       </c>
       <c r="K985" t="n">
         <v>300</v>
       </c>
       <c r="L985" t="n">
+        <v>320</v>
+      </c>
+      <c r="M985" t="n">
+        <v>309</v>
+      </c>
+      <c r="N985" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O985" t="inlineStr">
+        <is>
+          <t>Provincia de Maipo</t>
+        </is>
+      </c>
+      <c r="P985" t="n">
+        <v>309</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>1</v>
+      </c>
+      <c r="R985" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>6</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D986" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E986" t="n">
+        <v>13</v>
+      </c>
+      <c r="F986" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J986" t="n">
+        <v>2850</v>
+      </c>
+      <c r="K986" t="n">
         <v>300</v>
       </c>
-      <c r="M985" t="n">
+      <c r="L986" t="n">
+        <v>330</v>
+      </c>
+      <c r="M986" t="n">
+        <v>312</v>
+      </c>
+      <c r="N986" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O986" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P986" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>1</v>
+      </c>
+      <c r="R986" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>6</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D987" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E987" t="n">
+        <v>13</v>
+      </c>
+      <c r="F987" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J987" t="n">
+        <v>400</v>
+      </c>
+      <c r="K987" t="n">
+        <v>220</v>
+      </c>
+      <c r="L987" t="n">
+        <v>220</v>
+      </c>
+      <c r="M987" t="n">
+        <v>220</v>
+      </c>
+      <c r="N987" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O987" t="inlineStr">
+        <is>
+          <t>Provincia de Maipo</t>
+        </is>
+      </c>
+      <c r="P987" t="n">
+        <v>220</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>1</v>
+      </c>
+      <c r="R987" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>6</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D988" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E988" t="n">
+        <v>13</v>
+      </c>
+      <c r="F988" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G988" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J988" t="n">
+        <v>480</v>
+      </c>
+      <c r="K988" t="n">
+        <v>200</v>
+      </c>
+      <c r="L988" t="n">
+        <v>200</v>
+      </c>
+      <c r="M988" t="n">
+        <v>200</v>
+      </c>
+      <c r="N988" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O988" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P988" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>1</v>
+      </c>
+      <c r="R988" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>6</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D989" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E989" t="n">
+        <v>13</v>
+      </c>
+      <c r="F989" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J989" t="n">
+        <v>780</v>
+      </c>
+      <c r="K989" t="n">
+        <v>330</v>
+      </c>
+      <c r="L989" t="n">
+        <v>350</v>
+      </c>
+      <c r="M989" t="n">
+        <v>344</v>
+      </c>
+      <c r="N989" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O989" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P989" t="n">
+        <v>344</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>1</v>
+      </c>
+      <c r="R989" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>6</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D990" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E990" t="n">
+        <v>13</v>
+      </c>
+      <c r="F990" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J990" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K990" t="n">
+        <v>250</v>
+      </c>
+      <c r="L990" t="n">
+        <v>280</v>
+      </c>
+      <c r="M990" t="n">
+        <v>268</v>
+      </c>
+      <c r="N990" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O990" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P990" t="n">
+        <v>268</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>1</v>
+      </c>
+      <c r="R990" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>6</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D991" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E991" t="n">
+        <v>13</v>
+      </c>
+      <c r="F991" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J991" t="n">
+        <v>760</v>
+      </c>
+      <c r="K991" t="n">
+        <v>180</v>
+      </c>
+      <c r="L991" t="n">
+        <v>200</v>
+      </c>
+      <c r="M991" t="n">
+        <v>190</v>
+      </c>
+      <c r="N991" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O991" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P991" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>1</v>
+      </c>
+      <c r="R991" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>6</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D992" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E992" t="n">
+        <v>13</v>
+      </c>
+      <c r="F992" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J992" t="n">
+        <v>870</v>
+      </c>
+      <c r="K992" t="n">
+        <v>150</v>
+      </c>
+      <c r="L992" t="n">
+        <v>150</v>
+      </c>
+      <c r="M992" t="n">
+        <v>150</v>
+      </c>
+      <c r="N992" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O992" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P992" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>1</v>
+      </c>
+      <c r="R992" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>6</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D993" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E993" t="n">
+        <v>13</v>
+      </c>
+      <c r="F993" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J993" t="n">
+        <v>630</v>
+      </c>
+      <c r="K993" t="n">
+        <v>100</v>
+      </c>
+      <c r="L993" t="n">
+        <v>100</v>
+      </c>
+      <c r="M993" t="n">
+        <v>100</v>
+      </c>
+      <c r="N993" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O993" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P993" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>1</v>
+      </c>
+      <c r="R993" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>6</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D994" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E994" t="n">
+        <v>13</v>
+      </c>
+      <c r="F994" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G994" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J994" t="n">
+        <v>880</v>
+      </c>
+      <c r="K994" t="n">
+        <v>350</v>
+      </c>
+      <c r="L994" t="n">
+        <v>350</v>
+      </c>
+      <c r="M994" t="n">
+        <v>350</v>
+      </c>
+      <c r="N994" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O994" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P994" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>1</v>
+      </c>
+      <c r="R994" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>6</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D995" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E995" t="n">
+        <v>13</v>
+      </c>
+      <c r="F995" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J995" t="n">
+        <v>680</v>
+      </c>
+      <c r="K995" t="n">
         <v>300</v>
       </c>
-      <c r="N985" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O985" t="inlineStr">
+      <c r="L995" t="n">
+        <v>300</v>
+      </c>
+      <c r="M995" t="n">
+        <v>300</v>
+      </c>
+      <c r="N995" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O995" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="P985" t="n">
+      <c r="P995" t="n">
         <v>300</v>
       </c>
-      <c r="Q985" t="n">
-        <v>1</v>
-      </c>
-      <c r="R985" t="inlineStr">
+      <c r="Q995" t="n">
+        <v>1</v>
+      </c>
+      <c r="R995" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R995"/>
+  <dimension ref="A1:R998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64932,25 +64932,25 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="K897" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L897" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M897" t="n">
-        <v>900</v>
+        <v>483</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>900</v>
+        <v>483</v>
       </c>
       <c r="Q897" t="n">
         <v>1</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K898" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L898" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M898" t="n">
-        <v>900</v>
+        <v>284</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>900</v>
+        <v>284</v>
       </c>
       <c r="Q898" t="n">
         <v>1</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65076,25 +65076,25 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K899" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="L899" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="M899" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="Q899" t="n">
         <v>1</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="K900" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L900" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M900" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q900" t="n">
         <v>1</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65220,25 +65220,25 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>1100</v>
+        <v>3400</v>
       </c>
       <c r="K901" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L901" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M901" t="n">
-        <v>577</v>
+        <v>900</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>577</v>
+        <v>900</v>
       </c>
       <c r="Q901" t="n">
         <v>1</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65292,25 +65292,25 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K902" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L902" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M902" t="n">
-        <v>582</v>
+        <v>800</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>582</v>
+        <v>800</v>
       </c>
       <c r="Q902" t="n">
         <v>1</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65364,25 +65364,25 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K903" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L903" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M903" t="n">
-        <v>330</v>
+        <v>800</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>330</v>
+        <v>800</v>
       </c>
       <c r="Q903" t="n">
         <v>1</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="K904" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L904" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M904" t="n">
-        <v>323</v>
+        <v>577</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>323</v>
+        <v>577</v>
       </c>
       <c r="Q904" t="n">
         <v>1</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K905" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L905" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="M905" t="n">
-        <v>150</v>
+        <v>582</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,11 +65535,11 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>150</v>
+        <v>582</v>
       </c>
       <c r="Q905" t="n">
         <v>1</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K906" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L906" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M906" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="Q906" t="n">
         <v>1</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="K907" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L907" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="M907" t="n">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="Q907" t="n">
         <v>1</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K908" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L908" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M908" t="n">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="Q908" t="n">
         <v>1</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,11 +65801,11 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K909" t="n">
         <v>150</v>
@@ -65823,7 +65823,7 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P909" t="n">
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K910" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L910" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M910" t="n">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="Q910" t="n">
         <v>1</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>1350</v>
+        <v>2200</v>
       </c>
       <c r="K911" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="L911" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="M911" t="n">
-        <v>582</v>
+        <v>212</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>582</v>
+        <v>212</v>
       </c>
       <c r="Q911" t="n">
         <v>1</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>3300</v>
+        <v>300</v>
       </c>
       <c r="K912" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="L912" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="M912" t="n">
-        <v>408</v>
+        <v>150</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>408</v>
+        <v>150</v>
       </c>
       <c r="Q912" t="n">
         <v>1</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K913" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="L913" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="M913" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="Q913" t="n">
         <v>1</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>550</v>
+        <v>1350</v>
       </c>
       <c r="K914" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="L914" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M914" t="n">
-        <v>527</v>
+        <v>582</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>527</v>
+        <v>582</v>
       </c>
       <c r="Q914" t="n">
         <v>1</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>900</v>
+        <v>3300</v>
       </c>
       <c r="K915" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="L915" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M915" t="n">
-        <v>572</v>
+        <v>408</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>572</v>
+        <v>408</v>
       </c>
       <c r="Q915" t="n">
         <v>1</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K916" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L916" t="n">
         <v>300</v>
       </c>
       <c r="M916" t="n">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="Q916" t="n">
         <v>1</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>1700</v>
+        <v>550</v>
       </c>
       <c r="K917" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L917" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M917" t="n">
-        <v>326</v>
+        <v>527</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>326</v>
+        <v>527</v>
       </c>
       <c r="Q917" t="n">
         <v>1</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K918" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L918" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="M918" t="n">
-        <v>150</v>
+        <v>572</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>150</v>
+        <v>572</v>
       </c>
       <c r="Q918" t="n">
         <v>1</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J919" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K919" t="n">
         <v>250</v>
       </c>
-      <c r="K919" t="n">
-        <v>150</v>
-      </c>
       <c r="L919" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M919" t="n">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="Q919" t="n">
         <v>1</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="K920" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L920" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M920" t="n">
-        <v>712</v>
+        <v>326</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>712</v>
+        <v>326</v>
       </c>
       <c r="Q920" t="n">
         <v>1</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="K921" t="n">
-        <v>730</v>
+        <v>150</v>
       </c>
       <c r="L921" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="M921" t="n">
-        <v>771</v>
+        <v>150</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>771</v>
+        <v>150</v>
       </c>
       <c r="Q921" t="n">
         <v>1</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>6400</v>
+        <v>250</v>
       </c>
       <c r="K922" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L922" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="M922" t="n">
-        <v>749</v>
+        <v>150</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>749</v>
+        <v>150</v>
       </c>
       <c r="Q922" t="n">
         <v>1</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="K923" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L923" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M923" t="n">
-        <v>472</v>
+        <v>712</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>472</v>
+        <v>712</v>
       </c>
       <c r="Q923" t="n">
         <v>1</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>4700</v>
+        <v>2700</v>
       </c>
       <c r="K924" t="n">
-        <v>550</v>
+        <v>730</v>
       </c>
       <c r="L924" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M924" t="n">
-        <v>587</v>
+        <v>771</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>587</v>
+        <v>771</v>
       </c>
       <c r="Q924" t="n">
         <v>1</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>11900</v>
+        <v>6400</v>
       </c>
       <c r="K925" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L925" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M925" t="n">
-        <v>535</v>
+        <v>749</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>535</v>
+        <v>749</v>
       </c>
       <c r="Q925" t="n">
         <v>1</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="K926" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L926" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M926" t="n">
-        <v>778</v>
+        <v>472</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>778</v>
+        <v>472</v>
       </c>
       <c r="Q926" t="n">
         <v>1</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>800</v>
+        <v>4700</v>
       </c>
       <c r="K927" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L927" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M927" t="n">
-        <v>244</v>
+        <v>587</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>244</v>
+        <v>587</v>
       </c>
       <c r="Q927" t="n">
         <v>1</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>1100</v>
+        <v>11900</v>
       </c>
       <c r="K928" t="n">
         <v>300</v>
       </c>
       <c r="L928" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M928" t="n">
-        <v>300</v>
+        <v>535</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>300</v>
+        <v>535</v>
       </c>
       <c r="Q928" t="n">
         <v>1</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J929" t="n">
         <v>2700</v>
       </c>
       <c r="K929" t="n">
-        <v>180</v>
+        <v>750</v>
       </c>
       <c r="L929" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M929" t="n">
-        <v>264</v>
+        <v>778</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>264</v>
+        <v>778</v>
       </c>
       <c r="Q929" t="n">
         <v>1</v>
@@ -67308,25 +67308,25 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>4600</v>
+        <v>800</v>
       </c>
       <c r="K930" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="L930" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M930" t="n">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="Q930" t="n">
         <v>1</v>
@@ -67380,25 +67380,25 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="K931" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="L931" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M931" t="n">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="Q931" t="n">
         <v>1</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="K932" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="L932" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M932" t="n">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="Q932" t="n">
         <v>1</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>2200</v>
+        <v>4600</v>
       </c>
       <c r="K933" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="L933" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M933" t="n">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="Q933" t="n">
         <v>1</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67596,25 +67596,25 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="K934" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="L934" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M934" t="n">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="Q934" t="n">
         <v>1</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K935" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="L935" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M935" t="n">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="Q935" t="n">
         <v>1</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J936" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K936" t="n">
+        <v>230</v>
+      </c>
+      <c r="L936" t="n">
         <v>250</v>
       </c>
-      <c r="K936" t="n">
-        <v>170</v>
-      </c>
-      <c r="L936" t="n">
-        <v>170</v>
-      </c>
       <c r="M936" t="n">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="Q936" t="n">
         <v>1</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K937" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="L937" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="M937" t="n">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="Q937" t="n">
         <v>1</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="K938" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="L938" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="M938" t="n">
-        <v>950</v>
+        <v>180</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>950</v>
+        <v>180</v>
       </c>
       <c r="Q938" t="n">
         <v>1</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="K939" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="L939" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="M939" t="n">
-        <v>958</v>
+        <v>170</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>958</v>
+        <v>170</v>
       </c>
       <c r="Q939" t="n">
         <v>1</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>2050</v>
+        <v>400</v>
       </c>
       <c r="K940" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="L940" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="M940" t="n">
-        <v>961</v>
+        <v>170</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>961</v>
+        <v>170</v>
       </c>
       <c r="Q940" t="n">
         <v>1</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="K941" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L941" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M941" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="Q941" t="n">
         <v>1</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J942" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K942" t="n">
+        <v>900</v>
+      </c>
+      <c r="L942" t="n">
         <v>1000</v>
       </c>
-      <c r="K942" t="n">
-        <v>700</v>
-      </c>
-      <c r="L942" t="n">
-        <v>700</v>
-      </c>
       <c r="M942" t="n">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="Q942" t="n">
         <v>1</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>650</v>
+        <v>2050</v>
       </c>
       <c r="K943" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L943" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M943" t="n">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="Q943" t="n">
         <v>1</v>
@@ -68316,25 +68316,25 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="K944" t="n">
         <v>700</v>
       </c>
       <c r="L944" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="M944" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="Q944" t="n">
         <v>1</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="K945" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L945" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M945" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q945" t="n">
         <v>1</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>1900</v>
+        <v>650</v>
       </c>
       <c r="K946" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L946" t="n">
-        <v>220</v>
+        <v>700</v>
       </c>
       <c r="M946" t="n">
-        <v>208</v>
+        <v>700</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>208</v>
+        <v>700</v>
       </c>
       <c r="Q946" t="n">
         <v>1</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68532,25 +68532,25 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="K947" t="n">
-        <v>190</v>
+        <v>700</v>
       </c>
       <c r="L947" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="M947" t="n">
-        <v>194</v>
+        <v>733</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>194</v>
+        <v>733</v>
       </c>
       <c r="Q947" t="n">
         <v>1</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68604,25 +68604,25 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="K948" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="L948" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="M948" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="Q948" t="n">
         <v>1</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K949" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L949" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M949" t="n">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="Q949" t="n">
         <v>1</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>330</v>
+        <v>2100</v>
       </c>
       <c r="K950" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="L950" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M950" t="n">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="Q950" t="n">
         <v>1</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K951" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L951" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M951" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="Q951" t="n">
         <v>1</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K952" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="L952" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="M952" t="n">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="Q952" t="n">
         <v>1</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K953" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L953" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M953" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q953" t="n">
         <v>1</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K954" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L954" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M954" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="Q954" t="n">
         <v>1</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K955" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="L955" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M955" t="n">
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="Q955" t="n">
         <v>1</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K956" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L956" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="M956" t="n">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="Q956" t="n">
         <v>1</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,11 +69257,11 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K957" t="n">
         <v>200</v>
@@ -69279,7 +69279,7 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P957" t="n">
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="K958" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="L958" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M958" t="n">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="Q958" t="n">
         <v>1</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="K959" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L959" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="M959" t="n">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="Q959" t="n">
         <v>1</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>2800</v>
+        <v>200</v>
       </c>
       <c r="K960" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L960" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M960" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="Q960" t="n">
         <v>1</v>
@@ -69549,7 +69549,7 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="K961" t="n">
         <v>250</v>
@@ -69558,7 +69558,7 @@
         <v>300</v>
       </c>
       <c r="M961" t="n">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q961" t="n">
         <v>1</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="K962" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L962" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M962" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="Q962" t="n">
         <v>1</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K963" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L963" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M963" t="n">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="Q963" t="n">
         <v>1</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K964" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L964" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M964" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="Q964" t="n">
         <v>1</v>
@@ -69855,7 +69855,7 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P965" t="n">
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K966" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L966" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M966" t="n">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="Q966" t="n">
         <v>1</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="K967" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L967" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="M967" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="Q967" t="n">
         <v>1</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J968" t="n">
+        <v>600</v>
+      </c>
+      <c r="K968" t="n">
         <v>200</v>
       </c>
-      <c r="K968" t="n">
-        <v>180</v>
-      </c>
       <c r="L968" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M968" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Q968" t="n">
         <v>1</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K969" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="L969" t="n">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="M969" t="n">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="Q969" t="n">
         <v>1</v>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="K970" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="L970" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="M970" t="n">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="Q970" t="n">
         <v>1</v>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K971" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="L971" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M971" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q971" t="n">
         <v>1</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K972" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="L972" t="n">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="M972" t="n">
-        <v>533</v>
+        <v>170</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>533</v>
+        <v>170</v>
       </c>
       <c r="Q972" t="n">
         <v>1</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70404,25 +70404,25 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>1100</v>
+        <v>2900</v>
       </c>
       <c r="K973" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="L973" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="M973" t="n">
-        <v>532</v>
+        <v>150</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>532</v>
+        <v>150</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70476,25 +70476,25 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K974" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="L974" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="M974" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="Q974" t="n">
         <v>1</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="K975" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L975" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M975" t="n">
-        <v>278</v>
+        <v>533</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>278</v>
+        <v>533</v>
       </c>
       <c r="Q975" t="n">
         <v>1</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K976" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L976" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M976" t="n">
-        <v>280</v>
+        <v>532</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>280</v>
+        <v>532</v>
       </c>
       <c r="Q976" t="n">
         <v>1</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K977" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L977" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M977" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q977" t="n">
         <v>1</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J978" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K978" t="n">
+        <v>250</v>
+      </c>
+      <c r="L978" t="n">
         <v>300</v>
       </c>
-      <c r="K978" t="n">
-        <v>150</v>
-      </c>
-      <c r="L978" t="n">
-        <v>150</v>
-      </c>
       <c r="M978" t="n">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="Q978" t="n">
         <v>1</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K979" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="L979" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M979" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70908,25 +70908,25 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>3500</v>
+        <v>1100</v>
       </c>
       <c r="K980" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="L980" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="M980" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70980,25 +70980,25 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K981" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L981" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M981" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K982" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="L982" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="M982" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J983" t="n">
         <v>3500</v>
       </c>
       <c r="K983" t="n">
-        <v>650</v>
+        <v>170</v>
       </c>
       <c r="L983" t="n">
-        <v>650</v>
+        <v>170</v>
       </c>
       <c r="M983" t="n">
-        <v>650</v>
+        <v>170</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>650</v>
+        <v>170</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J984" t="n">
         <v>2200</v>
       </c>
       <c r="K984" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="L984" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="M984" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K985" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="L985" t="n">
-        <v>320</v>
+        <v>1100</v>
       </c>
       <c r="M985" t="n">
-        <v>309</v>
+        <v>1100</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>309</v>
+        <v>1100</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71340,7 +71340,7 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>2850</v>
+        <v>3500</v>
       </c>
       <c r="K986" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L986" t="n">
-        <v>330</v>
+        <v>650</v>
       </c>
       <c r="M986" t="n">
-        <v>312</v>
+        <v>650</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>312</v>
+        <v>650</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K987" t="n">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="L987" t="n">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="M987" t="n">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>480</v>
+        <v>2000</v>
       </c>
       <c r="K988" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L988" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="M988" t="n">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>780</v>
+        <v>2850</v>
       </c>
       <c r="K989" t="n">
+        <v>300</v>
+      </c>
+      <c r="L989" t="n">
         <v>330</v>
       </c>
-      <c r="L989" t="n">
-        <v>350</v>
-      </c>
       <c r="M989" t="n">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K990" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="L990" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="M990" t="n">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>760</v>
+        <v>480</v>
       </c>
       <c r="K991" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L991" t="n">
         <v>200</v>
       </c>
       <c r="M991" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71772,25 +71772,25 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>870</v>
+        <v>780</v>
       </c>
       <c r="K992" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="L992" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M992" t="n">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71844,25 +71844,25 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>630</v>
+        <v>1100</v>
       </c>
       <c r="K993" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L993" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="M993" t="n">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>880</v>
+        <v>760</v>
       </c>
       <c r="K994" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="L994" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M994" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71973,58 +71973,274 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E995" t="n">
+        <v>13</v>
+      </c>
+      <c r="F995" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J995" t="n">
+        <v>870</v>
+      </c>
+      <c r="K995" t="n">
+        <v>150</v>
+      </c>
+      <c r="L995" t="n">
+        <v>150</v>
+      </c>
+      <c r="M995" t="n">
+        <v>150</v>
+      </c>
+      <c r="N995" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O995" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P995" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>1</v>
+      </c>
+      <c r="R995" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>6</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D996" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E996" t="n">
+        <v>13</v>
+      </c>
+      <c r="F996" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G996" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J996" t="n">
+        <v>630</v>
+      </c>
+      <c r="K996" t="n">
+        <v>100</v>
+      </c>
+      <c r="L996" t="n">
+        <v>100</v>
+      </c>
+      <c r="M996" t="n">
+        <v>100</v>
+      </c>
+      <c r="N996" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O996" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P996" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>1</v>
+      </c>
+      <c r="R996" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>6</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D997" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E995" t="n">
-        <v>13</v>
-      </c>
-      <c r="F995" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>Camote</t>
-        </is>
-      </c>
-      <c r="I995" t="inlineStr">
+      <c r="E997" t="n">
+        <v>13</v>
+      </c>
+      <c r="F997" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G997" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I997" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J997" t="n">
+        <v>880</v>
+      </c>
+      <c r="K997" t="n">
+        <v>350</v>
+      </c>
+      <c r="L997" t="n">
+        <v>350</v>
+      </c>
+      <c r="M997" t="n">
+        <v>350</v>
+      </c>
+      <c r="N997" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O997" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P997" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>1</v>
+      </c>
+      <c r="R997" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>6</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D998" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E998" t="n">
+        <v>13</v>
+      </c>
+      <c r="F998" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G998" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I998" t="inlineStr">
         <is>
           <t>2a (guarda)</t>
         </is>
       </c>
-      <c r="J995" t="n">
+      <c r="J998" t="n">
         <v>680</v>
       </c>
-      <c r="K995" t="n">
+      <c r="K998" t="n">
         <v>300</v>
       </c>
-      <c r="L995" t="n">
+      <c r="L998" t="n">
         <v>300</v>
       </c>
-      <c r="M995" t="n">
+      <c r="M998" t="n">
         <v>300</v>
       </c>
-      <c r="N995" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O995" t="inlineStr">
+      <c r="N998" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O998" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="P995" t="n">
+      <c r="P998" t="n">
         <v>300</v>
       </c>
-      <c r="Q995" t="n">
-        <v>1</v>
-      </c>
-      <c r="R995" t="inlineStr">
+      <c r="Q998" t="n">
+        <v>1</v>
+      </c>
+      <c r="R998" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1030"/>
+  <dimension ref="A1:R1032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>1500</v>
+        <v>3300</v>
       </c>
       <c r="K954" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="L954" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="M954" t="n">
-        <v>248</v>
+        <v>473</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>248</v>
+        <v>473</v>
       </c>
       <c r="Q954" t="n">
         <v>1</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="K955" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="L955" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M955" t="n">
-        <v>246</v>
+        <v>350</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>246</v>
+        <v>350</v>
       </c>
       <c r="Q955" t="n">
         <v>1</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="K956" t="n">
         <v>240</v>
       </c>
       <c r="L956" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M956" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q956" t="n">
         <v>1</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K957" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="L957" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="M957" t="n">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="Q957" t="n">
         <v>1</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K958" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="L958" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="M958" t="n">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="Q958" t="n">
         <v>1</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K959" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L959" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M959" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q959" t="n">
         <v>1</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K960" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="L960" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="M960" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="Q960" t="n">
         <v>1</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K961" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L961" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M961" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q961" t="n">
         <v>1</v>
@@ -69621,7 +69621,7 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K962" t="n">
         <v>140</v>
@@ -69639,7 +69639,7 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P962" t="n">
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>1400</v>
+        <v>270</v>
       </c>
       <c r="K963" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="L963" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="M963" t="n">
-        <v>373</v>
+        <v>150</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>373</v>
+        <v>150</v>
       </c>
       <c r="Q963" t="n">
         <v>1</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>1400</v>
+        <v>320</v>
       </c>
       <c r="K964" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="L964" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="M964" t="n">
-        <v>327</v>
+        <v>140</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>327</v>
+        <v>140</v>
       </c>
       <c r="Q964" t="n">
         <v>1</v>
@@ -69846,7 +69846,7 @@
         <v>400</v>
       </c>
       <c r="M965" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q965" t="n">
         <v>1</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>450</v>
+        <v>1400</v>
       </c>
       <c r="K966" t="n">
         <v>300</v>
       </c>
       <c r="L966" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M966" t="n">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="Q966" t="n">
         <v>1</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>450</v>
+        <v>1400</v>
       </c>
       <c r="K967" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L967" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M967" t="n">
-        <v>250</v>
+        <v>379</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>250</v>
+        <v>379</v>
       </c>
       <c r="Q967" t="n">
         <v>1</v>
@@ -70053,7 +70053,7 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K968" t="n">
         <v>300</v>
@@ -70071,7 +70071,7 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P968" t="n">
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70116,25 +70116,25 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>3300</v>
+        <v>450</v>
       </c>
       <c r="K969" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L969" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M969" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="Q969" t="n">
         <v>1</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="K970" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L970" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M970" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q970" t="n">
         <v>1</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70260,25 +70260,25 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="K971" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="L971" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M971" t="n">
-        <v>392</v>
+        <v>800</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>392</v>
+        <v>800</v>
       </c>
       <c r="Q971" t="n">
         <v>1</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70332,25 +70332,25 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>1710</v>
+        <v>2500</v>
       </c>
       <c r="K972" t="n">
-        <v>380</v>
+        <v>750</v>
       </c>
       <c r="L972" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M972" t="n">
-        <v>399</v>
+        <v>750</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>399</v>
+        <v>750</v>
       </c>
       <c r="Q972" t="n">
         <v>1</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="K973" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L973" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M973" t="n">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>1600</v>
+        <v>1710</v>
       </c>
       <c r="K974" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="L974" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M974" t="n">
-        <v>337</v>
+        <v>399</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>337</v>
+        <v>399</v>
       </c>
       <c r="Q974" t="n">
         <v>1</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K975" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="L975" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="M975" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q975" t="n">
         <v>1</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K976" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="L976" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M976" t="n">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="Q976" t="n">
         <v>1</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K977" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L977" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M977" t="n">
-        <v>392</v>
+        <v>250</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>392</v>
+        <v>250</v>
       </c>
       <c r="Q977" t="n">
         <v>1</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>2700</v>
+        <v>400</v>
       </c>
       <c r="K978" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L978" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M978" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="Q978" t="n">
         <v>1</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K979" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L979" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="M979" t="n">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="K980" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L980" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M980" t="n">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K981" t="n">
         <v>300</v>
       </c>
-      <c r="K981" t="n">
-        <v>250</v>
-      </c>
       <c r="L981" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="M981" t="n">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="K982" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L982" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="M982" t="n">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K983" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="L983" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M983" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="K984" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L984" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M984" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="K985" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L985" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M985" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K986" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L986" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M986" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71412,25 +71412,25 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>5600</v>
+        <v>600</v>
       </c>
       <c r="K987" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L987" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M987" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K988" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="L988" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="M988" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71556,25 +71556,25 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>2300</v>
+        <v>5600</v>
       </c>
       <c r="K989" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="L989" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="M989" t="n">
-        <v>272</v>
+        <v>126</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>272</v>
+        <v>126</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71628,25 +71628,25 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K990" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="L990" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M990" t="n">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K991" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L991" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M991" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K992" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L992" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="M992" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="K993" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L993" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="M993" t="n">
-        <v>852</v>
+        <v>200</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>852</v>
+        <v>200</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K994" t="n">
-        <v>800</v>
+        <v>190</v>
       </c>
       <c r="L994" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="M994" t="n">
-        <v>843</v>
+        <v>190</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>843</v>
+        <v>190</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>600</v>
+        <v>1550</v>
       </c>
       <c r="K995" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L995" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M995" t="n">
-        <v>600</v>
+        <v>852</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>600</v>
+        <v>852</v>
       </c>
       <c r="Q995" t="n">
         <v>1</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K996" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L996" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M996" t="n">
-        <v>600</v>
+        <v>843</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>600</v>
+        <v>843</v>
       </c>
       <c r="Q996" t="n">
         <v>1</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K997" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="L997" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M997" t="n">
-        <v>293</v>
+        <v>600</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>293</v>
+        <v>600</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K998" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L998" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M998" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q998" t="n">
         <v>1</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="K999" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="L999" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="M999" t="n">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K1000" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L1000" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="M1000" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="K1001" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L1001" t="n">
         <v>220</v>
       </c>
       <c r="M1001" t="n">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K1002" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="L1002" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M1002" t="n">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1003" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1003" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M1003" t="n">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K1004" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="L1004" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M1004" t="n">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="K1005" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1005" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M1005" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K1006" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="L1006" t="n">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="M1006" t="n">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>2200</v>
+        <v>330</v>
       </c>
       <c r="K1007" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="L1007" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M1007" t="n">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="K1008" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="L1008" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="M1008" t="n">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>370</v>
+        <v>2200</v>
       </c>
       <c r="K1009" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="L1009" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="M1009" t="n">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73068,25 +73068,25 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>4300</v>
+        <v>250</v>
       </c>
       <c r="K1010" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="L1010" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M1010" t="n">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>1100</v>
+        <v>370</v>
       </c>
       <c r="K1011" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="L1011" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M1011" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73212,25 +73212,25 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="K1012" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="L1012" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="M1012" t="n">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73284,25 +73284,25 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="K1013" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L1013" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M1013" t="n">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1014" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="L1014" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="M1014" t="n">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="K1015" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="L1015" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="M1015" t="n">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K1016" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="L1016" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="M1016" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>2780</v>
+        <v>400</v>
       </c>
       <c r="K1017" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="L1017" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="M1017" t="n">
-        <v>319</v>
+        <v>190</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>319</v>
+        <v>190</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>1700</v>
+        <v>250</v>
       </c>
       <c r="K1018" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="L1018" t="n">
-        <v>330</v>
+        <v>140</v>
       </c>
       <c r="M1018" t="n">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>2280</v>
+        <v>2780</v>
       </c>
       <c r="K1019" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L1019" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M1019" t="n">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73788,25 +73788,25 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>770</v>
+        <v>1700</v>
       </c>
       <c r="K1020" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L1020" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="M1020" t="n">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73860,25 +73860,25 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>1100</v>
+        <v>2280</v>
       </c>
       <c r="K1021" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
       <c r="L1021" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="M1021" t="n">
-        <v>439</v>
+        <v>191</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>439</v>
+        <v>191</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73932,25 +73932,25 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>1100</v>
+        <v>770</v>
       </c>
       <c r="K1022" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="L1022" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="M1022" t="n">
-        <v>443</v>
+        <v>150</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>443</v>
+        <v>150</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="K1023" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="L1023" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="M1023" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="K1024" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="L1024" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M1024" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K1025" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L1025" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="M1025" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K1026" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="L1026" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="M1026" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K1027" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L1027" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1027" t="n">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K1028" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="L1028" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="M1028" t="n">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1029" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1029" t="n">
         <v>300</v>
       </c>
-      <c r="K1029" t="n">
-        <v>200</v>
-      </c>
-      <c r="L1029" t="n">
-        <v>200</v>
-      </c>
       <c r="M1029" t="n">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74513,38 +74513,182 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1030" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>270</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>280</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>276</v>
+      </c>
+      <c r="N1030" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1030" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1030" t="n">
+        <v>276</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1030" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1031" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1031" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1031" t="inlineStr">
+        <is>
           <t>2a (guarda)</t>
         </is>
       </c>
-      <c r="J1030" t="n">
+      <c r="J1031" t="n">
         <v>300</v>
       </c>
-      <c r="K1030" t="n">
+      <c r="K1031" t="n">
         <v>200</v>
       </c>
-      <c r="L1030" t="n">
+      <c r="L1031" t="n">
         <v>200</v>
       </c>
-      <c r="M1030" t="n">
+      <c r="M1031" t="n">
         <v>200</v>
       </c>
-      <c r="N1030" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1030" t="inlineStr">
+      <c r="N1031" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1031" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P1031" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1031" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1032" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1032" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1032" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1032" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>200</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>200</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1032" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1032" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P1030" t="n">
+      <c r="P1032" t="n">
         <v>200</v>
       </c>
-      <c r="Q1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1030" t="inlineStr">
+      <c r="Q1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1032" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1068"/>
+  <dimension ref="A1:R1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K922" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L922" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M922" t="n">
-        <v>577</v>
+        <v>430</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>577</v>
+        <v>430</v>
       </c>
       <c r="Q922" t="n">
         <v>1</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>1100</v>
+        <v>5600</v>
       </c>
       <c r="K923" t="n">
+        <v>500</v>
+      </c>
+      <c r="L923" t="n">
         <v>550</v>
       </c>
-      <c r="L923" t="n">
-        <v>600</v>
-      </c>
       <c r="M923" t="n">
-        <v>582</v>
+        <v>521</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>582</v>
+        <v>521</v>
       </c>
       <c r="Q923" t="n">
         <v>1</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K924" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L924" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M924" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="Q924" t="n">
         <v>1</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K925" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L925" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M925" t="n">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="Q925" t="n">
         <v>1</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67029,7 +67029,7 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K926" t="n">
         <v>150</v>
@@ -67047,7 +67047,7 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P926" t="n">
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K927" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L927" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="M927" t="n">
-        <v>150</v>
+        <v>577</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>150</v>
+        <v>577</v>
       </c>
       <c r="Q927" t="n">
         <v>1</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>1508</v>
+        <v>1100</v>
       </c>
       <c r="K928" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="L928" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="M928" t="n">
-        <v>211</v>
+        <v>582</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>211</v>
+        <v>582</v>
       </c>
       <c r="Q928" t="n">
         <v>1</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K929" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L929" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M929" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="Q929" t="n">
         <v>1</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="K930" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L930" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="M930" t="n">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="Q930" t="n">
         <v>1</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K931" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="L931" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="M931" t="n">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="Q931" t="n">
         <v>1</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K932" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="L932" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M932" t="n">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="Q932" t="n">
         <v>1</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>300</v>
+        <v>1508</v>
       </c>
       <c r="K933" t="n">
         <v>200</v>
       </c>
       <c r="L933" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M933" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q933" t="n">
         <v>1</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K934" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L934" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M934" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q934" t="n">
         <v>1</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="K935" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L935" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="M935" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="Q935" t="n">
         <v>1</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K936" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="L936" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="M936" t="n">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="Q936" t="n">
         <v>1</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="K937" t="n">
+        <v>280</v>
+      </c>
+      <c r="L937" t="n">
         <v>300</v>
       </c>
-      <c r="L937" t="n">
-        <v>350</v>
-      </c>
       <c r="M937" t="n">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="Q937" t="n">
         <v>1</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>1430</v>
+        <v>300</v>
       </c>
       <c r="K938" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L938" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M938" t="n">
-        <v>326</v>
+        <v>200</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>326</v>
+        <v>200</v>
       </c>
       <c r="Q938" t="n">
         <v>1</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K939" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L939" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M939" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q939" t="n">
         <v>1</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J940" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K940" t="n">
         <v>300</v>
       </c>
-      <c r="K940" t="n">
-        <v>250</v>
-      </c>
       <c r="L940" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M940" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="Q940" t="n">
         <v>1</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K941" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L941" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M941" t="n">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="Q941" t="n">
         <v>1</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="K942" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L942" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M942" t="n">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="Q942" t="n">
         <v>1</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>1500</v>
+        <v>1430</v>
       </c>
       <c r="K943" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L943" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M943" t="n">
-        <v>120</v>
+        <v>326</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>120</v>
+        <v>326</v>
       </c>
       <c r="Q943" t="n">
         <v>1</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K944" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="L944" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="M944" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="Q944" t="n">
         <v>1</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="K945" t="n">
         <v>250</v>
       </c>
       <c r="L945" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="M945" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q945" t="n">
         <v>1</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="K946" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L946" t="n">
         <v>250</v>
       </c>
       <c r="M946" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="Q946" t="n">
         <v>1</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K947" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L947" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M947" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q947" t="n">
         <v>1</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68604,25 +68604,25 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K948" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="L948" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="M948" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q948" t="n">
         <v>1</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>4300</v>
+        <v>500</v>
       </c>
       <c r="K949" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="L949" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M949" t="n">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="Q949" t="n">
         <v>1</v>
@@ -68748,25 +68748,25 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>130</v>
+        <v>2100</v>
       </c>
       <c r="K950" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="L950" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M950" t="n">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="Q950" t="n">
         <v>1</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68820,25 +68820,25 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="K951" t="n">
-        <v>850</v>
+        <v>230</v>
       </c>
       <c r="L951" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="M951" t="n">
-        <v>850</v>
+        <v>239</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>850</v>
+        <v>239</v>
       </c>
       <c r="Q951" t="n">
         <v>1</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68892,25 +68892,25 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>4400</v>
+        <v>400</v>
       </c>
       <c r="K952" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="L952" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="M952" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="Q952" t="n">
         <v>1</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68964,25 +68964,25 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K953" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="L953" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="M953" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="Q953" t="n">
         <v>1</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>2200</v>
+        <v>4300</v>
       </c>
       <c r="K954" t="n">
-        <v>780</v>
+        <v>130</v>
       </c>
       <c r="L954" t="n">
-        <v>780</v>
+        <v>150</v>
       </c>
       <c r="M954" t="n">
-        <v>780</v>
+        <v>138</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>780</v>
+        <v>138</v>
       </c>
       <c r="Q954" t="n">
         <v>1</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69108,25 +69108,25 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>1400</v>
+        <v>130</v>
       </c>
       <c r="K955" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="L955" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="M955" t="n">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="Q955" t="n">
         <v>1</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69180,25 +69180,25 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K956" t="n">
-        <v>230</v>
+        <v>850</v>
       </c>
       <c r="L956" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="M956" t="n">
-        <v>238</v>
+        <v>850</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>238</v>
+        <v>850</v>
       </c>
       <c r="Q956" t="n">
         <v>1</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69252,25 +69252,25 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>300</v>
+        <v>4400</v>
       </c>
       <c r="K957" t="n">
-        <v>190</v>
+        <v>850</v>
       </c>
       <c r="L957" t="n">
-        <v>190</v>
+        <v>850</v>
       </c>
       <c r="M957" t="n">
-        <v>190</v>
+        <v>850</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>190</v>
+        <v>850</v>
       </c>
       <c r="Q957" t="n">
         <v>1</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69324,25 +69324,25 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="K958" t="n">
-        <v>180</v>
+        <v>750</v>
       </c>
       <c r="L958" t="n">
-        <v>180</v>
+        <v>750</v>
       </c>
       <c r="M958" t="n">
-        <v>180</v>
+        <v>750</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>180</v>
+        <v>750</v>
       </c>
       <c r="Q958" t="n">
         <v>1</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69396,25 +69396,25 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>330</v>
+        <v>2200</v>
       </c>
       <c r="K959" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="L959" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="M959" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="Q959" t="n">
         <v>1</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K960" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L960" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="M960" t="n">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="Q960" t="n">
         <v>1</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K961" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L961" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M961" t="n">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Q961" t="n">
         <v>1</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K962" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="L962" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="M962" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="Q962" t="n">
         <v>1</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K963" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L963" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="M963" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="Q963" t="n">
         <v>1</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K964" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L964" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M964" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Q964" t="n">
         <v>1</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K965" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L965" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M965" t="n">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="Q965" t="n">
         <v>1</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J966" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K966" t="n">
         <v>200</v>
       </c>
-      <c r="K966" t="n">
-        <v>100</v>
-      </c>
       <c r="L966" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="M966" t="n">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="Q966" t="n">
         <v>1</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K967" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L967" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M967" t="n">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="Q967" t="n">
         <v>1</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K968" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="L968" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="M968" t="n">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="Q968" t="n">
         <v>1</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K969" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L969" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M969" t="n">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="Q969" t="n">
         <v>1</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K970" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="L970" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="M970" t="n">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="Q970" t="n">
         <v>1</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K971" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="L971" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="M971" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="Q971" t="n">
         <v>1</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K972" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="L972" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="M972" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="Q972" t="n">
         <v>1</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K973" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="L973" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="M973" t="n">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K974" t="n">
+        <v>230</v>
+      </c>
+      <c r="L974" t="n">
         <v>250</v>
       </c>
-      <c r="L974" t="n">
-        <v>300</v>
-      </c>
       <c r="M974" t="n">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="Q974" t="n">
         <v>1</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="K975" t="n">
         <v>250</v>
       </c>
       <c r="L975" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="M975" t="n">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="Q975" t="n">
         <v>1</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="K976" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L976" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M976" t="n">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="Q976" t="n">
         <v>1</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="K977" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L977" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M977" t="n">
-        <v>275</v>
+        <v>160</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>275</v>
+        <v>160</v>
       </c>
       <c r="Q977" t="n">
         <v>1</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K978" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="L978" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="M978" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="Q978" t="n">
         <v>1</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K979" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L979" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M979" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K980" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L980" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M980" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="K981" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L981" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M981" t="n">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71064,13 +71064,13 @@
         <v>4000</v>
       </c>
       <c r="K982" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L982" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M982" t="n">
-        <v>950</v>
+        <v>275</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>950</v>
+        <v>275</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="K983" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L983" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="M983" t="n">
-        <v>958</v>
+        <v>200</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>958</v>
+        <v>200</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>2050</v>
+        <v>600</v>
       </c>
       <c r="K984" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L984" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="M984" t="n">
-        <v>961</v>
+        <v>200</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>961</v>
+        <v>200</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K985" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L985" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M985" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K986" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L986" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M986" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>650</v>
+        <v>4000</v>
       </c>
       <c r="K987" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L987" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M987" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="K988" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L988" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M988" t="n">
-        <v>733</v>
+        <v>958</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>733</v>
+        <v>958</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71556,25 +71556,25 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>420</v>
+        <v>2050</v>
       </c>
       <c r="K989" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L989" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M989" t="n">
-        <v>500</v>
+        <v>961</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>500</v>
+        <v>961</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="K990" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L990" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M990" t="n">
-        <v>473</v>
+        <v>700</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>473</v>
+        <v>700</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K991" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L991" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M991" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="K992" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="L992" t="n">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="M992" t="n">
-        <v>248</v>
+        <v>700</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>248</v>
+        <v>700</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71844,25 +71844,25 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="K993" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="L993" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M993" t="n">
-        <v>246</v>
+        <v>733</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>246</v>
+        <v>733</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71916,25 +71916,25 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>2300</v>
+        <v>420</v>
       </c>
       <c r="K994" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="L994" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M994" t="n">
-        <v>244</v>
+        <v>500</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>244</v>
+        <v>500</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>300</v>
+        <v>3300</v>
       </c>
       <c r="K995" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="L995" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="M995" t="n">
-        <v>190</v>
+        <v>473</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>190</v>
+        <v>473</v>
       </c>
       <c r="Q995" t="n">
         <v>1</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K996" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="L996" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="M996" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="Q996" t="n">
         <v>1</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K997" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="L997" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="M997" t="n">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K998" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="L998" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="M998" t="n">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="Q998" t="n">
         <v>1</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>270</v>
+        <v>2300</v>
       </c>
       <c r="K999" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L999" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M999" t="n">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K1000" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="L1000" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="M1000" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K1001" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="L1001" t="n">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="M1001" t="n">
-        <v>373</v>
+        <v>190</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>373</v>
+        <v>190</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K1002" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="L1002" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="M1002" t="n">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K1003" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="L1003" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="M1003" t="n">
-        <v>379</v>
+        <v>140</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>379</v>
+        <v>140</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="K1004" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1004" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1004" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="K1005" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="L1005" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="M1005" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1006" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>350</v>
+      </c>
+      <c r="L1006" t="n">
         <v>400</v>
       </c>
-      <c r="K1006" t="n">
-        <v>300</v>
-      </c>
-      <c r="L1006" t="n">
-        <v>300</v>
-      </c>
       <c r="M1006" t="n">
-        <v>300</v>
+        <v>373</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>300</v>
+        <v>373</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72852,7 +72852,7 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="K1007" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L1007" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M1007" t="n">
-        <v>800</v>
+        <v>327</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>800</v>
+        <v>327</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72924,25 +72924,25 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="K1008" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="L1008" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M1008" t="n">
-        <v>750</v>
+        <v>379</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>750</v>
+        <v>379</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="K1009" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L1009" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M1009" t="n">
-        <v>392</v>
+        <v>300</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>392</v>
+        <v>300</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>1710</v>
+        <v>450</v>
       </c>
       <c r="K1010" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L1010" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M1010" t="n">
-        <v>399</v>
+        <v>250</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>399</v>
+        <v>250</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K1011" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L1011" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="M1011" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73212,25 +73212,25 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>1600</v>
+        <v>3300</v>
       </c>
       <c r="K1012" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="L1012" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M1012" t="n">
-        <v>337</v>
+        <v>800</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>337</v>
+        <v>800</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73284,25 +73284,25 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K1013" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L1013" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M1013" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1014" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>380</v>
+      </c>
+      <c r="L1014" t="n">
         <v>400</v>
       </c>
-      <c r="K1014" t="n">
-        <v>250</v>
-      </c>
-      <c r="L1014" t="n">
-        <v>250</v>
-      </c>
       <c r="M1014" t="n">
-        <v>250</v>
+        <v>392</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73383,11 +73383,11 @@
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>250</v>
+        <v>392</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73437,7 +73437,7 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>1900</v>
+        <v>1710</v>
       </c>
       <c r="K1015" t="n">
         <v>380</v>
@@ -73446,7 +73446,7 @@
         <v>400</v>
       </c>
       <c r="M1015" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="K1016" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L1016" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="M1016" t="n">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K1017" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L1017" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="M1017" t="n">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K1018" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L1018" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="M1018" t="n">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73725,7 +73725,7 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K1019" t="n">
         <v>250</v>
@@ -73743,7 +73743,7 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1019" t="n">
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>350</v>
+        <v>1900</v>
       </c>
       <c r="K1020" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="L1020" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M1020" t="n">
-        <v>250</v>
+        <v>392</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>250</v>
+        <v>392</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="K1021" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="L1021" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M1021" t="n">
-        <v>288</v>
+        <v>391</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>288</v>
+        <v>391</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K1022" t="n">
         <v>300</v>
       </c>
       <c r="L1022" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="M1022" t="n">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K1023" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L1023" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="M1023" t="n">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74081,11 +74081,11 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K1024" t="n">
         <v>250</v>
@@ -74103,7 +74103,7 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1024" t="n">
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74148,25 +74148,25 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>5600</v>
+        <v>350</v>
       </c>
       <c r="K1025" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="L1025" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M1025" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74220,25 +74220,25 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="K1026" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="L1026" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="M1026" t="n">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="K1027" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="L1027" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="M1027" t="n">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K1028" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1028" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M1028" t="n">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1029" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1029" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M1029" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74508,25 +74508,25 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="K1030" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="L1030" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="M1030" t="n">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74535,11 +74535,11 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74580,25 +74580,25 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>1550</v>
+        <v>1800</v>
       </c>
       <c r="K1031" t="n">
-        <v>800</v>
+        <v>90</v>
       </c>
       <c r="L1031" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="M1031" t="n">
-        <v>852</v>
+        <v>90</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>852</v>
+        <v>90</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="K1032" t="n">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="L1032" t="n">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="M1032" t="n">
-        <v>843</v>
+        <v>272</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74679,11 +74679,11 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>843</v>
+        <v>272</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="K1033" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L1033" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="M1033" t="n">
-        <v>600</v>
+        <v>263</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>600</v>
+        <v>263</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1034" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L1034" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1034" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="Q1034" t="n">
         <v>1</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K1035" t="n">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="L1035" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="M1035" t="n">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>1700</v>
+        <v>1550</v>
       </c>
       <c r="K1036" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L1036" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M1036" t="n">
-        <v>300</v>
+        <v>852</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>300</v>
+        <v>852</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K1037" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="L1037" t="n">
-        <v>220</v>
+        <v>900</v>
       </c>
       <c r="M1037" t="n">
-        <v>220</v>
+        <v>843</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>220</v>
+        <v>843</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K1038" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="L1038" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="M1038" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75111,11 +75111,11 @@
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="K1039" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L1039" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="M1039" t="n">
-        <v>208</v>
+        <v>600</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>208</v>
+        <v>600</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="K1040" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="L1040" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1040" t="n">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75255,11 +75255,11 @@
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="K1041" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L1041" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M1041" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75327,11 +75327,11 @@
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1042" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="L1042" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M1042" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="K1043" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="L1043" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="M1043" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K1044" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L1044" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="M1044" t="n">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K1045" t="n">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="L1045" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1045" t="n">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K1046" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="L1046" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M1046" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K1047" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="L1047" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="M1047" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75804,25 +75804,25 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>4300</v>
+        <v>330</v>
       </c>
       <c r="K1048" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="L1048" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="M1048" t="n">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75876,25 +75876,25 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K1049" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="L1049" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="M1049" t="n">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75903,11 +75903,11 @@
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K1050" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="L1050" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1050" t="n">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75975,11 +75975,11 @@
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>1700</v>
+        <v>250</v>
       </c>
       <c r="K1051" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L1051" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="M1051" t="n">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76047,11 +76047,11 @@
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="K1052" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="L1052" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="M1052" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76119,11 +76119,11 @@
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76164,25 +76164,25 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>400</v>
+        <v>4300</v>
       </c>
       <c r="K1053" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="L1053" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="M1053" t="n">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76191,11 +76191,11 @@
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76236,25 +76236,25 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K1054" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="L1054" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M1054" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76263,11 +76263,11 @@
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76313,20 +76313,20 @@
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>2780</v>
+        <v>1500</v>
       </c>
       <c r="K1055" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="L1055" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1055" t="n">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76385,20 +76385,20 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1056" t="n">
         <v>1700</v>
       </c>
       <c r="K1056" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="L1056" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="M1056" t="n">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76452,25 +76452,25 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>2280</v>
+        <v>300</v>
       </c>
       <c r="K1057" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L1057" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M1057" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76479,11 +76479,11 @@
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76524,25 +76524,25 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>770</v>
+        <v>400</v>
       </c>
       <c r="K1058" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="L1058" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M1058" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76551,11 +76551,11 @@
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76601,20 +76601,20 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K1059" t="n">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="L1059" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="M1059" t="n">
-        <v>439</v>
+        <v>140</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76623,11 +76623,11 @@
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>439</v>
+        <v>140</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>1100</v>
+        <v>2780</v>
       </c>
       <c r="K1060" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="L1060" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M1060" t="n">
-        <v>443</v>
+        <v>319</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>443</v>
+        <v>319</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="K1061" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1061" t="n">
         <v>330</v>
       </c>
-      <c r="L1061" t="n">
-        <v>370</v>
-      </c>
       <c r="M1061" t="n">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76767,11 +76767,11 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76812,25 +76812,25 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>2500</v>
+        <v>2280</v>
       </c>
       <c r="K1062" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="L1062" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="M1062" t="n">
-        <v>363</v>
+        <v>191</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>363</v>
+        <v>191</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76884,25 +76884,25 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="K1063" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L1063" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M1063" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76911,11 +76911,11 @@
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K1064" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="L1064" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="M1064" t="n">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76983,11 +76983,11 @@
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="K1065" t="n">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="L1065" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M1065" t="n">
-        <v>289</v>
+        <v>443</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77055,11 +77055,11 @@
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>289</v>
+        <v>443</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="K1066" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="L1066" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="M1066" t="n">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77127,11 +77127,11 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K1067" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L1067" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="M1067" t="n">
-        <v>200</v>
+        <v>363</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77199,11 +77199,11 @@
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>200</v>
+        <v>363</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,11 +77249,11 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K1068" t="n">
         <v>200</v>
@@ -77271,7 +77271,7 @@
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1068" t="n">
@@ -77281,6 +77281,366 @@
         <v>1</v>
       </c>
       <c r="R1068" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1069" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1069" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1069" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1069" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>220</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>220</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>220</v>
+      </c>
+      <c r="N1069" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1069" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1069" t="n">
+        <v>220</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1069" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1070" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1070" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1070" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1070" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>289</v>
+      </c>
+      <c r="N1070" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1070" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P1070" t="n">
+        <v>289</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1070" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1071" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1071" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1071" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1071" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>270</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>280</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>276</v>
+      </c>
+      <c r="N1071" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1071" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1071" t="n">
+        <v>276</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1071" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1072" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1072" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1072" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1072" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>200</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>200</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1072" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1072" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P1072" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1072" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1073" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1073" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1073" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1073" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>200</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>200</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1073" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1073" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1073" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1073" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1080"/>
+  <dimension ref="A1:R1088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K893" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L893" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M893" t="n">
-        <v>580</v>
+        <v>429</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>580</v>
+        <v>429</v>
       </c>
       <c r="Q893" t="n">
         <v>1</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>2900</v>
+        <v>1000</v>
       </c>
       <c r="K894" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L894" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="M894" t="n">
-        <v>528</v>
+        <v>430</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64743,11 +64743,11 @@
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>528</v>
+        <v>430</v>
       </c>
       <c r="Q894" t="n">
         <v>1</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>2200</v>
+        <v>5100</v>
       </c>
       <c r="K895" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L895" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M895" t="n">
-        <v>309</v>
+        <v>524</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>309</v>
+        <v>524</v>
       </c>
       <c r="Q895" t="n">
         <v>1</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K896" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L896" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M896" t="n">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="Q896" t="n">
         <v>1</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K897" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L897" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M897" t="n">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="Q897" t="n">
         <v>1</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>4600</v>
+        <v>1500</v>
       </c>
       <c r="K898" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="L898" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="M898" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="Q898" t="n">
         <v>1</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65076,25 +65076,25 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="K899" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="L899" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M899" t="n">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="Q899" t="n">
         <v>1</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K900" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="L900" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M900" t="n">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="Q900" t="n">
         <v>1</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="K901" t="n">
-        <v>230</v>
+        <v>550</v>
       </c>
       <c r="L901" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M901" t="n">
-        <v>239</v>
+        <v>580</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>239</v>
+        <v>580</v>
       </c>
       <c r="Q901" t="n">
         <v>1</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>900</v>
+        <v>2900</v>
       </c>
       <c r="K902" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="L902" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="M902" t="n">
-        <v>191</v>
+        <v>528</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>191</v>
+        <v>528</v>
       </c>
       <c r="Q902" t="n">
         <v>1</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="K903" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="L903" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M903" t="n">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="Q903" t="n">
         <v>1</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K904" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="L904" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="M904" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="Q904" t="n">
         <v>1</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K905" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L905" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M905" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,11 +65535,11 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q905" t="n">
         <v>1</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>530</v>
+        <v>4600</v>
       </c>
       <c r="K906" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="L906" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="M906" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="Q906" t="n">
         <v>1</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65652,25 +65652,25 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>1150</v>
+        <v>2700</v>
       </c>
       <c r="K907" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="L907" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M907" t="n">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="Q907" t="n">
         <v>1</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>380</v>
+        <v>1300</v>
       </c>
       <c r="K908" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L908" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M908" t="n">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="Q908" t="n">
         <v>1</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>940</v>
+        <v>2100</v>
       </c>
       <c r="K909" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L909" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M909" t="n">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="Q909" t="n">
         <v>1</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="K910" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L910" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M910" t="n">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="Q910" t="n">
         <v>1</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>510</v>
+        <v>1400</v>
       </c>
       <c r="K911" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L911" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M911" t="n">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="Q911" t="n">
         <v>1</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66012,25 +66012,25 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="K912" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="L912" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="M912" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="Q912" t="n">
         <v>1</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66084,25 +66084,25 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="K913" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="L913" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="M913" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="Q913" t="n">
         <v>1</v>
@@ -66156,25 +66156,25 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="K914" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="L914" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="M914" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="Q914" t="n">
         <v>1</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>2400</v>
+        <v>1150</v>
       </c>
       <c r="K915" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="L915" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M915" t="n">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="Q915" t="n">
         <v>1</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>2100</v>
+        <v>380</v>
       </c>
       <c r="K916" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L916" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M916" t="n">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="Q916" t="n">
         <v>1</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>500</v>
+        <v>940</v>
       </c>
       <c r="K917" t="n">
         <v>200</v>
       </c>
       <c r="L917" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M917" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="Q917" t="n">
         <v>1</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K918" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="L918" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M918" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="Q918" t="n">
         <v>1</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>1300</v>
+        <v>510</v>
       </c>
       <c r="K919" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="L919" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="M919" t="n">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="Q919" t="n">
         <v>1</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>2200</v>
+        <v>460</v>
       </c>
       <c r="K920" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L920" t="n">
         <v>220</v>
       </c>
       <c r="M920" t="n">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="Q920" t="n">
         <v>1</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K921" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L921" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M921" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q921" t="n">
         <v>1</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66732,25 +66732,25 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K922" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="L922" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="M922" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="Q922" t="n">
         <v>1</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>260</v>
+        <v>2400</v>
       </c>
       <c r="K923" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="L923" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M923" t="n">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="Q923" t="n">
         <v>1</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="K924" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L924" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="M924" t="n">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="Q924" t="n">
         <v>1</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K925" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L925" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M925" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q925" t="n">
         <v>1</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K926" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="L926" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="M926" t="n">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="Q926" t="n">
         <v>1</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K927" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="L927" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M927" t="n">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="Q927" t="n">
         <v>1</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K928" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L928" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M928" t="n">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="Q928" t="n">
         <v>1</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K929" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="L929" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M929" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q929" t="n">
         <v>1</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="K930" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L930" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M930" t="n">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="Q930" t="n">
         <v>1</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>2900</v>
+        <v>260</v>
       </c>
       <c r="K931" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="L931" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M931" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="Q931" t="n">
         <v>1</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K932" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="L932" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="M932" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="Q932" t="n">
         <v>1</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K933" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="L933" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M933" t="n">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="Q933" t="n">
         <v>1</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="K934" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="L934" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="M934" t="n">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="Q934" t="n">
         <v>1</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K935" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="L935" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M935" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="Q935" t="n">
         <v>1</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K936" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="L936" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="M936" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="Q936" t="n">
         <v>1</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K937" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="L937" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="M937" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="Q937" t="n">
         <v>1</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="K938" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L938" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="M938" t="n">
-        <v>1000</v>
+        <v>209</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>1000</v>
+        <v>209</v>
       </c>
       <c r="Q938" t="n">
         <v>1</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="K939" t="n">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="L939" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M939" t="n">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="Q939" t="n">
         <v>1</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K940" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="L940" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="M940" t="n">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="Q940" t="n">
         <v>1</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K941" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L941" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M941" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q941" t="n">
         <v>1</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K942" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L942" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="M942" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="Q942" t="n">
         <v>1</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="K943" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="L943" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="M943" t="n">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="Q943" t="n">
         <v>1</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K944" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="L944" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M944" t="n">
-        <v>246</v>
+        <v>1000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>246</v>
+        <v>1000</v>
       </c>
       <c r="Q944" t="n">
         <v>1</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>2300</v>
+        <v>350</v>
       </c>
       <c r="K945" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="L945" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M945" t="n">
-        <v>244</v>
+        <v>1000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>244</v>
+        <v>1000</v>
       </c>
       <c r="Q945" t="n">
         <v>1</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K946" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="L946" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="M946" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="Q946" t="n">
         <v>1</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K947" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="L947" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="M947" t="n">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="Q947" t="n">
         <v>1</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K948" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="L948" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="M948" t="n">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="Q948" t="n">
         <v>1</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J949" t="n">
         <v>300</v>
       </c>
       <c r="K949" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L949" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M949" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="Q949" t="n">
         <v>1</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K950" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L950" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M950" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q950" t="n">
         <v>1</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>320</v>
+        <v>1500</v>
       </c>
       <c r="K951" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="L951" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="M951" t="n">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="Q951" t="n">
         <v>1</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="K952" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="L952" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M952" t="n">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="Q952" t="n">
         <v>1</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68976,13 +68976,13 @@
         <v>2300</v>
       </c>
       <c r="K953" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="L953" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M953" t="n">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="Q953" t="n">
         <v>1</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K954" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="L954" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M954" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q954" t="n">
         <v>1</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K955" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="L955" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M955" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q955" t="n">
         <v>1</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K956" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L956" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M956" t="n">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="Q956" t="n">
         <v>1</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>2600</v>
+        <v>300</v>
       </c>
       <c r="K957" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L957" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="M957" t="n">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="Q957" t="n">
         <v>1</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,11 +69329,11 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K958" t="n">
         <v>150</v>
@@ -69351,7 +69351,7 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P958" t="n">
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,11 +69401,11 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K959" t="n">
         <v>140</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="K960" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L960" t="n">
         <v>300</v>
       </c>
       <c r="M960" t="n">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q960" t="n">
         <v>1</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="K961" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L961" t="n">
         <v>300</v>
       </c>
       <c r="M961" t="n">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Q961" t="n">
         <v>1</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K962" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L962" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M962" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="Q962" t="n">
         <v>1</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K963" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L963" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M963" t="n">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="Q963" t="n">
         <v>1</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K964" t="n">
         <v>200</v>
       </c>
       <c r="L964" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M964" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q964" t="n">
         <v>1</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="K965" t="n">
         <v>200</v>
       </c>
       <c r="L965" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M965" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q965" t="n">
         <v>1</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K966" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L966" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M966" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q966" t="n">
         <v>1</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K967" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L967" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="M967" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="Q967" t="n">
         <v>1</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K968" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L968" t="n">
         <v>300</v>
       </c>
       <c r="M968" t="n">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="Q968" t="n">
         <v>1</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="K969" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L969" t="n">
         <v>300</v>
       </c>
       <c r="M969" t="n">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="Q969" t="n">
         <v>1</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J970" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K970" t="n">
+        <v>250</v>
+      </c>
+      <c r="L970" t="n">
         <v>300</v>
       </c>
-      <c r="K970" t="n">
-        <v>200</v>
-      </c>
-      <c r="L970" t="n">
-        <v>200</v>
-      </c>
       <c r="M970" t="n">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="Q970" t="n">
         <v>1</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>490</v>
+        <v>2400</v>
       </c>
       <c r="K971" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L971" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M971" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="Q971" t="n">
         <v>1</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K972" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L972" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M972" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q972" t="n">
         <v>1</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="K973" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="L973" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M973" t="n">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="K974" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L974" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M974" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q974" t="n">
         <v>1</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>770</v>
+        <v>600</v>
       </c>
       <c r="K975" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L975" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M975" t="n">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="Q975" t="n">
         <v>1</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>240</v>
+        <v>2200</v>
       </c>
       <c r="K976" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="L976" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M976" t="n">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="Q976" t="n">
         <v>1</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>430</v>
+        <v>2900</v>
       </c>
       <c r="K977" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="L977" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M977" t="n">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="Q977" t="n">
         <v>1</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70764,25 +70764,25 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="K978" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L978" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M978" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q978" t="n">
         <v>1</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70836,25 +70836,25 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>260</v>
+        <v>490</v>
       </c>
       <c r="K979" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L979" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M979" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>2500</v>
+        <v>660</v>
       </c>
       <c r="K980" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L980" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M980" t="n">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>1400</v>
+        <v>960</v>
       </c>
       <c r="K981" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="L981" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M981" t="n">
-        <v>283</v>
+        <v>342</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>283</v>
+        <v>342</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K982" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L982" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M982" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>1900</v>
+        <v>770</v>
       </c>
       <c r="K983" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="L983" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M983" t="n">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>2200</v>
+        <v>240</v>
       </c>
       <c r="K984" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="L984" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="M984" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>1500</v>
+        <v>430</v>
       </c>
       <c r="K985" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="L985" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M985" t="n">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71340,25 +71340,25 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>2300</v>
+        <v>440</v>
       </c>
       <c r="K986" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="L986" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="M986" t="n">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71412,25 +71412,25 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K987" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L987" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M987" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="K988" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L988" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="M988" t="n">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K989" t="n">
+        <v>270</v>
+      </c>
+      <c r="L989" t="n">
         <v>300</v>
       </c>
-      <c r="K989" t="n">
-        <v>200</v>
-      </c>
-      <c r="L989" t="n">
-        <v>200</v>
-      </c>
       <c r="M989" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,11 +71633,11 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K990" t="n">
         <v>200</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>330</v>
+        <v>1900</v>
       </c>
       <c r="K991" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="L991" t="n">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="M991" t="n">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J992" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K992" t="n">
         <v>270</v>
       </c>
-      <c r="K992" t="n">
-        <v>150</v>
-      </c>
       <c r="L992" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="M992" t="n">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>190</v>
+        <v>1500</v>
       </c>
       <c r="K993" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="L993" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M993" t="n">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>220</v>
+        <v>2300</v>
       </c>
       <c r="K994" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="L994" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="M994" t="n">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K995" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L995" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M995" t="n">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="Q995" t="n">
         <v>1</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="K996" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L996" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="M996" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="Q996" t="n">
         <v>1</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J997" t="n">
+        <v>300</v>
+      </c>
+      <c r="K997" t="n">
         <v>200</v>
       </c>
-      <c r="K997" t="n">
-        <v>180</v>
-      </c>
       <c r="L997" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M997" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K998" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="L998" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M998" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="Q998" t="n">
         <v>1</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72276,25 +72276,25 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>2900</v>
+        <v>330</v>
       </c>
       <c r="K999" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L999" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M999" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72348,25 +72348,25 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>1700</v>
+        <v>270</v>
       </c>
       <c r="K1000" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L1000" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M1000" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>2200</v>
+        <v>190</v>
       </c>
       <c r="K1001" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="L1001" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1001" t="n">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="K1002" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="L1002" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M1002" t="n">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1003" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1003" t="n">
         <v>250</v>
       </c>
-      <c r="K1003" t="n">
-        <v>160</v>
-      </c>
       <c r="L1003" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M1003" t="n">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="K1004" t="n">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="L1004" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="M1004" t="n">
-        <v>439</v>
+        <v>254</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>439</v>
+        <v>254</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="K1005" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="L1005" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="M1005" t="n">
-        <v>443</v>
+        <v>180</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>443</v>
+        <v>180</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>3200</v>
+        <v>300</v>
       </c>
       <c r="K1006" t="n">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="L1006" t="n">
-        <v>370</v>
+        <v>170</v>
       </c>
       <c r="M1006" t="n">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72852,25 +72852,25 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="K1007" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="L1007" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="M1007" t="n">
-        <v>363</v>
+        <v>150</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>363</v>
+        <v>150</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72924,25 +72924,25 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="K1008" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L1008" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="M1008" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="K1009" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="L1009" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="M1009" t="n">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="K1010" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="L1010" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M1010" t="n">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="K1011" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="L1011" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="M1011" t="n">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K1012" t="n">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="L1012" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="M1012" t="n">
-        <v>209</v>
+        <v>439</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>209</v>
+        <v>439</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1013" t="n">
         <v>1100</v>
       </c>
       <c r="K1013" t="n">
-        <v>220</v>
+        <v>430</v>
       </c>
       <c r="L1013" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="M1013" t="n">
-        <v>225</v>
+        <v>443</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>225</v>
+        <v>443</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>150</v>
+        <v>3200</v>
       </c>
       <c r="K1014" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="L1014" t="n">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="M1014" t="n">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="K1015" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="L1015" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="M1015" t="n">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>8100</v>
+        <v>700</v>
       </c>
       <c r="K1016" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1016" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="M1016" t="n">
-        <v>522</v>
+        <v>200</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>522</v>
+        <v>200</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>7700</v>
+        <v>500</v>
       </c>
       <c r="K1017" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="L1017" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="M1017" t="n">
-        <v>477</v>
+        <v>220</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>477</v>
+        <v>220</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>3700</v>
+        <v>1800</v>
       </c>
       <c r="K1018" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="L1018" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M1018" t="n">
-        <v>400</v>
+        <v>287</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>400</v>
+        <v>287</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="K1019" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L1019" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="M1019" t="n">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K1020" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L1020" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="M1020" t="n">
-        <v>482</v>
+        <v>209</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>482</v>
+        <v>209</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="K1021" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="L1021" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="M1021" t="n">
-        <v>479</v>
+        <v>225</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>479</v>
+        <v>225</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="K1022" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L1022" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1022" t="n">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="K1023" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="L1023" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="M1023" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>400</v>
+        <v>8100</v>
       </c>
       <c r="K1024" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="L1024" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="M1024" t="n">
-        <v>150</v>
+        <v>522</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74103,11 +74103,11 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>150</v>
+        <v>522</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>1700</v>
+        <v>7700</v>
       </c>
       <c r="K1025" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L1025" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="M1025" t="n">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74175,11 +74175,11 @@
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>1900</v>
+        <v>3700</v>
       </c>
       <c r="K1026" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L1026" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="M1026" t="n">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="K1027" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L1027" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M1027" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1028" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1028" t="n">
         <v>500</v>
       </c>
-      <c r="K1028" t="n">
-        <v>240</v>
-      </c>
-      <c r="L1028" t="n">
-        <v>240</v>
-      </c>
       <c r="M1028" t="n">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>400</v>
+        <v>2900</v>
       </c>
       <c r="K1029" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="L1029" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="M1029" t="n">
-        <v>230</v>
+        <v>479</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>230</v>
+        <v>479</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K1030" t="n">
         <v>250</v>
       </c>
       <c r="L1030" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1030" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="K1031" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="L1031" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1031" t="n">
-        <v>239</v>
+        <v>350</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>239</v>
+        <v>350</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>2700</v>
+        <v>400</v>
       </c>
       <c r="K1032" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L1032" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M1032" t="n">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="K1033" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L1033" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="M1033" t="n">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>350</v>
+        <v>1900</v>
       </c>
       <c r="K1034" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L1034" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="M1034" t="n">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="Q1034" t="n">
         <v>1</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="K1035" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L1035" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="M1035" t="n">
-        <v>577</v>
+        <v>312</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74895,11 +74895,11 @@
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>577</v>
+        <v>312</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74945,20 +74945,20 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K1036" t="n">
-        <v>550</v>
+        <v>240</v>
       </c>
       <c r="L1036" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="M1036" t="n">
-        <v>582</v>
+        <v>240</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>582</v>
+        <v>240</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K1037" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="L1037" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="M1037" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75089,20 +75089,20 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>2400</v>
+        <v>300</v>
       </c>
       <c r="K1038" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L1038" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1038" t="n">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>500</v>
+        <v>2900</v>
       </c>
       <c r="K1039" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="L1039" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1039" t="n">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="K1040" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="L1040" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1040" t="n">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K1041" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="L1041" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="M1041" t="n">
-        <v>371</v>
+        <v>180</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75327,11 +75327,11 @@
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>371</v>
+        <v>180</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="K1042" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="L1042" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="M1042" t="n">
-        <v>379</v>
+        <v>180</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>379</v>
+        <v>180</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K1043" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L1043" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M1043" t="n">
-        <v>379</v>
+        <v>577</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>379</v>
+        <v>577</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K1044" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L1044" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M1044" t="n">
-        <v>300</v>
+        <v>582</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>300</v>
+        <v>582</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K1045" t="n">
         <v>300</v>
       </c>
       <c r="L1045" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M1045" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>250</v>
+        <v>2400</v>
       </c>
       <c r="K1046" t="n">
         <v>300</v>
       </c>
       <c r="L1046" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M1046" t="n">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>3300</v>
+        <v>500</v>
       </c>
       <c r="K1047" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="L1047" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="M1047" t="n">
-        <v>473</v>
+        <v>150</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75759,11 +75759,11 @@
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>473</v>
+        <v>150</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K1048" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="L1048" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="M1048" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K1049" t="n">
+        <v>350</v>
+      </c>
+      <c r="L1049" t="n">
         <v>400</v>
       </c>
-      <c r="L1049" t="n">
-        <v>450</v>
-      </c>
       <c r="M1049" t="n">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>930</v>
+        <v>1200</v>
       </c>
       <c r="K1050" t="n">
+        <v>350</v>
+      </c>
+      <c r="L1050" t="n">
         <v>400</v>
       </c>
-      <c r="L1050" t="n">
-        <v>450</v>
-      </c>
       <c r="M1050" t="n">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75975,11 +75975,11 @@
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="K1051" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L1051" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M1051" t="n">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76047,11 +76047,11 @@
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="K1052" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L1052" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M1052" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76119,11 +76119,11 @@
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K1053" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L1053" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M1053" t="n">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>2100</v>
+        <v>250</v>
       </c>
       <c r="K1054" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L1054" t="n">
         <v>300</v>
       </c>
       <c r="M1054" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76313,20 +76313,20 @@
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>300</v>
+        <v>3300</v>
       </c>
       <c r="K1055" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="L1055" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M1055" t="n">
-        <v>200</v>
+        <v>473</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76335,11 +76335,11 @@
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>200</v>
+        <v>473</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76385,20 +76385,20 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>440</v>
+        <v>1100</v>
       </c>
       <c r="K1056" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L1056" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M1056" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76407,11 +76407,11 @@
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76457,20 +76457,20 @@
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K1057" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="L1057" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M1057" t="n">
-        <v>241</v>
+        <v>420</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76479,11 +76479,11 @@
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>241</v>
+        <v>420</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>1900</v>
+        <v>930</v>
       </c>
       <c r="K1058" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="L1058" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M1058" t="n">
-        <v>237</v>
+        <v>430</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>237</v>
+        <v>430</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76601,20 +76601,20 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K1059" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L1059" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1059" t="n">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76623,11 +76623,11 @@
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>900</v>
+        <v>260</v>
       </c>
       <c r="K1060" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="L1060" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M1060" t="n">
-        <v>189</v>
+        <v>350</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>189</v>
+        <v>350</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="K1061" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="L1061" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="M1061" t="n">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>200</v>
+        <v>2100</v>
       </c>
       <c r="K1062" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="L1062" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="M1062" t="n">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K1063" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L1063" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1063" t="n">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>1400</v>
+        <v>440</v>
       </c>
       <c r="K1064" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L1064" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1064" t="n">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77033,20 +77033,20 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K1065" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L1065" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M1065" t="n">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1066" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>220</v>
+      </c>
+      <c r="L1066" t="n">
         <v>250</v>
       </c>
-      <c r="K1066" t="n">
-        <v>230</v>
-      </c>
-      <c r="L1066" t="n">
-        <v>230</v>
-      </c>
       <c r="M1066" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="K1067" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="L1067" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1067" t="n">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77199,11 +77199,11 @@
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="K1068" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="L1068" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1068" t="n">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77271,11 +77271,11 @@
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>2200</v>
+        <v>150</v>
       </c>
       <c r="K1069" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="L1069" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="M1069" t="n">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77343,11 +77343,11 @@
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="K1070" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="L1070" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="M1070" t="n">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="K1071" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1071" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1071" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77487,11 +77487,11 @@
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1072" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1072" t="n">
         <v>300</v>
       </c>
-      <c r="K1072" t="n">
-        <v>200</v>
-      </c>
-      <c r="L1072" t="n">
-        <v>200</v>
-      </c>
       <c r="M1072" t="n">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77559,11 +77559,11 @@
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K1073" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L1073" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M1073" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77631,11 +77631,11 @@
       </c>
       <c r="O1073" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K1074" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L1074" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M1074" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1075" t="n">
-        <v>750</v>
+        <v>270</v>
       </c>
       <c r="L1075" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M1075" t="n">
-        <v>780</v>
+        <v>281</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77775,11 +77775,11 @@
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>780</v>
+        <v>281</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>1350</v>
+        <v>1900</v>
       </c>
       <c r="K1076" t="n">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="L1076" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M1076" t="n">
-        <v>778</v>
+        <v>287</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77847,11 +77847,11 @@
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>778</v>
+        <v>287</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="K1077" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="L1077" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M1077" t="n">
-        <v>574</v>
+        <v>288</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77919,11 +77919,11 @@
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>574</v>
+        <v>288</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="K1078" t="n">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="L1078" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="M1078" t="n">
-        <v>572</v>
+        <v>279</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>572</v>
+        <v>279</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K1079" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1079" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1079" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78063,11 +78063,11 @@
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78093,58 +78093,634 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1080" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1080" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1080" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>200</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>200</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1080" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1080" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1080" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1080" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1081" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1081" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1081" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1081" t="n">
+        <v>400</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>200</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>200</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1081" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1081" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P1081" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1081" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1082" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1082" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1082" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1082" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>200</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>200</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1082" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1082" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1082" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1082" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1083" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E1080" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1080" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>Camote</t>
-        </is>
-      </c>
-      <c r="I1080" t="inlineStr">
+      <c r="E1083" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1083" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1083" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1083" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>780</v>
+      </c>
+      <c r="N1083" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1083" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1083" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1083" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1084" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1084" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1084" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1084" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>778</v>
+      </c>
+      <c r="N1084" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1084" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1084" t="n">
+        <v>778</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1084" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1085" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1085" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1085" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1085" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>574</v>
+      </c>
+      <c r="N1085" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1085" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1085" t="n">
+        <v>574</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1085" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1086" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1086" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1086" t="n">
+        <v>2900</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>572</v>
+      </c>
+      <c r="N1086" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1086" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1086" t="n">
+        <v>572</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1086" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1087" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1087" t="inlineStr">
         <is>
           <t>3a (guarda)</t>
         </is>
       </c>
-      <c r="J1080" t="n">
+      <c r="J1087" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1087" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1087" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1087" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1087" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1088" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1088" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1088" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1088" t="n">
         <v>800</v>
       </c>
-      <c r="K1080" t="n">
+      <c r="K1088" t="n">
         <v>270</v>
       </c>
-      <c r="L1080" t="n">
+      <c r="L1088" t="n">
         <v>270</v>
       </c>
-      <c r="M1080" t="n">
+      <c r="M1088" t="n">
         <v>270</v>
       </c>
-      <c r="N1080" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1080" t="inlineStr">
+      <c r="N1088" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1088" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P1080" t="n">
+      <c r="P1088" t="n">
         <v>270</v>
       </c>
-      <c r="Q1080" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1080" t="inlineStr">
+      <c r="Q1088" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1088" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1124"/>
+  <dimension ref="A1:R1126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="K980" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L980" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M980" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="K981" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L981" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M981" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71061,7 +71061,7 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="K982" t="n">
         <v>1000</v>
@@ -71079,7 +71079,7 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P982" t="n">
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="K983" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="L983" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="M983" t="n">
-        <v>274</v>
+        <v>1000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>274</v>
+        <v>1000</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>1700</v>
+        <v>650</v>
       </c>
       <c r="K984" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="L984" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="M984" t="n">
-        <v>266</v>
+        <v>1000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>266</v>
+        <v>1000</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K985" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L985" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M985" t="n">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K986" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L986" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M986" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K987" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L987" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="M987" t="n">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="K988" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L988" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M988" t="n">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="K989" t="n">
         <v>240</v>
       </c>
       <c r="L989" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M989" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K990" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="L990" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="M990" t="n">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K991" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="L991" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="M991" t="n">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K992" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L992" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M992" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K993" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="L993" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="M993" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K994" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L994" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M994" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71997,7 +71997,7 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K995" t="n">
         <v>140</v>
@@ -72015,7 +72015,7 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P995" t="n">
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>2300</v>
+        <v>270</v>
       </c>
       <c r="K996" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="L996" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M996" t="n">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="Q996" t="n">
         <v>1</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>2300</v>
+        <v>320</v>
       </c>
       <c r="K997" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="L997" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="M997" t="n">
-        <v>287</v>
+        <v>140</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>287</v>
+        <v>140</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K998" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L998" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M998" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q998" t="n">
         <v>1</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="K999" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L999" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M999" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1000" t="n">
         <v>200</v>
       </c>
       <c r="L1000" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="M1000" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>2600</v>
+        <v>500</v>
       </c>
       <c r="K1001" t="n">
         <v>200</v>
       </c>
       <c r="L1001" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="M1001" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1002" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1002" t="n">
         <v>200</v>
       </c>
-      <c r="K1002" t="n">
-        <v>150</v>
-      </c>
       <c r="L1002" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M1002" t="n">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="K1003" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L1003" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M1003" t="n">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="K1004" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L1004" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1004" t="n">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K1005" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="L1005" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="M1005" t="n">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72789,7 +72789,7 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="K1006" t="n">
         <v>250</v>
@@ -72807,7 +72807,7 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1006" t="n">
@@ -72861,7 +72861,7 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="K1007" t="n">
         <v>250</v>
@@ -72870,7 +72870,7 @@
         <v>300</v>
       </c>
       <c r="M1007" t="n">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K1008" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1008" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1008" t="n">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="K1009" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1009" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1009" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73077,7 +73077,7 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1010" t="n">
         <v>200</v>
@@ -73095,7 +73095,7 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1010" t="n">
@@ -73167,7 +73167,7 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1011" t="n">
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="K1012" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L1012" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1012" t="n">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>2900</v>
+        <v>600</v>
       </c>
       <c r="K1013" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L1013" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1013" t="n">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1014" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1014" t="n">
         <v>300</v>
       </c>
-      <c r="K1014" t="n">
-        <v>200</v>
-      </c>
-      <c r="L1014" t="n">
-        <v>200</v>
-      </c>
       <c r="M1014" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>490</v>
+        <v>2900</v>
       </c>
       <c r="K1015" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1015" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1015" t="n">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="K1016" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1016" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1016" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>960</v>
+        <v>490</v>
       </c>
       <c r="K1017" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="L1017" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1017" t="n">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>380</v>
+        <v>660</v>
       </c>
       <c r="K1018" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1018" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1018" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>770</v>
+        <v>960</v>
       </c>
       <c r="K1019" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="L1019" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M1019" t="n">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="K1020" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="L1020" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="M1020" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>430</v>
+        <v>770</v>
       </c>
       <c r="K1021" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="L1021" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1021" t="n">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73932,25 +73932,25 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="K1022" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L1022" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M1022" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -74004,7 +74004,7 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="K1023" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="L1023" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M1023" t="n">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74076,25 +74076,25 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>2500</v>
+        <v>440</v>
       </c>
       <c r="K1024" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="L1024" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="M1024" t="n">
-        <v>359</v>
+        <v>150</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74103,11 +74103,11 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>359</v>
+        <v>150</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74148,25 +74148,25 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>1400</v>
+        <v>260</v>
       </c>
       <c r="K1025" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="L1025" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M1025" t="n">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74175,11 +74175,11 @@
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="K1026" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L1026" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="M1026" t="n">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,17 +74297,17 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="K1027" t="n">
         <v>270</v>
       </c>
       <c r="L1027" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M1027" t="n">
         <v>283</v>
@@ -74319,7 +74319,7 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1027" t="n">
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K1028" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L1028" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1028" t="n">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74445,16 +74445,16 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K1029" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L1029" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M1029" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K1030" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L1030" t="n">
         <v>280</v>
       </c>
       <c r="M1030" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74535,11 +74535,11 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1031" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1031" t="n">
         <v>300</v>
       </c>
-      <c r="K1031" t="n">
-        <v>200</v>
-      </c>
-      <c r="L1031" t="n">
-        <v>200</v>
-      </c>
       <c r="M1031" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K1032" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1032" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1032" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74679,11 +74679,11 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74751,7 +74751,7 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1033" t="n">
@@ -74805,7 +74805,7 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1034" t="n">
         <v>200</v>
@@ -74823,7 +74823,7 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1034" t="n">
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K1035" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L1035" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M1035" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74895,11 +74895,11 @@
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74945,20 +74945,20 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K1036" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1036" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1036" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="K1037" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L1037" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M1037" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75039,11 +75039,11 @@
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75093,7 +75093,7 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K1038" t="n">
         <v>150</v>
@@ -75111,7 +75111,7 @@
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1038" t="n">
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>1400</v>
+        <v>190</v>
       </c>
       <c r="K1039" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L1039" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="M1039" t="n">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>2300</v>
+        <v>220</v>
       </c>
       <c r="K1040" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L1040" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="M1040" t="n">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K1041" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="L1041" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M1041" t="n">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="K1042" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="L1042" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="M1042" t="n">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75444,25 +75444,25 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>2900</v>
+        <v>200</v>
       </c>
       <c r="K1043" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L1043" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M1043" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75516,7 +75516,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K1044" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="L1044" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="M1044" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75588,25 +75588,25 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="K1045" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="L1045" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1045" t="n">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75615,11 +75615,11 @@
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75660,25 +75660,25 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K1046" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="L1046" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="M1046" t="n">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75687,11 +75687,11 @@
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>250</v>
+        <v>2200</v>
       </c>
       <c r="K1047" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="L1047" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M1047" t="n">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K1048" t="n">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="L1048" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="M1048" t="n">
-        <v>439</v>
+        <v>226</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>439</v>
+        <v>226</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K1049" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="L1049" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="M1049" t="n">
-        <v>443</v>
+        <v>160</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>443</v>
+        <v>160</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="K1050" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="L1050" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="M1050" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="K1051" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="L1051" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M1051" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K1052" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L1052" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="M1052" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K1053" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="L1053" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="M1053" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K1054" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L1054" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1054" t="n">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76313,20 +76313,20 @@
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K1055" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="L1055" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="M1055" t="n">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76385,20 +76385,20 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K1056" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1056" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="M1056" t="n">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76457,20 +76457,20 @@
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="K1057" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L1057" t="n">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="M1057" t="n">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="K1058" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1058" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M1058" t="n">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76601,20 +76601,20 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K1059" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="L1059" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M1059" t="n">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>8100</v>
+        <v>150</v>
       </c>
       <c r="K1060" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="L1060" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="M1060" t="n">
-        <v>522</v>
+        <v>150</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>522</v>
+        <v>150</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>7700</v>
+        <v>200</v>
       </c>
       <c r="K1061" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="L1061" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="M1061" t="n">
-        <v>477</v>
+        <v>160</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>477</v>
+        <v>160</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>3700</v>
+        <v>8100</v>
       </c>
       <c r="K1062" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L1062" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M1062" t="n">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>2500</v>
+        <v>7700</v>
       </c>
       <c r="K1063" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L1063" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M1063" t="n">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>1100</v>
+        <v>3700</v>
       </c>
       <c r="K1064" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L1064" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M1064" t="n">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76983,11 +76983,11 @@
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77033,20 +77033,20 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="K1065" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L1065" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M1065" t="n">
-        <v>479</v>
+        <v>350</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77055,11 +77055,11 @@
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>479</v>
+        <v>350</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K1066" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L1066" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M1066" t="n">
-        <v>278</v>
+        <v>482</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>278</v>
+        <v>482</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>1100</v>
+        <v>2900</v>
       </c>
       <c r="K1067" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L1067" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M1067" t="n">
-        <v>350</v>
+        <v>479</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>350</v>
+        <v>479</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K1068" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="L1068" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M1068" t="n">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="K1069" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L1069" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="M1069" t="n">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77343,11 +77343,11 @@
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="K1070" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1070" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1070" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77415,11 +77415,11 @@
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="K1071" t="n">
         <v>300</v>
       </c>
       <c r="L1071" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M1071" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77487,11 +77487,11 @@
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K1072" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L1072" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="M1072" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77559,11 +77559,11 @@
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K1073" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L1073" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M1073" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77631,11 +77631,11 @@
       </c>
       <c r="O1073" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1074" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L1074" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M1074" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77703,11 +77703,11 @@
       </c>
       <c r="O1074" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>2900</v>
+        <v>400</v>
       </c>
       <c r="K1075" t="n">
         <v>230</v>
       </c>
       <c r="L1075" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M1075" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="K1076" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L1076" t="n">
         <v>250</v>
       </c>
       <c r="M1076" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>400</v>
+        <v>2900</v>
       </c>
       <c r="K1077" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="L1077" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M1077" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>350</v>
+        <v>2700</v>
       </c>
       <c r="K1078" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="L1078" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M1078" t="n">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K1079" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="L1079" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="M1079" t="n">
-        <v>577</v>
+        <v>180</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>577</v>
+        <v>180</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K1080" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="L1080" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="M1080" t="n">
-        <v>582</v>
+        <v>180</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>582</v>
+        <v>180</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="K1081" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L1081" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M1081" t="n">
-        <v>330</v>
+        <v>577</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>330</v>
+        <v>577</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="K1082" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L1082" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M1082" t="n">
-        <v>323</v>
+        <v>582</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>323</v>
+        <v>582</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="K1083" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L1083" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M1083" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="K1084" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L1084" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M1084" t="n">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K1085" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="L1085" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="M1085" t="n">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78495,11 +78495,11 @@
       </c>
       <c r="O1085" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78545,20 +78545,20 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K1086" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="L1086" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="M1086" t="n">
-        <v>379</v>
+        <v>150</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78567,11 +78567,11 @@
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>379</v>
+        <v>150</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78621,7 +78621,7 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K1087" t="n">
         <v>350</v>
@@ -78630,7 +78630,7 @@
         <v>400</v>
       </c>
       <c r="M1087" t="n">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78639,11 +78639,11 @@
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78689,20 +78689,20 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1088" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>350</v>
+      </c>
+      <c r="L1088" t="n">
         <v>400</v>
       </c>
-      <c r="K1088" t="n">
-        <v>300</v>
-      </c>
-      <c r="L1088" t="n">
-        <v>300</v>
-      </c>
       <c r="M1088" t="n">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78711,11 +78711,11 @@
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78761,20 +78761,20 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K1089" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L1089" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M1089" t="n">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78783,11 +78783,11 @@
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78837,7 +78837,7 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K1090" t="n">
         <v>300</v>
@@ -78855,7 +78855,7 @@
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1090" t="n">
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>3300</v>
+        <v>300</v>
       </c>
       <c r="K1091" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L1091" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M1091" t="n">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78927,11 +78927,11 @@
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78981,16 +78981,16 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K1092" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L1092" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M1092" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -78999,11 +78999,11 @@
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="K1093" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L1093" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M1093" t="n">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79071,11 +79071,11 @@
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79121,20 +79121,20 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>930</v>
+        <v>1100</v>
       </c>
       <c r="K1094" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L1094" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M1094" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79193,20 +79193,20 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K1095" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L1095" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M1095" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79265,20 +79265,20 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>260</v>
+        <v>930</v>
       </c>
       <c r="K1096" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L1096" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M1096" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79337,20 +79337,20 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="K1097" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L1097" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M1097" t="n">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79359,11 +79359,11 @@
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79409,20 +79409,20 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>2100</v>
+        <v>260</v>
       </c>
       <c r="K1098" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="L1098" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M1098" t="n">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79481,20 +79481,20 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1099" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1099" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="M1099" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>440</v>
+        <v>2100</v>
       </c>
       <c r="K1100" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1100" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1100" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K1101" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L1101" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1101" t="n">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79697,20 +79697,20 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>1900</v>
+        <v>440</v>
       </c>
       <c r="K1102" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="L1102" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1102" t="n">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K1103" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="L1103" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M1103" t="n">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="K1104" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="L1104" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M1104" t="n">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="K1105" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L1105" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M1105" t="n">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79985,20 +79985,20 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1106" t="n">
+        <v>900</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>180</v>
+      </c>
+      <c r="L1106" t="n">
         <v>200</v>
       </c>
-      <c r="K1106" t="n">
-        <v>130</v>
-      </c>
-      <c r="L1106" t="n">
-        <v>130</v>
-      </c>
       <c r="M1106" t="n">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>1300</v>
+        <v>150</v>
       </c>
       <c r="K1107" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="L1107" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="M1107" t="n">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="K1108" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="L1108" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="M1108" t="n">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80201,20 +80201,20 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1109" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1109" t="n">
         <v>300</v>
       </c>
-      <c r="K1109" t="n">
-        <v>220</v>
-      </c>
-      <c r="L1109" t="n">
-        <v>220</v>
-      </c>
       <c r="M1109" t="n">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="K1110" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="L1110" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="M1110" t="n">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K1111" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="L1111" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="M1111" t="n">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80367,11 +80367,11 @@
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="K1112" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="L1112" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M1112" t="n">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80439,11 +80439,11 @@
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="K1113" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L1113" t="n">
         <v>300</v>
       </c>
       <c r="M1113" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80511,11 +80511,11 @@
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80565,16 +80565,16 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>3300</v>
+        <v>1900</v>
       </c>
       <c r="K1114" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="L1114" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M1114" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80583,11 +80583,11 @@
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="K1115" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1115" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1115" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80655,11 +80655,11 @@
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>300</v>
+        <v>3300</v>
       </c>
       <c r="K1116" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L1116" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="M1116" t="n">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80727,11 +80727,11 @@
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80781,7 +80781,7 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K1117" t="n">
         <v>200</v>
@@ -80799,7 +80799,7 @@
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1117" t="n">
@@ -80853,7 +80853,7 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K1118" t="n">
         <v>200</v>
@@ -80871,7 +80871,7 @@
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1118" t="n">
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1119" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L1119" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1119" t="n">
-        <v>780</v>
+        <v>200</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80943,11 +80943,11 @@
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>780</v>
+        <v>200</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>1350</v>
+        <v>500</v>
       </c>
       <c r="K1120" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L1120" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1120" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="K1121" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1121" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1121" t="n">
-        <v>574</v>
+        <v>780</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>574</v>
+        <v>780</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>2900</v>
+        <v>1350</v>
       </c>
       <c r="K1122" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1122" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1122" t="n">
-        <v>572</v>
+        <v>778</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>572</v>
+        <v>778</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="K1123" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L1123" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M1123" t="n">
-        <v>300</v>
+        <v>574</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>300</v>
+        <v>574</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81281,38 +81281,182 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1124" t="n">
+        <v>2900</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>572</v>
+      </c>
+      <c r="N1124" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1124" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1124" t="n">
+        <v>572</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1124" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1125" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1125" t="inlineStr">
+        <is>
           <t>3a (guarda)</t>
         </is>
       </c>
-      <c r="J1124" t="n">
+      <c r="J1125" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1125" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1125" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1125" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1125" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1126" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1126" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1126" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1126" t="inlineStr">
+        <is>
+          <t>3a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1126" t="n">
         <v>800</v>
       </c>
-      <c r="K1124" t="n">
+      <c r="K1126" t="n">
         <v>270</v>
       </c>
-      <c r="L1124" t="n">
+      <c r="L1126" t="n">
         <v>270</v>
       </c>
-      <c r="M1124" t="n">
+      <c r="M1126" t="n">
         <v>270</v>
       </c>
-      <c r="N1124" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1124" t="inlineStr">
+      <c r="N1126" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1126" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P1124" t="n">
+      <c r="P1126" t="n">
         <v>270</v>
       </c>
-      <c r="Q1124" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1124" t="inlineStr">
+      <c r="Q1126" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1126" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1140"/>
+  <dimension ref="A1:R1142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>530</v>
+        <v>3700</v>
       </c>
       <c r="K971" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L971" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M971" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="Q971" t="n">
         <v>1</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>1150</v>
+        <v>900</v>
       </c>
       <c r="K972" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="L972" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M972" t="n">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="Q972" t="n">
         <v>1</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="K973" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L973" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M973" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>940</v>
+        <v>1150</v>
       </c>
       <c r="K974" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L974" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M974" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="Q974" t="n">
         <v>1</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="K975" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L975" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M975" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q975" t="n">
         <v>1</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>510</v>
+        <v>940</v>
       </c>
       <c r="K976" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L976" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="M976" t="n">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="Q976" t="n">
         <v>1</v>
@@ -70692,25 +70692,25 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="K977" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="L977" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M977" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="Q977" t="n">
         <v>1</v>
@@ -70764,25 +70764,25 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="K978" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="L978" t="n">
         <v>170</v>
       </c>
       <c r="M978" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q978" t="n">
         <v>1</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="K979" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="L979" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="M979" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70908,25 +70908,25 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>1100</v>
+        <v>290</v>
       </c>
       <c r="K980" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L980" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="M980" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70980,25 +70980,25 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>1300</v>
+        <v>240</v>
       </c>
       <c r="K981" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="L981" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="M981" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K982" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="L982" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="M982" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K983" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="L983" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M983" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K984" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="L984" t="n">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="M984" t="n">
-        <v>423</v>
+        <v>170</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>423</v>
+        <v>170</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J985" t="n">
         <v>600</v>
       </c>
       <c r="K985" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="L985" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="M985" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>6100</v>
+        <v>1300</v>
       </c>
       <c r="K986" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L986" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="M986" t="n">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K987" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L987" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M987" t="n">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>900</v>
+        <v>6100</v>
       </c>
       <c r="K988" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L988" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M988" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K989" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L989" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M989" t="n">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J990" t="n">
+        <v>900</v>
+      </c>
+      <c r="K990" t="n">
         <v>300</v>
       </c>
-      <c r="K990" t="n">
-        <v>150</v>
-      </c>
       <c r="L990" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M990" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K991" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="L991" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="M991" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71772,25 +71772,25 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>4600</v>
+        <v>300</v>
       </c>
       <c r="K992" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L992" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M992" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71844,25 +71844,25 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K993" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="L993" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M993" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>1100</v>
+        <v>4600</v>
       </c>
       <c r="K994" t="n">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="L994" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="M994" t="n">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71988,25 +71988,25 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K995" t="n">
-        <v>430</v>
+        <v>90</v>
       </c>
       <c r="L995" t="n">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="M995" t="n">
-        <v>443</v>
+        <v>90</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>443</v>
+        <v>90</v>
       </c>
       <c r="Q995" t="n">
         <v>1</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="K996" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="L996" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="M996" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="Q996" t="n">
         <v>1</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="K997" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="L997" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M997" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K998" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L998" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="M998" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="Q998" t="n">
         <v>1</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K999" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="L999" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="M999" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K1000" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1000" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M1000" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K1001" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="L1001" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="M1001" t="n">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K1002" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L1002" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M1002" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K1003" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1003" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1003" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K1004" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L1004" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="M1004" t="n">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1005" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L1005" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M1005" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K1006" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1006" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1006" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="K1007" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L1007" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="M1007" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="K1008" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L1008" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M1008" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>1900</v>
+        <v>290</v>
       </c>
       <c r="K1009" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="L1009" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M1009" t="n">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K1010" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1010" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M1010" t="n">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1011" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L1011" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M1011" t="n">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K1012" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1012" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M1012" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K1013" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="L1013" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="M1013" t="n">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>1600</v>
+        <v>290</v>
       </c>
       <c r="K1014" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L1014" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M1014" t="n">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1015" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="L1015" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="M1015" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K1016" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="L1016" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="M1016" t="n">
-        <v>1100</v>
+        <v>284</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>1100</v>
+        <v>284</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K1017" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="L1017" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="M1017" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73653,7 +73653,7 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K1018" t="n">
         <v>1100</v>
@@ -73671,7 +73671,7 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1018" t="n">
@@ -73716,25 +73716,25 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>3600</v>
+        <v>1400</v>
       </c>
       <c r="K1019" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L1019" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1019" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73788,25 +73788,25 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K1020" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L1020" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1020" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="K1021" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1021" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1021" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="K1022" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1022" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1022" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74004,25 +74004,25 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="K1023" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L1023" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M1023" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74076,25 +74076,25 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K1024" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L1024" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M1024" t="n">
-        <v>958</v>
+        <v>450</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74103,11 +74103,11 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>958</v>
+        <v>450</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74157,7 +74157,7 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>2050</v>
+        <v>4000</v>
       </c>
       <c r="K1025" t="n">
         <v>900</v>
@@ -74166,7 +74166,7 @@
         <v>1000</v>
       </c>
       <c r="M1025" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74175,11 +74175,11 @@
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="K1026" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1026" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1026" t="n">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1027" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>900</v>
+      </c>
+      <c r="L1027" t="n">
         <v>1000</v>
       </c>
-      <c r="K1027" t="n">
-        <v>700</v>
-      </c>
-      <c r="L1027" t="n">
-        <v>700</v>
-      </c>
       <c r="M1027" t="n">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74373,7 +74373,7 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="K1028" t="n">
         <v>700</v>
@@ -74391,7 +74391,7 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1028" t="n">
@@ -74436,25 +74436,25 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="K1029" t="n">
         <v>700</v>
       </c>
       <c r="L1029" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="M1029" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74508,7 +74508,7 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>420</v>
+        <v>650</v>
       </c>
       <c r="K1030" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1030" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1030" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74535,11 +74535,11 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74580,25 +74580,25 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K1031" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="L1031" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M1031" t="n">
-        <v>292</v>
+        <v>733</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>292</v>
+        <v>733</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74652,25 +74652,25 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>800</v>
+        <v>420</v>
       </c>
       <c r="K1032" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="L1032" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="M1032" t="n">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74679,11 +74679,11 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>250</v>
+        <v>2200</v>
       </c>
       <c r="K1033" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="L1033" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M1033" t="n">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K1034" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="L1034" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="M1034" t="n">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="Q1034" t="n">
         <v>1</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>2100</v>
+        <v>250</v>
       </c>
       <c r="K1035" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="L1035" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1035" t="n">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74945,20 +74945,20 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1036" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1036" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="M1036" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>440</v>
+        <v>2100</v>
       </c>
       <c r="K1037" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1037" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1037" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75089,20 +75089,20 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K1038" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L1038" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1038" t="n">
-        <v>576</v>
+        <v>200</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75111,11 +75111,11 @@
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>576</v>
+        <v>200</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>4100</v>
+        <v>440</v>
       </c>
       <c r="K1039" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1039" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="M1039" t="n">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75183,11 +75183,11 @@
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="K1040" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L1040" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M1040" t="n">
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>1600</v>
+        <v>4100</v>
       </c>
       <c r="K1041" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L1041" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M1041" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="K1042" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L1042" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M1042" t="n">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>880</v>
+        <v>1600</v>
       </c>
       <c r="K1043" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L1043" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M1043" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="K1044" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1044" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1044" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="K1045" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L1045" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M1045" t="n">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75615,11 +75615,11 @@
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75669,16 +75669,16 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>1400</v>
+        <v>680</v>
       </c>
       <c r="K1046" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L1046" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1046" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75687,11 +75687,11 @@
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K1047" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="L1047" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="M1047" t="n">
-        <v>120</v>
+        <v>431</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>120</v>
+        <v>431</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75804,25 +75804,25 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="K1048" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L1048" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M1048" t="n">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75876,25 +75876,25 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K1049" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L1049" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M1049" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75948,25 +75948,25 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>6000</v>
+        <v>3400</v>
       </c>
       <c r="K1050" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="L1050" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
       <c r="M1050" t="n">
-        <v>571</v>
+        <v>124</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75975,11 +75975,11 @@
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>571</v>
+        <v>124</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76020,25 +76020,25 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="K1051" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="L1051" t="n">
-        <v>650</v>
+        <v>90</v>
       </c>
       <c r="M1051" t="n">
-        <v>628</v>
+        <v>90</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76047,11 +76047,11 @@
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>628</v>
+        <v>90</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76101,7 +76101,7 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="K1052" t="n">
         <v>550</v>
@@ -76110,7 +76110,7 @@
         <v>600</v>
       </c>
       <c r="M1052" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76119,11 +76119,11 @@
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="K1053" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L1053" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M1053" t="n">
-        <v>400</v>
+        <v>628</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76191,11 +76191,11 @@
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>400</v>
+        <v>628</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K1054" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1054" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1054" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76263,11 +76263,11 @@
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="K1055" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L1055" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M1055" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76335,11 +76335,11 @@
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76385,20 +76385,20 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>7800</v>
+        <v>1000</v>
       </c>
       <c r="K1056" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1056" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1056" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76407,11 +76407,11 @@
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76461,7 +76461,7 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K1057" t="n">
         <v>450</v>
@@ -76479,7 +76479,7 @@
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1057" t="n">
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>1400</v>
+        <v>7800</v>
       </c>
       <c r="K1058" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L1058" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="M1058" t="n">
-        <v>257</v>
+        <v>571</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76551,11 +76551,11 @@
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>257</v>
+        <v>571</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76601,20 +76601,20 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K1059" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L1059" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="M1059" t="n">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76623,11 +76623,11 @@
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K1060" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1060" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="M1060" t="n">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K1061" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L1061" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="M1061" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K1062" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L1062" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M1062" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,24 +76889,24 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1063" t="n">
-        <v>600</v>
+        <v>190</v>
       </c>
       <c r="L1063" t="n">
-        <v>650</v>
+        <v>190</v>
       </c>
       <c r="M1063" t="n">
-        <v>623</v>
+        <v>190</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>623</v>
+        <v>190</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>1700</v>
+        <v>330</v>
       </c>
       <c r="K1064" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="L1064" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="M1064" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76983,11 +76983,11 @@
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77033,20 +77033,20 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K1065" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L1065" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M1065" t="n">
-        <v>350</v>
+        <v>623</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>350</v>
+        <v>623</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K1066" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1066" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M1066" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1067" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1067" t="n">
         <v>300</v>
       </c>
-      <c r="K1067" t="n">
-        <v>150</v>
-      </c>
       <c r="L1067" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="M1067" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="K1068" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="L1068" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M1068" t="n">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77271,11 +77271,11 @@
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,24 +77321,24 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="K1069" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="L1069" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1069" t="n">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O1069" t="inlineStr">
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K1070" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1070" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1070" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="K1071" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1071" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1071" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1072" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L1072" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1072" t="n">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K1073" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="L1073" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1073" t="n">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1074" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L1074" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1074" t="n">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K1075" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1075" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1075" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K1076" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L1076" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="M1076" t="n">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77847,11 +77847,11 @@
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K1077" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="L1077" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1077" t="n">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K1078" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L1078" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="M1078" t="n">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1079" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1079" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1079" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K1080" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1080" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1080" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="K1081" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1081" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1081" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>1700</v>
+        <v>190</v>
       </c>
       <c r="K1082" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1082" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1082" t="n">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>1900</v>
+        <v>170</v>
       </c>
       <c r="K1083" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1083" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1083" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78351,11 +78351,11 @@
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="K1084" t="n">
         <v>300</v>
       </c>
       <c r="L1084" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M1084" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78423,11 +78423,11 @@
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K1085" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L1085" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="M1085" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78495,11 +78495,11 @@
       </c>
       <c r="O1085" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78545,20 +78545,20 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K1086" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L1086" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M1086" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78567,11 +78567,11 @@
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78621,16 +78621,16 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1087" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L1087" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M1087" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78639,11 +78639,11 @@
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78689,20 +78689,20 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K1088" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="L1088" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M1088" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78761,20 +78761,20 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K1089" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L1089" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M1089" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1090" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1090" t="n">
         <v>300</v>
       </c>
-      <c r="K1090" t="n">
-        <v>200</v>
-      </c>
-      <c r="L1090" t="n">
-        <v>200</v>
-      </c>
       <c r="M1090" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K1091" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1091" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1091" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="K1092" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1092" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1092" t="n">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -78999,11 +78999,11 @@
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1850</v>
+        <v>250</v>
       </c>
       <c r="K1093" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1093" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1093" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79071,11 +79071,11 @@
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79125,7 +79125,7 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K1094" t="n">
         <v>300</v>
@@ -79134,7 +79134,7 @@
         <v>350</v>
       </c>
       <c r="M1094" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79197,7 +79197,7 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="K1095" t="n">
         <v>300</v>
@@ -79206,7 +79206,7 @@
         <v>350</v>
       </c>
       <c r="M1095" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79215,11 +79215,11 @@
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79265,20 +79265,20 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K1096" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1096" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1096" t="n">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79287,11 +79287,11 @@
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79337,20 +79337,20 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>550</v>
+        <v>2000</v>
       </c>
       <c r="K1097" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1097" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1097" t="n">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79359,11 +79359,11 @@
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79413,7 +79413,7 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K1098" t="n">
         <v>250</v>
@@ -79431,7 +79431,7 @@
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1098" t="n">
@@ -79485,7 +79485,7 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K1099" t="n">
         <v>250</v>
@@ -79503,7 +79503,7 @@
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1099" t="n">
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K1100" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L1100" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1100" t="n">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79575,11 +79575,11 @@
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1101" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L1101" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1101" t="n">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79647,11 +79647,11 @@
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79697,20 +79697,20 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="K1102" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L1102" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M1102" t="n">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K1103" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L1103" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M1103" t="n">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K1104" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1104" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="M1104" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="K1105" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="L1105" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M1105" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79985,20 +79985,20 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K1106" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L1106" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M1106" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="K1107" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="L1107" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="M1107" t="n">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="K1108" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="L1108" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M1108" t="n">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80201,20 +80201,20 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="K1109" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="L1109" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="M1109" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K1110" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1110" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="M1110" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K1111" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1111" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="M1111" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>2300</v>
+        <v>250</v>
       </c>
       <c r="K1112" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="L1112" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="M1112" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80439,11 +80439,11 @@
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="K1113" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L1113" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="M1113" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80511,11 +80511,11 @@
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K1114" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1114" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1114" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K1115" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L1115" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="M1115" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K1116" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L1116" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1116" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80727,11 +80727,11 @@
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K1117" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="L1117" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="M1117" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80799,11 +80799,11 @@
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1118" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L1118" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="M1118" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1119" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1119" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1119" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="K1120" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L1120" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1120" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81015,11 +81015,11 @@
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K1121" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L1121" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1121" t="n">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81087,11 +81087,11 @@
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81141,7 +81141,7 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="K1122" t="n">
         <v>250</v>
@@ -81150,7 +81150,7 @@
         <v>300</v>
       </c>
       <c r="M1122" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81159,11 +81159,11 @@
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>450</v>
+        <v>820</v>
       </c>
       <c r="K1123" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1123" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1123" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81231,11 +81231,11 @@
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>350</v>
+        <v>1250</v>
       </c>
       <c r="K1124" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1124" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1124" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81357,7 +81357,7 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K1125" t="n">
         <v>200</v>
@@ -81375,7 +81375,7 @@
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1125" t="n">
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81425,20 +81425,20 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>1150</v>
+        <v>350</v>
       </c>
       <c r="K1126" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L1126" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1126" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K1127" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="L1127" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1127" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81569,20 +81569,20 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="K1128" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L1128" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M1128" t="n">
-        <v>250</v>
+        <v>778</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>250</v>
+        <v>778</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81636,25 +81636,25 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>4600</v>
+        <v>2100</v>
       </c>
       <c r="K1129" t="n">
-        <v>180</v>
+        <v>570</v>
       </c>
       <c r="L1129" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M1129" t="n">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81708,25 +81708,25 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="K1130" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="L1130" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1130" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81780,25 +81780,25 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>1400</v>
+        <v>4600</v>
       </c>
       <c r="K1131" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="L1131" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1131" t="n">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81807,11 +81807,11 @@
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81852,25 +81852,25 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="K1132" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="L1132" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="M1132" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K1133" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1133" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1133" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -82001,20 +82001,20 @@
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K1134" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1134" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1134" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82073,20 +82073,20 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="K1135" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1135" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1135" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82145,20 +82145,20 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1136" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1136" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1136" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82217,20 +82217,20 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1137" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1137" t="n">
         <v>700</v>
       </c>
-      <c r="K1137" t="n">
-        <v>600</v>
-      </c>
       <c r="L1137" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1137" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q1137" t="n">
         <v>1</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1138" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1138" t="n">
         <v>800</v>
       </c>
-      <c r="K1138" t="n">
-        <v>500</v>
-      </c>
-      <c r="L1138" t="n">
-        <v>500</v>
-      </c>
       <c r="M1138" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>3800</v>
+        <v>700</v>
       </c>
       <c r="K1139" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1139" t="n">
         <v>600</v>
       </c>
       <c r="M1139" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82383,11 +82383,11 @@
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82413,58 +82413,202 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1140" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1140" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1140" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1140" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1140" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1140" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1140" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1141" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1140" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1140" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>Camote</t>
-        </is>
-      </c>
-      <c r="I1140" t="inlineStr">
+      <c r="E1141" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1141" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1141" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1141" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>570</v>
+      </c>
+      <c r="N1141" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1141" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P1141" t="n">
+        <v>570</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1141" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1142" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1142" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1142" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J1140" t="n">
+      <c r="J1142" t="n">
         <v>1200</v>
       </c>
-      <c r="K1140" t="n">
+      <c r="K1142" t="n">
         <v>450</v>
       </c>
-      <c r="L1140" t="n">
+      <c r="L1142" t="n">
         <v>450</v>
       </c>
-      <c r="M1140" t="n">
+      <c r="M1142" t="n">
         <v>450</v>
       </c>
-      <c r="N1140" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1140" t="inlineStr">
+      <c r="N1142" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1142" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P1140" t="n">
+      <c r="P1142" t="n">
         <v>450</v>
       </c>
-      <c r="Q1140" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1140" t="inlineStr">
+      <c r="Q1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1142" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1142"/>
+  <dimension ref="A1:R1144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>1300</v>
+        <v>4400</v>
       </c>
       <c r="K986" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="L986" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="M986" t="n">
-        <v>423</v>
+        <v>94</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>423</v>
+        <v>94</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K987" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="L987" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="M987" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>6100</v>
+        <v>1300</v>
       </c>
       <c r="K988" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L988" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="M988" t="n">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K989" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L989" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M989" t="n">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>900</v>
+        <v>6100</v>
       </c>
       <c r="K990" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L990" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M990" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K991" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L991" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M991" t="n">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J992" t="n">
+        <v>900</v>
+      </c>
+      <c r="K992" t="n">
         <v>300</v>
       </c>
-      <c r="K992" t="n">
-        <v>150</v>
-      </c>
       <c r="L992" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M992" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K993" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="L993" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="M993" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71916,25 +71916,25 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>4600</v>
+        <v>300</v>
       </c>
       <c r="K994" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L994" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M994" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71988,25 +71988,25 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K995" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="L995" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M995" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q995" t="n">
         <v>1</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>1100</v>
+        <v>4600</v>
       </c>
       <c r="K996" t="n">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="L996" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="M996" t="n">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="Q996" t="n">
         <v>1</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72132,25 +72132,25 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K997" t="n">
-        <v>430</v>
+        <v>90</v>
       </c>
       <c r="L997" t="n">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="M997" t="n">
-        <v>443</v>
+        <v>90</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>443</v>
+        <v>90</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="K998" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="L998" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="M998" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="Q998" t="n">
         <v>1</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="K999" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="L999" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M999" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K1000" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L1000" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="M1000" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K1001" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="L1001" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="M1001" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K1002" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1002" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M1002" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K1003" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="L1003" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="M1003" t="n">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K1004" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L1004" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M1004" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K1005" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1005" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1005" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K1006" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L1006" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="M1006" t="n">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1007" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L1007" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M1007" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K1008" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1008" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1008" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="K1009" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L1009" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="M1009" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="K1010" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L1010" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M1010" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>1900</v>
+        <v>290</v>
       </c>
       <c r="K1011" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="L1011" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M1011" t="n">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K1012" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1012" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M1012" t="n">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1013" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L1013" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M1013" t="n">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K1014" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1014" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M1014" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73383,11 +73383,11 @@
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K1015" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="L1015" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="M1015" t="n">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>1600</v>
+        <v>290</v>
       </c>
       <c r="K1016" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L1016" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M1016" t="n">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1017" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="L1017" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="M1017" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K1018" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="L1018" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="M1018" t="n">
-        <v>1100</v>
+        <v>284</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>1100</v>
+        <v>284</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K1019" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="L1019" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="M1019" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73797,7 +73797,7 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K1020" t="n">
         <v>1100</v>
@@ -73815,7 +73815,7 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1020" t="n">
@@ -73860,25 +73860,25 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>3600</v>
+        <v>1400</v>
       </c>
       <c r="K1021" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L1021" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1021" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73932,25 +73932,25 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K1022" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L1022" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1022" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="K1023" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1023" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1023" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="K1024" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1024" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1024" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74148,25 +74148,25 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="K1025" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L1025" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M1025" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74220,25 +74220,25 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K1026" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L1026" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M1026" t="n">
-        <v>958</v>
+        <v>450</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>958</v>
+        <v>450</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74301,7 +74301,7 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>2050</v>
+        <v>4000</v>
       </c>
       <c r="K1027" t="n">
         <v>900</v>
@@ -74310,7 +74310,7 @@
         <v>1000</v>
       </c>
       <c r="M1027" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="K1028" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1028" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1028" t="n">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1029" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>900</v>
+      </c>
+      <c r="L1029" t="n">
         <v>1000</v>
       </c>
-      <c r="K1029" t="n">
-        <v>700</v>
-      </c>
-      <c r="L1029" t="n">
-        <v>700</v>
-      </c>
       <c r="M1029" t="n">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74517,7 +74517,7 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="K1030" t="n">
         <v>700</v>
@@ -74535,7 +74535,7 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1030" t="n">
@@ -74580,25 +74580,25 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="K1031" t="n">
         <v>700</v>
       </c>
       <c r="L1031" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="M1031" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>420</v>
+        <v>650</v>
       </c>
       <c r="K1032" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1032" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1032" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74679,11 +74679,11 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74724,25 +74724,25 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K1033" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="L1033" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M1033" t="n">
-        <v>292</v>
+        <v>733</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>292</v>
+        <v>733</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74796,25 +74796,25 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>800</v>
+        <v>420</v>
       </c>
       <c r="K1034" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="L1034" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="M1034" t="n">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="Q1034" t="n">
         <v>1</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>250</v>
+        <v>2200</v>
       </c>
       <c r="K1035" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="L1035" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M1035" t="n">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74945,20 +74945,20 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K1036" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="L1036" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="M1036" t="n">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>2100</v>
+        <v>250</v>
       </c>
       <c r="K1037" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="L1037" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1037" t="n">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75089,20 +75089,20 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1038" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1038" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="M1038" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>440</v>
+        <v>2100</v>
       </c>
       <c r="K1039" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1039" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1039" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K1040" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L1040" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1040" t="n">
-        <v>576</v>
+        <v>200</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75255,11 +75255,11 @@
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>576</v>
+        <v>200</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>4100</v>
+        <v>440</v>
       </c>
       <c r="K1041" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1041" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="M1041" t="n">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75327,11 +75327,11 @@
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="K1042" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L1042" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M1042" t="n">
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>1600</v>
+        <v>4100</v>
       </c>
       <c r="K1043" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L1043" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M1043" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="K1044" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L1044" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M1044" t="n">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>880</v>
+        <v>1600</v>
       </c>
       <c r="K1045" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L1045" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M1045" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75615,11 +75615,11 @@
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="K1046" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1046" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1046" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75687,11 +75687,11 @@
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75741,16 +75741,16 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="K1047" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L1047" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M1047" t="n">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75759,11 +75759,11 @@
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>1400</v>
+        <v>680</v>
       </c>
       <c r="K1048" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L1048" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1048" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K1049" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="L1049" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="M1049" t="n">
-        <v>120</v>
+        <v>431</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>120</v>
+        <v>431</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75948,25 +75948,25 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="K1050" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L1050" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M1050" t="n">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76020,25 +76020,25 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K1051" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L1051" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M1051" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76092,25 +76092,25 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>6000</v>
+        <v>3400</v>
       </c>
       <c r="K1052" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="L1052" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
       <c r="M1052" t="n">
-        <v>571</v>
+        <v>124</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76119,11 +76119,11 @@
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>571</v>
+        <v>124</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76164,25 +76164,25 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="K1053" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="L1053" t="n">
-        <v>650</v>
+        <v>90</v>
       </c>
       <c r="M1053" t="n">
-        <v>628</v>
+        <v>90</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76191,11 +76191,11 @@
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>628</v>
+        <v>90</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76245,7 +76245,7 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="K1054" t="n">
         <v>550</v>
@@ -76254,7 +76254,7 @@
         <v>600</v>
       </c>
       <c r="M1054" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76263,11 +76263,11 @@
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76313,20 +76313,20 @@
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="K1055" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L1055" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M1055" t="n">
-        <v>400</v>
+        <v>628</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76335,11 +76335,11 @@
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>400</v>
+        <v>628</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76385,20 +76385,20 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K1056" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1056" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1056" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76407,11 +76407,11 @@
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="K1057" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L1057" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M1057" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76479,11 +76479,11 @@
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>7800</v>
+        <v>1000</v>
       </c>
       <c r="K1058" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1058" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1058" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76551,11 +76551,11 @@
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76605,7 +76605,7 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K1059" t="n">
         <v>450</v>
@@ -76623,7 +76623,7 @@
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1059" t="n">
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>1400</v>
+        <v>7800</v>
       </c>
       <c r="K1060" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L1060" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="M1060" t="n">
-        <v>257</v>
+        <v>571</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>257</v>
+        <v>571</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K1061" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L1061" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="M1061" t="n">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76767,11 +76767,11 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K1062" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1062" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="M1062" t="n">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K1063" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L1063" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="M1063" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K1064" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L1064" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M1064" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76983,11 +76983,11 @@
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77033,24 +77033,24 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1065" t="n">
-        <v>600</v>
+        <v>190</v>
       </c>
       <c r="L1065" t="n">
-        <v>650</v>
+        <v>190</v>
       </c>
       <c r="M1065" t="n">
-        <v>623</v>
+        <v>190</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1065" t="inlineStr">
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>623</v>
+        <v>190</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>1700</v>
+        <v>330</v>
       </c>
       <c r="K1066" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="L1066" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="M1066" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77127,11 +77127,11 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K1067" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L1067" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M1067" t="n">
-        <v>350</v>
+        <v>623</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>350</v>
+        <v>623</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K1068" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1068" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M1068" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1069" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1069" t="n">
         <v>300</v>
       </c>
-      <c r="K1069" t="n">
-        <v>150</v>
-      </c>
       <c r="L1069" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="M1069" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="K1070" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="L1070" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M1070" t="n">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77415,11 +77415,11 @@
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,24 +77465,24 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="K1071" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="L1071" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1071" t="n">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O1071" t="inlineStr">
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K1072" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1072" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1072" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="K1073" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1073" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1073" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1074" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L1074" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1074" t="n">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K1075" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="L1075" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1075" t="n">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1076" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L1076" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1076" t="n">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K1077" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1077" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1077" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K1078" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L1078" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="M1078" t="n">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77991,11 +77991,11 @@
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K1079" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="L1079" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1079" t="n">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K1080" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L1080" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="M1080" t="n">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1081" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1081" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1081" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K1082" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1082" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1082" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="K1083" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1083" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1083" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>1700</v>
+        <v>190</v>
       </c>
       <c r="K1084" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1084" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1084" t="n">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>1900</v>
+        <v>170</v>
       </c>
       <c r="K1085" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1085" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1085" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78495,11 +78495,11 @@
       </c>
       <c r="O1085" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="K1086" t="n">
         <v>300</v>
       </c>
       <c r="L1086" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M1086" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78567,11 +78567,11 @@
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K1087" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L1087" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="M1087" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78639,11 +78639,11 @@
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78689,20 +78689,20 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K1088" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L1088" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M1088" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78711,11 +78711,11 @@
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1089" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L1089" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M1089" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78783,11 +78783,11 @@
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K1090" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="L1090" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M1090" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K1091" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L1091" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M1091" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1092" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1092" t="n">
         <v>300</v>
       </c>
-      <c r="K1092" t="n">
-        <v>200</v>
-      </c>
-      <c r="L1092" t="n">
-        <v>200</v>
-      </c>
       <c r="M1092" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K1093" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1093" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1093" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79121,20 +79121,20 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="K1094" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1094" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1094" t="n">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79193,20 +79193,20 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>1850</v>
+        <v>250</v>
       </c>
       <c r="K1095" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1095" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1095" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79215,11 +79215,11 @@
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79269,7 +79269,7 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K1096" t="n">
         <v>300</v>
@@ -79278,7 +79278,7 @@
         <v>350</v>
       </c>
       <c r="M1096" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79287,11 +79287,11 @@
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79341,7 +79341,7 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="K1097" t="n">
         <v>300</v>
@@ -79350,7 +79350,7 @@
         <v>350</v>
       </c>
       <c r="M1097" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79359,11 +79359,11 @@
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79409,20 +79409,20 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K1098" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1098" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1098" t="n">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79431,11 +79431,11 @@
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79481,20 +79481,20 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>550</v>
+        <v>2000</v>
       </c>
       <c r="K1099" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1099" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1099" t="n">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79503,11 +79503,11 @@
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79557,7 +79557,7 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K1100" t="n">
         <v>250</v>
@@ -79575,7 +79575,7 @@
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1100" t="n">
@@ -79629,7 +79629,7 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K1101" t="n">
         <v>250</v>
@@ -79647,7 +79647,7 @@
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1101" t="n">
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79697,20 +79697,20 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K1102" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L1102" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1102" t="n">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79719,11 +79719,11 @@
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1103" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L1103" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1103" t="n">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79791,11 +79791,11 @@
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="K1104" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L1104" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M1104" t="n">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K1105" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L1105" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M1105" t="n">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79985,20 +79985,20 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K1106" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1106" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="M1106" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="K1107" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="L1107" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M1107" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K1108" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L1108" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M1108" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80151,11 +80151,11 @@
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80201,20 +80201,20 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="K1109" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="L1109" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="M1109" t="n">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="K1110" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="L1110" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M1110" t="n">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="K1111" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="L1111" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="M1111" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K1112" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1112" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="M1112" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K1113" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1113" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="M1113" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>2300</v>
+        <v>250</v>
       </c>
       <c r="K1114" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="L1114" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="M1114" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80583,11 +80583,11 @@
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="K1115" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L1115" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="M1115" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80655,11 +80655,11 @@
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K1116" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1116" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1116" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K1117" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L1117" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="M1117" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K1118" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L1118" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1118" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80871,11 +80871,11 @@
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K1119" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="L1119" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="M1119" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80943,11 +80943,11 @@
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1120" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L1120" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="M1120" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1121" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1121" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1121" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="K1122" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L1122" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1122" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81159,11 +81159,11 @@
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K1123" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L1123" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1123" t="n">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81231,11 +81231,11 @@
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81285,7 +81285,7 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="K1124" t="n">
         <v>250</v>
@@ -81294,7 +81294,7 @@
         <v>300</v>
       </c>
       <c r="M1124" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>450</v>
+        <v>820</v>
       </c>
       <c r="K1125" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1125" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1125" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81375,11 +81375,11 @@
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81425,20 +81425,20 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>350</v>
+        <v>1250</v>
       </c>
       <c r="K1126" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1126" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1126" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81501,7 +81501,7 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K1127" t="n">
         <v>200</v>
@@ -81519,7 +81519,7 @@
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1127" t="n">
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81569,20 +81569,20 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>1150</v>
+        <v>350</v>
       </c>
       <c r="K1128" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L1128" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1128" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K1129" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="L1129" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1129" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81713,20 +81713,20 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="K1130" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L1130" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M1130" t="n">
-        <v>250</v>
+        <v>778</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>250</v>
+        <v>778</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81780,25 +81780,25 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>4600</v>
+        <v>2100</v>
       </c>
       <c r="K1131" t="n">
-        <v>180</v>
+        <v>570</v>
       </c>
       <c r="L1131" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M1131" t="n">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81852,25 +81852,25 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="K1132" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="L1132" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1132" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81924,25 +81924,25 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>1400</v>
+        <v>4600</v>
       </c>
       <c r="K1133" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="L1133" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1133" t="n">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81951,11 +81951,11 @@
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -81996,25 +81996,25 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="K1134" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="L1134" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="M1134" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82073,20 +82073,20 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K1135" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1135" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1135" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82145,20 +82145,20 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K1136" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1136" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1136" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82217,20 +82217,20 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="K1137" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1137" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1137" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="Q1137" t="n">
         <v>1</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1138" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1138" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1138" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1139" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1139" t="n">
         <v>700</v>
       </c>
-      <c r="K1139" t="n">
-        <v>600</v>
-      </c>
       <c r="L1139" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1139" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82433,20 +82433,20 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1140" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1140" t="n">
         <v>800</v>
       </c>
-      <c r="K1140" t="n">
-        <v>500</v>
-      </c>
-      <c r="L1140" t="n">
-        <v>500</v>
-      </c>
       <c r="M1140" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82505,20 +82505,20 @@
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>3800</v>
+        <v>700</v>
       </c>
       <c r="K1141" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1141" t="n">
         <v>600</v>
       </c>
       <c r="M1141" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82527,11 +82527,11 @@
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82557,58 +82557,202 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1142" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1142" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1142" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1142" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1142" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1142" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1142" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1143" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1142" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1142" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>Camote</t>
-        </is>
-      </c>
-      <c r="I1142" t="inlineStr">
+      <c r="E1143" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1143" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1143" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1143" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1143" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>570</v>
+      </c>
+      <c r="N1143" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1143" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P1143" t="n">
+        <v>570</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1143" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1144" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1144" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1144" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J1142" t="n">
+      <c r="J1144" t="n">
         <v>1200</v>
       </c>
-      <c r="K1142" t="n">
+      <c r="K1144" t="n">
         <v>450</v>
       </c>
-      <c r="L1142" t="n">
+      <c r="L1144" t="n">
         <v>450</v>
       </c>
-      <c r="M1142" t="n">
+      <c r="M1144" t="n">
         <v>450</v>
       </c>
-      <c r="N1142" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1142" t="inlineStr">
+      <c r="N1144" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1144" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P1142" t="n">
+      <c r="P1144" t="n">
         <v>450</v>
       </c>
-      <c r="Q1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1142" t="inlineStr">
+      <c r="Q1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1144" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1144"/>
+  <dimension ref="A1:R1146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="K914" t="n">
-        <v>270</v>
+        <v>570</v>
       </c>
       <c r="L914" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="M914" t="n">
-        <v>283</v>
+        <v>583</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>283</v>
+        <v>583</v>
       </c>
       <c r="Q914" t="n">
         <v>1</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K915" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="L915" t="n">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="M915" t="n">
-        <v>276</v>
+        <v>480</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>276</v>
+        <v>480</v>
       </c>
       <c r="Q915" t="n">
         <v>1</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K916" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L916" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M916" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q916" t="n">
         <v>1</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K917" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L917" t="n">
         <v>280</v>
       </c>
       <c r="M917" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q917" t="n">
         <v>1</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J918" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K918" t="n">
+        <v>280</v>
+      </c>
+      <c r="L918" t="n">
         <v>300</v>
       </c>
-      <c r="K918" t="n">
-        <v>200</v>
-      </c>
-      <c r="L918" t="n">
-        <v>200</v>
-      </c>
       <c r="M918" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q918" t="n">
         <v>1</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K919" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L919" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M919" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q919" t="n">
         <v>1</v>
@@ -66615,7 +66615,7 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P920" t="n">
@@ -66669,7 +66669,7 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K921" t="n">
         <v>200</v>
@@ -66687,7 +66687,7 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P921" t="n">
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K922" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L922" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M922" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="Q922" t="n">
         <v>1</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K923" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L923" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M923" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q923" t="n">
         <v>1</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="K924" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L924" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M924" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="Q924" t="n">
         <v>1</v>
@@ -66957,7 +66957,7 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K925" t="n">
         <v>150</v>
@@ -66975,7 +66975,7 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P925" t="n">
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>2100</v>
+        <v>190</v>
       </c>
       <c r="K926" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L926" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="M926" t="n">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="Q926" t="n">
         <v>1</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>2500</v>
+        <v>220</v>
       </c>
       <c r="K927" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L927" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M927" t="n">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="Q927" t="n">
         <v>1</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="K928" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L928" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="M928" t="n">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="Q928" t="n">
         <v>1</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K929" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="L929" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M929" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="Q929" t="n">
         <v>1</v>
@@ -67308,25 +67308,25 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>4300</v>
+        <v>400</v>
       </c>
       <c r="K930" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L930" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M930" t="n">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="Q930" t="n">
         <v>1</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="K931" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="L931" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M931" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q931" t="n">
         <v>1</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="K932" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="L932" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M932" t="n">
-        <v>289</v>
+        <v>138</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>289</v>
+        <v>138</v>
       </c>
       <c r="Q932" t="n">
         <v>1</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67524,25 +67524,25 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>1400</v>
+        <v>130</v>
       </c>
       <c r="K933" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="L933" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="M933" t="n">
-        <v>276</v>
+        <v>90</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>276</v>
+        <v>90</v>
       </c>
       <c r="Q933" t="n">
         <v>1</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J934" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K934" t="n">
+        <v>280</v>
+      </c>
+      <c r="L934" t="n">
         <v>300</v>
       </c>
-      <c r="K934" t="n">
-        <v>200</v>
-      </c>
-      <c r="L934" t="n">
-        <v>200</v>
-      </c>
       <c r="M934" t="n">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="Q934" t="n">
         <v>1</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K935" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L935" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M935" t="n">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="Q935" t="n">
         <v>1</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K936" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L936" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="M936" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="Q936" t="n">
         <v>1</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K937" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L937" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M937" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q937" t="n">
         <v>1</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K938" t="n">
         <v>250</v>
       </c>
       <c r="L938" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M938" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q938" t="n">
         <v>1</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K939" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L939" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="M939" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="Q939" t="n">
         <v>1</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K940" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="L940" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M940" t="n">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="Q940" t="n">
         <v>1</v>
@@ -68112,13 +68112,13 @@
         <v>300</v>
       </c>
       <c r="K941" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="L941" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M941" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q941" t="n">
         <v>1</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>2780</v>
+        <v>400</v>
       </c>
       <c r="K942" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="L942" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="M942" t="n">
-        <v>319</v>
+        <v>160</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>319</v>
+        <v>160</v>
       </c>
       <c r="Q942" t="n">
         <v>1</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K943" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="L943" t="n">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="M943" t="n">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="Q943" t="n">
         <v>1</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>2280</v>
+        <v>2780</v>
       </c>
       <c r="K944" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L944" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M944" t="n">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="Q944" t="n">
         <v>1</v>
@@ -68388,25 +68388,25 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>770</v>
+        <v>1700</v>
       </c>
       <c r="K945" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L945" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="M945" t="n">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="Q945" t="n">
         <v>1</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68460,25 +68460,25 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>1500</v>
+        <v>2280</v>
       </c>
       <c r="K946" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="L946" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M946" t="n">
-        <v>580</v>
+        <v>191</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>580</v>
+        <v>191</v>
       </c>
       <c r="Q946" t="n">
         <v>1</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68532,25 +68532,25 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>2500</v>
+        <v>770</v>
       </c>
       <c r="K947" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="L947" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="M947" t="n">
-        <v>534</v>
+        <v>150</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>534</v>
+        <v>150</v>
       </c>
       <c r="Q947" t="n">
         <v>1</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K948" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L948" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M948" t="n">
-        <v>328</v>
+        <v>580</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>328</v>
+        <v>580</v>
       </c>
       <c r="Q948" t="n">
         <v>1</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="K949" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L949" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M949" t="n">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="Q949" t="n">
         <v>1</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>400</v>
+        <v>2900</v>
       </c>
       <c r="K950" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L950" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M950" t="n">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="Q950" t="n">
         <v>1</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="K951" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L951" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M951" t="n">
-        <v>271</v>
+        <v>400</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>271</v>
+        <v>400</v>
       </c>
       <c r="Q951" t="n">
         <v>1</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="K952" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L952" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M952" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="Q952" t="n">
         <v>1</v>
@@ -68973,7 +68973,7 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K953" t="n">
         <v>250</v>
@@ -68982,7 +68982,7 @@
         <v>300</v>
       </c>
       <c r="M953" t="n">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q953" t="n">
         <v>1</v>
@@ -69045,7 +69045,7 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="K954" t="n">
         <v>250</v>
@@ -69054,7 +69054,7 @@
         <v>300</v>
       </c>
       <c r="M954" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q954" t="n">
         <v>1</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="K955" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L955" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M955" t="n">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="Q955" t="n">
         <v>1</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="K956" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L956" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M956" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="Q956" t="n">
         <v>1</v>
@@ -69279,7 +69279,7 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P957" t="n">
@@ -69333,7 +69333,7 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K958" t="n">
         <v>200</v>
@@ -69351,7 +69351,7 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P958" t="n">
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K959" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="L959" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M959" t="n">
-        <v>393</v>
+        <v>200</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>393</v>
+        <v>200</v>
       </c>
       <c r="Q959" t="n">
         <v>1</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K960" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="L960" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="M960" t="n">
-        <v>442</v>
+        <v>200</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>442</v>
+        <v>200</v>
       </c>
       <c r="Q960" t="n">
         <v>1</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="K961" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L961" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M961" t="n">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="Q961" t="n">
         <v>1</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="K962" t="n">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="L962" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M962" t="n">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="Q962" t="n">
         <v>1</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K963" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L963" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="M963" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="Q963" t="n">
         <v>1</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K964" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="L964" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M964" t="n">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="Q964" t="n">
         <v>1</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="K965" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="L965" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="M965" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="Q965" t="n">
         <v>1</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K966" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L966" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="M966" t="n">
-        <v>523</v>
+        <v>250</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>523</v>
+        <v>250</v>
       </c>
       <c r="Q966" t="n">
         <v>1</v>
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K967" t="n">
+        <v>450</v>
+      </c>
+      <c r="L967" t="n">
         <v>500</v>
       </c>
-      <c r="L967" t="n">
-        <v>550</v>
-      </c>
       <c r="M967" t="n">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="Q967" t="n">
         <v>1</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K968" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L968" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M968" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="Q968" t="n">
         <v>1</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>450</v>
+        <v>1400</v>
       </c>
       <c r="K969" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L969" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M969" t="n">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="Q969" t="n">
         <v>1</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="K970" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L970" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M970" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q970" t="n">
         <v>1</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>3700</v>
+        <v>450</v>
       </c>
       <c r="K971" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L971" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M971" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="Q971" t="n">
         <v>1</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70341,7 +70341,7 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="K972" t="n">
         <v>450</v>
@@ -70359,7 +70359,7 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P972" t="n">
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>530</v>
+        <v>3700</v>
       </c>
       <c r="K973" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L973" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M973" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>1150</v>
+        <v>900</v>
       </c>
       <c r="K974" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="L974" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M974" t="n">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="Q974" t="n">
         <v>1</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="K975" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L975" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M975" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q975" t="n">
         <v>1</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>940</v>
+        <v>1150</v>
       </c>
       <c r="K976" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L976" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M976" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="Q976" t="n">
         <v>1</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="K977" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L977" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M977" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q977" t="n">
         <v>1</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>510</v>
+        <v>940</v>
       </c>
       <c r="K978" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L978" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="M978" t="n">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="Q978" t="n">
         <v>1</v>
@@ -70836,25 +70836,25 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="K979" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="L979" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M979" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70908,25 +70908,25 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="K980" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="L980" t="n">
         <v>170</v>
       </c>
       <c r="M980" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="K981" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="L981" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="M981" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71052,25 +71052,25 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>1100</v>
+        <v>290</v>
       </c>
       <c r="K982" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L982" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="M982" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71124,25 +71124,25 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>1300</v>
+        <v>240</v>
       </c>
       <c r="K983" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="L983" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="M983" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K984" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="L984" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="M984" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K985" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="L985" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M985" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>4400</v>
+        <v>400</v>
       </c>
       <c r="K986" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="L986" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="M986" t="n">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K987" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="L987" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M987" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>1300</v>
+        <v>4400</v>
       </c>
       <c r="K988" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="L988" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="M988" t="n">
-        <v>423</v>
+        <v>94</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>423</v>
+        <v>94</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K989" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="L989" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="M989" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>6100</v>
+        <v>1300</v>
       </c>
       <c r="K990" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L990" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="M990" t="n">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K991" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L991" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M991" t="n">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>900</v>
+        <v>6100</v>
       </c>
       <c r="K992" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L992" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M992" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K993" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L993" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M993" t="n">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J994" t="n">
+        <v>900</v>
+      </c>
+      <c r="K994" t="n">
         <v>300</v>
       </c>
-      <c r="K994" t="n">
-        <v>150</v>
-      </c>
       <c r="L994" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M994" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K995" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="L995" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="M995" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q995" t="n">
         <v>1</v>
@@ -72060,25 +72060,25 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>4600</v>
+        <v>300</v>
       </c>
       <c r="K996" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L996" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M996" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="Q996" t="n">
         <v>1</v>
@@ -72132,25 +72132,25 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K997" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="L997" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M997" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,16 +72213,16 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>1100</v>
+        <v>4600</v>
       </c>
       <c r="K998" t="n">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="L998" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="M998" t="n">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="Q998" t="n">
         <v>1</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72276,25 +72276,25 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K999" t="n">
-        <v>430</v>
+        <v>90</v>
       </c>
       <c r="L999" t="n">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="M999" t="n">
-        <v>443</v>
+        <v>90</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>443</v>
+        <v>90</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="K1000" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="L1000" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="M1000" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="K1001" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="L1001" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M1001" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K1002" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L1002" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="M1002" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K1003" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="L1003" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="M1003" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K1004" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1004" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M1004" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K1005" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="L1005" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="M1005" t="n">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K1006" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L1006" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M1006" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K1007" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1007" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1007" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K1008" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L1008" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="M1008" t="n">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1009" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L1009" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M1009" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K1010" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1010" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1010" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="K1011" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L1011" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="M1011" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="K1012" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L1012" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M1012" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>1900</v>
+        <v>290</v>
       </c>
       <c r="K1013" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="L1013" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M1013" t="n">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K1014" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1014" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M1014" t="n">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1015" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L1015" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M1015" t="n">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K1016" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1016" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M1016" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K1017" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="L1017" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="M1017" t="n">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>1600</v>
+        <v>290</v>
       </c>
       <c r="K1018" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L1018" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M1018" t="n">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1019" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="L1019" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="M1019" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K1020" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="L1020" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="M1020" t="n">
-        <v>1100</v>
+        <v>284</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>1100</v>
+        <v>284</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K1021" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="L1021" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="M1021" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73941,7 +73941,7 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K1022" t="n">
         <v>1100</v>
@@ -73959,7 +73959,7 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1022" t="n">
@@ -74004,25 +74004,25 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>3600</v>
+        <v>1400</v>
       </c>
       <c r="K1023" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L1023" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1023" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74076,25 +74076,25 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K1024" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L1024" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1024" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="K1025" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1025" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1025" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="K1026" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1026" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1026" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74292,25 +74292,25 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="K1027" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L1027" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M1027" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74364,25 +74364,25 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K1028" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L1028" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M1028" t="n">
-        <v>958</v>
+        <v>450</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>958</v>
+        <v>450</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74445,7 +74445,7 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>2050</v>
+        <v>4000</v>
       </c>
       <c r="K1029" t="n">
         <v>900</v>
@@ -74454,7 +74454,7 @@
         <v>1000</v>
       </c>
       <c r="M1029" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="K1030" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1030" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1030" t="n">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74535,11 +74535,11 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1031" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>900</v>
+      </c>
+      <c r="L1031" t="n">
         <v>1000</v>
       </c>
-      <c r="K1031" t="n">
-        <v>700</v>
-      </c>
-      <c r="L1031" t="n">
-        <v>700</v>
-      </c>
       <c r="M1031" t="n">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74661,7 +74661,7 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="K1032" t="n">
         <v>700</v>
@@ -74679,7 +74679,7 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1032" t="n">
@@ -74724,25 +74724,25 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="K1033" t="n">
         <v>700</v>
       </c>
       <c r="L1033" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="M1033" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74796,7 +74796,7 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>420</v>
+        <v>650</v>
       </c>
       <c r="K1034" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1034" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1034" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q1034" t="n">
         <v>1</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74868,25 +74868,25 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K1035" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="L1035" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M1035" t="n">
-        <v>292</v>
+        <v>733</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74895,11 +74895,11 @@
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>292</v>
+        <v>733</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74940,25 +74940,25 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>800</v>
+        <v>420</v>
       </c>
       <c r="K1036" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="L1036" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="M1036" t="n">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>250</v>
+        <v>2200</v>
       </c>
       <c r="K1037" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="L1037" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M1037" t="n">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75089,20 +75089,20 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K1038" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="L1038" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="M1038" t="n">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75111,11 +75111,11 @@
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>2100</v>
+        <v>250</v>
       </c>
       <c r="K1039" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="L1039" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1039" t="n">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1040" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1040" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="M1040" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>440</v>
+        <v>2100</v>
       </c>
       <c r="K1041" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1041" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1041" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K1042" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L1042" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1042" t="n">
-        <v>576</v>
+        <v>200</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>576</v>
+        <v>200</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>4100</v>
+        <v>440</v>
       </c>
       <c r="K1043" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1043" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="M1043" t="n">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="K1044" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L1044" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M1044" t="n">
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>1600</v>
+        <v>4100</v>
       </c>
       <c r="K1045" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L1045" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M1045" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="K1046" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L1046" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M1046" t="n">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>880</v>
+        <v>1600</v>
       </c>
       <c r="K1047" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L1047" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M1047" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75759,11 +75759,11 @@
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="K1048" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1048" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1048" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="K1049" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L1049" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M1049" t="n">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75903,11 +75903,11 @@
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>1400</v>
+        <v>680</v>
       </c>
       <c r="K1050" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L1050" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1050" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75975,11 +75975,11 @@
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K1051" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="L1051" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="M1051" t="n">
-        <v>120</v>
+        <v>431</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>120</v>
+        <v>431</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76092,25 +76092,25 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="K1052" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L1052" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M1052" t="n">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76164,25 +76164,25 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K1053" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L1053" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M1053" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76236,25 +76236,25 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>6000</v>
+        <v>3400</v>
       </c>
       <c r="K1054" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="L1054" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
       <c r="M1054" t="n">
-        <v>571</v>
+        <v>124</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76263,11 +76263,11 @@
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>571</v>
+        <v>124</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76308,25 +76308,25 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="K1055" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="L1055" t="n">
-        <v>650</v>
+        <v>90</v>
       </c>
       <c r="M1055" t="n">
-        <v>628</v>
+        <v>90</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76335,11 +76335,11 @@
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>628</v>
+        <v>90</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76389,7 +76389,7 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="K1056" t="n">
         <v>550</v>
@@ -76398,7 +76398,7 @@
         <v>600</v>
       </c>
       <c r="M1056" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76407,11 +76407,11 @@
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76457,20 +76457,20 @@
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="K1057" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L1057" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M1057" t="n">
-        <v>400</v>
+        <v>628</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76479,11 +76479,11 @@
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>400</v>
+        <v>628</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K1058" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1058" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1058" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76551,11 +76551,11 @@
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="K1059" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L1059" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M1059" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76623,11 +76623,11 @@
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>7800</v>
+        <v>1000</v>
       </c>
       <c r="K1060" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1060" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1060" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76749,7 +76749,7 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K1061" t="n">
         <v>450</v>
@@ -76767,7 +76767,7 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1061" t="n">
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>1400</v>
+        <v>7800</v>
       </c>
       <c r="K1062" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L1062" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="M1062" t="n">
-        <v>257</v>
+        <v>571</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>257</v>
+        <v>571</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K1063" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L1063" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="M1063" t="n">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76911,11 +76911,11 @@
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K1064" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1064" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="M1064" t="n">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77033,20 +77033,20 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K1065" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L1065" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="M1065" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K1066" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L1066" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M1066" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77127,11 +77127,11 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77177,24 +77177,24 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1067" t="n">
-        <v>600</v>
+        <v>190</v>
       </c>
       <c r="L1067" t="n">
-        <v>650</v>
+        <v>190</v>
       </c>
       <c r="M1067" t="n">
-        <v>623</v>
+        <v>190</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1067" t="inlineStr">
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>623</v>
+        <v>190</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>1700</v>
+        <v>330</v>
       </c>
       <c r="K1068" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="L1068" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="M1068" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77271,11 +77271,11 @@
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K1069" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L1069" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M1069" t="n">
-        <v>350</v>
+        <v>623</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>350</v>
+        <v>623</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K1070" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1070" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M1070" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1071" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1071" t="n">
         <v>300</v>
       </c>
-      <c r="K1071" t="n">
-        <v>150</v>
-      </c>
       <c r="L1071" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="M1071" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="K1072" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="L1072" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M1072" t="n">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77559,11 +77559,11 @@
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,24 +77609,24 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="K1073" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="L1073" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1073" t="n">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O1073" t="inlineStr">
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K1074" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1074" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1074" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="K1075" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1075" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1075" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1076" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L1076" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1076" t="n">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K1077" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="L1077" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1077" t="n">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1078" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L1078" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1078" t="n">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K1079" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1079" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1079" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K1080" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L1080" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="M1080" t="n">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78135,11 +78135,11 @@
       </c>
       <c r="O1080" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K1081" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="L1081" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1081" t="n">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K1082" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L1082" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="M1082" t="n">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1083" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1083" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1083" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K1084" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1084" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1084" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="K1085" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1085" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1085" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78545,20 +78545,20 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>1700</v>
+        <v>190</v>
       </c>
       <c r="K1086" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1086" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1086" t="n">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>1900</v>
+        <v>170</v>
       </c>
       <c r="K1087" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1087" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1087" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78639,11 +78639,11 @@
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="K1088" t="n">
         <v>300</v>
       </c>
       <c r="L1088" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M1088" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78711,11 +78711,11 @@
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78761,20 +78761,20 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K1089" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L1089" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="M1089" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78783,11 +78783,11 @@
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K1090" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L1090" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M1090" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78855,11 +78855,11 @@
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1091" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L1091" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M1091" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78927,11 +78927,11 @@
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K1092" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="L1092" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M1092" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K1093" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L1093" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M1093" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79121,20 +79121,20 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1094" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1094" t="n">
         <v>300</v>
       </c>
-      <c r="K1094" t="n">
-        <v>200</v>
-      </c>
-      <c r="L1094" t="n">
-        <v>200</v>
-      </c>
       <c r="M1094" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79193,20 +79193,20 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K1095" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1095" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1095" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79265,20 +79265,20 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="K1096" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1096" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1096" t="n">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79287,11 +79287,11 @@
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79337,20 +79337,20 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>1850</v>
+        <v>250</v>
       </c>
       <c r="K1097" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1097" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1097" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79359,11 +79359,11 @@
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79413,7 +79413,7 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K1098" t="n">
         <v>300</v>
@@ -79422,7 +79422,7 @@
         <v>350</v>
       </c>
       <c r="M1098" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79431,11 +79431,11 @@
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79485,7 +79485,7 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="K1099" t="n">
         <v>300</v>
@@ -79494,7 +79494,7 @@
         <v>350</v>
       </c>
       <c r="M1099" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79503,11 +79503,11 @@
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K1100" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1100" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1100" t="n">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79575,11 +79575,11 @@
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>550</v>
+        <v>2000</v>
       </c>
       <c r="K1101" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1101" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1101" t="n">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79647,11 +79647,11 @@
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79701,7 +79701,7 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K1102" t="n">
         <v>250</v>
@@ -79719,7 +79719,7 @@
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1102" t="n">
@@ -79773,7 +79773,7 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K1103" t="n">
         <v>250</v>
@@ -79791,7 +79791,7 @@
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1103" t="n">
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K1104" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L1104" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1104" t="n">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79863,11 +79863,11 @@
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1105" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L1105" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1105" t="n">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79935,11 +79935,11 @@
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79985,20 +79985,20 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="K1106" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L1106" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M1106" t="n">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K1107" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L1107" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M1107" t="n">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K1108" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1108" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="M1108" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80201,20 +80201,20 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="K1109" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="L1109" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M1109" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K1110" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L1110" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M1110" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80295,11 +80295,11 @@
       </c>
       <c r="O1110" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="K1111" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="L1111" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="M1111" t="n">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="K1112" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="L1112" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M1112" t="n">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="K1113" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="L1113" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="M1113" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K1114" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1114" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="M1114" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K1115" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1115" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="M1115" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>2300</v>
+        <v>250</v>
       </c>
       <c r="K1116" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="L1116" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="M1116" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80727,11 +80727,11 @@
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="K1117" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L1117" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="M1117" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80799,11 +80799,11 @@
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K1118" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1118" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1118" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K1119" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L1119" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="M1119" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K1120" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L1120" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1120" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81015,11 +81015,11 @@
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K1121" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="L1121" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="M1121" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81087,11 +81087,11 @@
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1122" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L1122" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="M1122" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1123" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1123" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1123" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="K1124" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L1124" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1124" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K1125" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L1125" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1125" t="n">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81375,11 +81375,11 @@
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81429,7 +81429,7 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="K1126" t="n">
         <v>250</v>
@@ -81438,7 +81438,7 @@
         <v>300</v>
       </c>
       <c r="M1126" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>450</v>
+        <v>820</v>
       </c>
       <c r="K1127" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1127" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1127" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81519,11 +81519,11 @@
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81569,20 +81569,20 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>350</v>
+        <v>1250</v>
       </c>
       <c r="K1128" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1128" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1128" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81645,7 +81645,7 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K1129" t="n">
         <v>200</v>
@@ -81663,7 +81663,7 @@
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1129" t="n">
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81713,20 +81713,20 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>1150</v>
+        <v>350</v>
       </c>
       <c r="K1130" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L1130" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1130" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81735,11 +81735,11 @@
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81785,20 +81785,20 @@
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K1131" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="L1131" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1131" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81857,20 +81857,20 @@
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="K1132" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L1132" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M1132" t="n">
-        <v>250</v>
+        <v>778</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>250</v>
+        <v>778</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81924,25 +81924,25 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>4600</v>
+        <v>2100</v>
       </c>
       <c r="K1133" t="n">
-        <v>180</v>
+        <v>570</v>
       </c>
       <c r="L1133" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M1133" t="n">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81996,25 +81996,25 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="K1134" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="L1134" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1134" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82068,25 +82068,25 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>1400</v>
+        <v>4600</v>
       </c>
       <c r="K1135" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="L1135" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1135" t="n">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82095,11 +82095,11 @@
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82140,25 +82140,25 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="K1136" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="L1136" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="M1136" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82217,20 +82217,20 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K1137" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1137" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1137" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="Q1137" t="n">
         <v>1</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K1138" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1138" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1138" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="K1139" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1139" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1139" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82433,20 +82433,20 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1140" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1140" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1140" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82505,20 +82505,20 @@
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1141" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1141" t="n">
         <v>700</v>
       </c>
-      <c r="K1141" t="n">
-        <v>600</v>
-      </c>
       <c r="L1141" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1141" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82577,20 +82577,20 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1142" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1142" t="n">
         <v>800</v>
       </c>
-      <c r="K1142" t="n">
-        <v>500</v>
-      </c>
-      <c r="L1142" t="n">
-        <v>500</v>
-      </c>
       <c r="M1142" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q1142" t="n">
         <v>1</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82649,20 +82649,20 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>3800</v>
+        <v>700</v>
       </c>
       <c r="K1143" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1143" t="n">
         <v>600</v>
       </c>
       <c r="M1143" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82671,11 +82671,11 @@
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82701,58 +82701,202 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1144" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1144" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1144" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1144" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1144" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1144" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1144" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1145" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1144" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1144" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>Camote</t>
-        </is>
-      </c>
-      <c r="I1144" t="inlineStr">
+      <c r="E1145" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1145" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1145" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1145" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>570</v>
+      </c>
+      <c r="N1145" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1145" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P1145" t="n">
+        <v>570</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1145" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1146" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1146" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1146" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J1144" t="n">
+      <c r="J1146" t="n">
         <v>1200</v>
       </c>
-      <c r="K1144" t="n">
+      <c r="K1146" t="n">
         <v>450</v>
       </c>
-      <c r="L1144" t="n">
+      <c r="L1146" t="n">
         <v>450</v>
       </c>
-      <c r="M1144" t="n">
+      <c r="M1146" t="n">
         <v>450</v>
       </c>
-      <c r="N1144" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1144" t="inlineStr">
+      <c r="N1146" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1146" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P1144" t="n">
+      <c r="P1146" t="n">
         <v>450</v>
       </c>
-      <c r="Q1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1144" t="inlineStr">
+      <c r="Q1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1146" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1146"/>
+  <dimension ref="A1:R1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79985,20 +79985,20 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>900</v>
+        <v>3800</v>
       </c>
       <c r="K1106" t="n">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="L1106" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M1106" t="n">
-        <v>337</v>
+        <v>588</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>337</v>
+        <v>588</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K1107" t="n">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="L1107" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="M1107" t="n">
-        <v>334</v>
+        <v>480</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80079,11 +80079,11 @@
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>334</v>
+        <v>480</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="K1108" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L1108" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M1108" t="n">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80201,20 +80201,20 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K1109" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L1109" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M1109" t="n">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K1110" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1110" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="M1110" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="K1111" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="L1111" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M1111" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K1112" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L1112" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M1112" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80439,11 +80439,11 @@
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="K1113" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="L1113" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="M1113" t="n">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="K1114" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="L1114" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M1114" t="n">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="K1115" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="L1115" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="M1115" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K1116" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1116" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="M1116" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K1117" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1117" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="M1117" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>2300</v>
+        <v>250</v>
       </c>
       <c r="K1118" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="L1118" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="M1118" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80871,11 +80871,11 @@
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="K1119" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L1119" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="M1119" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80943,11 +80943,11 @@
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K1120" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1120" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1120" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K1121" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L1121" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="M1121" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K1122" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L1122" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1122" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81159,11 +81159,11 @@
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K1123" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="L1123" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="M1123" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81231,11 +81231,11 @@
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1124" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L1124" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="M1124" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1125" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1125" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1125" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81425,20 +81425,20 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="K1126" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L1126" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1126" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K1127" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L1127" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1127" t="n">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81519,11 +81519,11 @@
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81573,7 +81573,7 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="K1128" t="n">
         <v>250</v>
@@ -81582,7 +81582,7 @@
         <v>300</v>
       </c>
       <c r="M1128" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>450</v>
+        <v>820</v>
       </c>
       <c r="K1129" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1129" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1129" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81663,11 +81663,11 @@
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81713,20 +81713,20 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>350</v>
+        <v>1250</v>
       </c>
       <c r="K1130" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1130" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1130" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81735,11 +81735,11 @@
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81789,7 +81789,7 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K1131" t="n">
         <v>200</v>
@@ -81807,7 +81807,7 @@
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1131" t="n">
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81857,20 +81857,20 @@
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1150</v>
+        <v>350</v>
       </c>
       <c r="K1132" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L1132" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1132" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81879,11 +81879,11 @@
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K1133" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="L1133" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1133" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -82001,20 +82001,20 @@
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="K1134" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L1134" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M1134" t="n">
-        <v>250</v>
+        <v>778</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>250</v>
+        <v>778</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82068,25 +82068,25 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>4600</v>
+        <v>2100</v>
       </c>
       <c r="K1135" t="n">
-        <v>180</v>
+        <v>570</v>
       </c>
       <c r="L1135" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M1135" t="n">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82140,25 +82140,25 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="K1136" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="L1136" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1136" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82212,25 +82212,25 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>1400</v>
+        <v>4600</v>
       </c>
       <c r="K1137" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="L1137" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1137" t="n">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82239,11 +82239,11 @@
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="Q1137" t="n">
         <v>1</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82284,25 +82284,25 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="K1138" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="L1138" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="M1138" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K1139" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1139" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1139" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82433,20 +82433,20 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K1140" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1140" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1140" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82505,20 +82505,20 @@
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="K1141" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1141" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1141" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82577,20 +82577,20 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1142" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1142" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1142" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="Q1142" t="n">
         <v>1</v>
@@ -82649,20 +82649,20 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1143" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1143" t="n">
         <v>700</v>
       </c>
-      <c r="K1143" t="n">
-        <v>600</v>
-      </c>
       <c r="L1143" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1143" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82721,20 +82721,20 @@
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1144" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1144" t="n">
         <v>800</v>
       </c>
-      <c r="K1144" t="n">
-        <v>500</v>
-      </c>
-      <c r="L1144" t="n">
-        <v>500</v>
-      </c>
       <c r="M1144" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82793,20 +82793,20 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>3800</v>
+        <v>700</v>
       </c>
       <c r="K1145" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1145" t="n">
         <v>600</v>
       </c>
       <c r="M1145" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82815,11 +82815,11 @@
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,58 +82845,202 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1146" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1146" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1146" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1146" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1146" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1146" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1146" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1147" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1146" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1146" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>Camote</t>
-        </is>
-      </c>
-      <c r="I1146" t="inlineStr">
+      <c r="E1147" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1147" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1147" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1147" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1147" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>570</v>
+      </c>
+      <c r="N1147" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1147" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P1147" t="n">
+        <v>570</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1147" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1148" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1148" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1148" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J1146" t="n">
+      <c r="J1148" t="n">
         <v>1200</v>
       </c>
-      <c r="K1146" t="n">
+      <c r="K1148" t="n">
         <v>450</v>
       </c>
-      <c r="L1146" t="n">
+      <c r="L1148" t="n">
         <v>450</v>
       </c>
-      <c r="M1146" t="n">
+      <c r="M1148" t="n">
         <v>450</v>
       </c>
-      <c r="N1146" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1146" t="inlineStr">
+      <c r="N1148" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1148" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P1146" t="n">
+      <c r="P1148" t="n">
         <v>450</v>
       </c>
-      <c r="Q1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1146" t="inlineStr">
+      <c r="Q1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1148" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1152"/>
+  <dimension ref="A1:R1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>1700</v>
+        <v>4900</v>
       </c>
       <c r="K942" t="n">
-        <v>250</v>
+        <v>570</v>
       </c>
       <c r="L942" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="M942" t="n">
-        <v>255</v>
+        <v>583</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>255</v>
+        <v>583</v>
       </c>
       <c r="Q942" t="n">
         <v>1</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K943" t="n">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="L943" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="M943" t="n">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="Q943" t="n">
         <v>1</v>
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K944" t="n">
         <v>250</v>
       </c>
       <c r="L944" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M944" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q944" t="n">
         <v>1</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K945" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L945" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="M945" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="Q945" t="n">
         <v>1</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K946" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="L946" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M946" t="n">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="Q946" t="n">
         <v>1</v>
@@ -68544,13 +68544,13 @@
         <v>300</v>
       </c>
       <c r="K947" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="L947" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M947" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q947" t="n">
         <v>1</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>2780</v>
+        <v>400</v>
       </c>
       <c r="K948" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="L948" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="M948" t="n">
-        <v>319</v>
+        <v>160</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>319</v>
+        <v>160</v>
       </c>
       <c r="Q948" t="n">
         <v>1</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K949" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="L949" t="n">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="M949" t="n">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="Q949" t="n">
         <v>1</v>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>2280</v>
+        <v>2780</v>
       </c>
       <c r="K950" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L950" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M950" t="n">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="Q950" t="n">
         <v>1</v>
@@ -68820,25 +68820,25 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>770</v>
+        <v>1700</v>
       </c>
       <c r="K951" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L951" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="M951" t="n">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="Q951" t="n">
         <v>1</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68892,25 +68892,25 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>1500</v>
+        <v>2280</v>
       </c>
       <c r="K952" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="L952" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M952" t="n">
-        <v>580</v>
+        <v>191</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>580</v>
+        <v>191</v>
       </c>
       <c r="Q952" t="n">
         <v>1</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68964,25 +68964,25 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>2500</v>
+        <v>770</v>
       </c>
       <c r="K953" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="L953" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="M953" t="n">
-        <v>534</v>
+        <v>150</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>534</v>
+        <v>150</v>
       </c>
       <c r="Q953" t="n">
         <v>1</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K954" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L954" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M954" t="n">
-        <v>328</v>
+        <v>580</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>328</v>
+        <v>580</v>
       </c>
       <c r="Q954" t="n">
         <v>1</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="K955" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L955" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M955" t="n">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="Q955" t="n">
         <v>1</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>400</v>
+        <v>2900</v>
       </c>
       <c r="K956" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L956" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M956" t="n">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="Q956" t="n">
         <v>1</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="K957" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L957" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M957" t="n">
-        <v>271</v>
+        <v>400</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>271</v>
+        <v>400</v>
       </c>
       <c r="Q957" t="n">
         <v>1</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="K958" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L958" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M958" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="Q958" t="n">
         <v>1</v>
@@ -69405,7 +69405,7 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K959" t="n">
         <v>250</v>
@@ -69414,7 +69414,7 @@
         <v>300</v>
       </c>
       <c r="M959" t="n">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q959" t="n">
         <v>1</v>
@@ -69477,7 +69477,7 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="K960" t="n">
         <v>250</v>
@@ -69486,7 +69486,7 @@
         <v>300</v>
       </c>
       <c r="M960" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q960" t="n">
         <v>1</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="K961" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L961" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M961" t="n">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="Q961" t="n">
         <v>1</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="K962" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L962" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M962" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="Q962" t="n">
         <v>1</v>
@@ -69711,7 +69711,7 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P963" t="n">
@@ -69765,7 +69765,7 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K964" t="n">
         <v>200</v>
@@ -69783,7 +69783,7 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P964" t="n">
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K965" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="L965" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M965" t="n">
-        <v>393</v>
+        <v>200</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>393</v>
+        <v>200</v>
       </c>
       <c r="Q965" t="n">
         <v>1</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K966" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="L966" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="M966" t="n">
-        <v>442</v>
+        <v>200</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>442</v>
+        <v>200</v>
       </c>
       <c r="Q966" t="n">
         <v>1</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="K967" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L967" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M967" t="n">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="Q967" t="n">
         <v>1</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="K968" t="n">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="L968" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M968" t="n">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="Q968" t="n">
         <v>1</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K969" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L969" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="M969" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="Q969" t="n">
         <v>1</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K970" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="L970" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M970" t="n">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="Q970" t="n">
         <v>1</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="K971" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="L971" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="M971" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="Q971" t="n">
         <v>1</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K972" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L972" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="M972" t="n">
-        <v>523</v>
+        <v>250</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>523</v>
+        <v>250</v>
       </c>
       <c r="Q972" t="n">
         <v>1</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K973" t="n">
+        <v>450</v>
+      </c>
+      <c r="L973" t="n">
         <v>500</v>
       </c>
-      <c r="L973" t="n">
-        <v>550</v>
-      </c>
       <c r="M973" t="n">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K974" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L974" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M974" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="Q974" t="n">
         <v>1</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>450</v>
+        <v>1400</v>
       </c>
       <c r="K975" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L975" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M975" t="n">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="Q975" t="n">
         <v>1</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="K976" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L976" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M976" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q976" t="n">
         <v>1</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>3700</v>
+        <v>450</v>
       </c>
       <c r="K977" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L977" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M977" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="Q977" t="n">
         <v>1</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70773,7 +70773,7 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="K978" t="n">
         <v>450</v>
@@ -70791,7 +70791,7 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P978" t="n">
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>530</v>
+        <v>3700</v>
       </c>
       <c r="K979" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L979" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M979" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>1150</v>
+        <v>900</v>
       </c>
       <c r="K980" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="L980" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M980" t="n">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="K981" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L981" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M981" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>940</v>
+        <v>1150</v>
       </c>
       <c r="K982" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L982" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M982" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="K983" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L983" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M983" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>510</v>
+        <v>940</v>
       </c>
       <c r="K984" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L984" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="M984" t="n">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71268,25 +71268,25 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="K985" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="L985" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M985" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71340,25 +71340,25 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="K986" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="L986" t="n">
         <v>170</v>
       </c>
       <c r="M986" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="K987" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="L987" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="M987" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71484,25 +71484,25 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>1100</v>
+        <v>290</v>
       </c>
       <c r="K988" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L988" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="M988" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71556,25 +71556,25 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>1300</v>
+        <v>240</v>
       </c>
       <c r="K989" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="L989" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="M989" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K990" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="L990" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="M990" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="Q990" t="n">
         <v>1</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K991" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="L991" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M991" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q991" t="n">
         <v>1</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>4400</v>
+        <v>400</v>
       </c>
       <c r="K992" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="L992" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="M992" t="n">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="Q992" t="n">
         <v>1</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K993" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="L993" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M993" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="Q993" t="n">
         <v>1</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>1300</v>
+        <v>4400</v>
       </c>
       <c r="K994" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="L994" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="M994" t="n">
-        <v>423</v>
+        <v>94</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>423</v>
+        <v>94</v>
       </c>
       <c r="Q994" t="n">
         <v>1</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K995" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="L995" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="M995" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="Q995" t="n">
         <v>1</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>6100</v>
+        <v>1300</v>
       </c>
       <c r="K996" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L996" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="M996" t="n">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="Q996" t="n">
         <v>1</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K997" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L997" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M997" t="n">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="Q997" t="n">
         <v>1</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>900</v>
+        <v>6100</v>
       </c>
       <c r="K998" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L998" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M998" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="Q998" t="n">
         <v>1</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K999" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L999" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M999" t="n">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="Q999" t="n">
         <v>1</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1000" t="n">
+        <v>900</v>
+      </c>
+      <c r="K1000" t="n">
         <v>300</v>
       </c>
-      <c r="K1000" t="n">
-        <v>150</v>
-      </c>
       <c r="L1000" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M1000" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K1001" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="L1001" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="M1001" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72492,25 +72492,25 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>4600</v>
+        <v>300</v>
       </c>
       <c r="K1002" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L1002" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M1002" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72564,25 +72564,25 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K1003" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="L1003" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M1003" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>1100</v>
+        <v>4600</v>
       </c>
       <c r="K1004" t="n">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="L1004" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="M1004" t="n">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72708,25 +72708,25 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K1005" t="n">
-        <v>430</v>
+        <v>90</v>
       </c>
       <c r="L1005" t="n">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="M1005" t="n">
-        <v>443</v>
+        <v>90</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>443</v>
+        <v>90</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="K1006" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="L1006" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="M1006" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="K1007" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="L1007" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M1007" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K1008" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L1008" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="M1008" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K1009" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="L1009" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="M1009" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K1010" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1010" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M1010" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K1011" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="L1011" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="M1011" t="n">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K1012" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L1012" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M1012" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K1013" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1013" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1013" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K1014" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L1014" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="M1014" t="n">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73383,11 +73383,11 @@
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1015" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L1015" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M1015" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K1016" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1016" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1016" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="K1017" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L1017" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="M1017" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="K1018" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L1018" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M1018" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>1900</v>
+        <v>290</v>
       </c>
       <c r="K1019" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="L1019" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M1019" t="n">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K1020" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1020" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M1020" t="n">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1021" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L1021" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M1021" t="n">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K1022" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1022" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M1022" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K1023" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="L1023" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="M1023" t="n">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>1600</v>
+        <v>290</v>
       </c>
       <c r="K1024" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L1024" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M1024" t="n">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1025" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="L1025" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="M1025" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K1026" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="L1026" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="M1026" t="n">
-        <v>1100</v>
+        <v>284</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>1100</v>
+        <v>284</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K1027" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="L1027" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="M1027" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74373,7 +74373,7 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K1028" t="n">
         <v>1100</v>
@@ -74391,7 +74391,7 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1028" t="n">
@@ -74436,25 +74436,25 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>3600</v>
+        <v>1400</v>
       </c>
       <c r="K1029" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L1029" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1029" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74508,25 +74508,25 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K1030" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L1030" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1030" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="K1031" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1031" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1031" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="K1032" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1032" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1032" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74724,25 +74724,25 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="K1033" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L1033" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M1033" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74796,25 +74796,25 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K1034" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L1034" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M1034" t="n">
-        <v>958</v>
+        <v>450</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>958</v>
+        <v>450</v>
       </c>
       <c r="Q1034" t="n">
         <v>1</v>
@@ -74877,7 +74877,7 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>2050</v>
+        <v>4000</v>
       </c>
       <c r="K1035" t="n">
         <v>900</v>
@@ -74886,7 +74886,7 @@
         <v>1000</v>
       </c>
       <c r="M1035" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74895,11 +74895,11 @@
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74945,20 +74945,20 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="K1036" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1036" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1036" t="n">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>700</v>
+        <v>958</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1037" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>900</v>
+      </c>
+      <c r="L1037" t="n">
         <v>1000</v>
       </c>
-      <c r="K1037" t="n">
-        <v>700</v>
-      </c>
-      <c r="L1037" t="n">
-        <v>700</v>
-      </c>
       <c r="M1037" t="n">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75039,11 +75039,11 @@
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75093,7 +75093,7 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="K1038" t="n">
         <v>700</v>
@@ -75111,7 +75111,7 @@
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1038" t="n">
@@ -75156,25 +75156,25 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="K1039" t="n">
         <v>700</v>
       </c>
       <c r="L1039" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="M1039" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75183,11 +75183,11 @@
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75228,7 +75228,7 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>420</v>
+        <v>650</v>
       </c>
       <c r="K1040" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1040" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M1040" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75255,11 +75255,11 @@
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75300,25 +75300,25 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K1041" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="L1041" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M1041" t="n">
-        <v>292</v>
+        <v>733</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75327,11 +75327,11 @@
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>292</v>
+        <v>733</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75372,25 +75372,25 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>800</v>
+        <v>420</v>
       </c>
       <c r="K1042" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="L1042" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="M1042" t="n">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>250</v>
+        <v>2200</v>
       </c>
       <c r="K1043" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="L1043" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="M1043" t="n">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K1044" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="L1044" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="M1044" t="n">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>2100</v>
+        <v>250</v>
       </c>
       <c r="K1045" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="L1045" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1045" t="n">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1046" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1046" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="M1046" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>440</v>
+        <v>2100</v>
       </c>
       <c r="K1047" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1047" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1047" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K1048" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L1048" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1048" t="n">
-        <v>576</v>
+        <v>200</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>576</v>
+        <v>200</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>4100</v>
+        <v>440</v>
       </c>
       <c r="K1049" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1049" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="M1049" t="n">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75903,11 +75903,11 @@
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="K1050" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L1050" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M1050" t="n">
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>1600</v>
+        <v>4100</v>
       </c>
       <c r="K1051" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L1051" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M1051" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="K1052" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L1052" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M1052" t="n">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>880</v>
+        <v>1600</v>
       </c>
       <c r="K1053" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L1053" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M1053" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76191,11 +76191,11 @@
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="K1054" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1054" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1054" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76263,11 +76263,11 @@
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="K1055" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L1055" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M1055" t="n">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76335,11 +76335,11 @@
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>1400</v>
+        <v>680</v>
       </c>
       <c r="K1056" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L1056" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1056" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76407,11 +76407,11 @@
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76457,20 +76457,20 @@
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K1057" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="L1057" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="M1057" t="n">
-        <v>120</v>
+        <v>431</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>120</v>
+        <v>431</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76524,25 +76524,25 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="K1058" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L1058" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M1058" t="n">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76596,25 +76596,25 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K1059" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L1059" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M1059" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76668,25 +76668,25 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>6000</v>
+        <v>3400</v>
       </c>
       <c r="K1060" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="L1060" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
       <c r="M1060" t="n">
-        <v>571</v>
+        <v>124</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>571</v>
+        <v>124</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76740,25 +76740,25 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="K1061" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="L1061" t="n">
-        <v>650</v>
+        <v>90</v>
       </c>
       <c r="M1061" t="n">
-        <v>628</v>
+        <v>90</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76767,11 +76767,11 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>628</v>
+        <v>90</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76821,7 +76821,7 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="K1062" t="n">
         <v>550</v>
@@ -76830,7 +76830,7 @@
         <v>600</v>
       </c>
       <c r="M1062" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="K1063" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L1063" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M1063" t="n">
-        <v>400</v>
+        <v>628</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76911,11 +76911,11 @@
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>400</v>
+        <v>628</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K1064" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L1064" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1064" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76983,11 +76983,11 @@
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="K1065" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L1065" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M1065" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77055,11 +77055,11 @@
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>7800</v>
+        <v>1000</v>
       </c>
       <c r="K1066" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L1066" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1066" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77127,11 +77127,11 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77181,7 +77181,7 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K1067" t="n">
         <v>450</v>
@@ -77199,7 +77199,7 @@
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1067" t="n">
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>1400</v>
+        <v>7800</v>
       </c>
       <c r="K1068" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L1068" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="M1068" t="n">
-        <v>257</v>
+        <v>571</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77271,11 +77271,11 @@
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>257</v>
+        <v>571</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K1069" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L1069" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="M1069" t="n">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77343,11 +77343,11 @@
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K1070" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1070" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="M1070" t="n">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K1071" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L1071" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="M1071" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K1072" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L1072" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M1072" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77559,11 +77559,11 @@
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,24 +77609,24 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1073" t="n">
-        <v>600</v>
+        <v>190</v>
       </c>
       <c r="L1073" t="n">
-        <v>650</v>
+        <v>190</v>
       </c>
       <c r="M1073" t="n">
-        <v>623</v>
+        <v>190</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O1073" t="inlineStr">
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>623</v>
+        <v>190</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>1700</v>
+        <v>330</v>
       </c>
       <c r="K1074" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="L1074" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="M1074" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77703,11 +77703,11 @@
       </c>
       <c r="O1074" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K1075" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L1075" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M1075" t="n">
-        <v>350</v>
+        <v>623</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>350</v>
+        <v>623</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K1076" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1076" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M1076" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1077" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1077" t="n">
         <v>300</v>
       </c>
-      <c r="K1077" t="n">
-        <v>150</v>
-      </c>
       <c r="L1077" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="M1077" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="K1078" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="L1078" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M1078" t="n">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77991,11 +77991,11 @@
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78041,24 +78041,24 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="K1079" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="L1079" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1079" t="n">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K1080" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1080" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1080" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="K1081" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1081" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1081" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1082" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L1082" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1082" t="n">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K1083" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="L1083" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1083" t="n">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1084" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L1084" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1084" t="n">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K1085" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1085" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1085" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78545,20 +78545,20 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="K1086" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L1086" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="M1086" t="n">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78567,11 +78567,11 @@
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K1087" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="L1087" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1087" t="n">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78689,20 +78689,20 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K1088" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L1088" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="M1088" t="n">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78761,20 +78761,20 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1089" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1089" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1089" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K1090" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1090" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1090" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="K1091" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1091" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1091" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>1700</v>
+        <v>190</v>
       </c>
       <c r="K1092" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1092" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1092" t="n">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1900</v>
+        <v>170</v>
       </c>
       <c r="K1093" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1093" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1093" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79071,11 +79071,11 @@
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="K1094" t="n">
         <v>300</v>
       </c>
       <c r="L1094" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M1094" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79193,20 +79193,20 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K1095" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L1095" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="M1095" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79215,11 +79215,11 @@
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79265,20 +79265,20 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="K1096" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L1096" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M1096" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79287,11 +79287,11 @@
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1097" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L1097" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M1097" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79359,11 +79359,11 @@
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79409,20 +79409,20 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K1098" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="L1098" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M1098" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -79481,20 +79481,20 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K1099" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L1099" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M1099" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1100" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1100" t="n">
         <v>300</v>
       </c>
-      <c r="K1100" t="n">
-        <v>200</v>
-      </c>
-      <c r="L1100" t="n">
-        <v>200</v>
-      </c>
       <c r="M1100" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K1101" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1101" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1101" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79697,20 +79697,20 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="K1102" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1102" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1102" t="n">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79719,11 +79719,11 @@
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>1850</v>
+        <v>250</v>
       </c>
       <c r="K1103" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1103" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1103" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79791,11 +79791,11 @@
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79845,7 +79845,7 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K1104" t="n">
         <v>300</v>
@@ -79854,7 +79854,7 @@
         <v>350</v>
       </c>
       <c r="M1104" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79863,11 +79863,11 @@
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79917,7 +79917,7 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="K1105" t="n">
         <v>300</v>
@@ -79926,7 +79926,7 @@
         <v>350</v>
       </c>
       <c r="M1105" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79935,11 +79935,11 @@
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79985,20 +79985,20 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K1106" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1106" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1106" t="n">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>550</v>
+        <v>2000</v>
       </c>
       <c r="K1107" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1107" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1107" t="n">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80079,11 +80079,11 @@
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80133,7 +80133,7 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K1108" t="n">
         <v>250</v>
@@ -80151,7 +80151,7 @@
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1108" t="n">
@@ -80205,7 +80205,7 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K1109" t="n">
         <v>250</v>
@@ -80223,7 +80223,7 @@
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1109" t="n">
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>3800</v>
+        <v>500</v>
       </c>
       <c r="K1110" t="n">
-        <v>570</v>
+        <v>250</v>
       </c>
       <c r="L1110" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M1110" t="n">
-        <v>588</v>
+        <v>250</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80295,11 +80295,11 @@
       </c>
       <c r="O1110" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>588</v>
+        <v>250</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1111" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="L1111" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="M1111" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80367,11 +80367,11 @@
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>900</v>
+        <v>3800</v>
       </c>
       <c r="K1112" t="n">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="L1112" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M1112" t="n">
-        <v>337</v>
+        <v>588</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80439,11 +80439,11 @@
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>337</v>
+        <v>588</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K1113" t="n">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="L1113" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="M1113" t="n">
-        <v>334</v>
+        <v>480</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80511,11 +80511,11 @@
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>334</v>
+        <v>480</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="K1114" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L1114" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M1114" t="n">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K1115" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L1115" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M1115" t="n">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K1116" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1116" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="M1116" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="K1117" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="L1117" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M1117" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K1118" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L1118" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M1118" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80871,11 +80871,11 @@
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="K1119" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="L1119" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="M1119" t="n">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="K1120" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="L1120" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M1120" t="n">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="K1121" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="L1121" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="M1121" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K1122" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1122" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="M1122" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K1123" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L1123" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="M1123" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>2300</v>
+        <v>250</v>
       </c>
       <c r="K1124" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="L1124" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="M1124" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="K1125" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L1125" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="M1125" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81375,11 +81375,11 @@
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81425,20 +81425,20 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K1126" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1126" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1126" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K1127" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="L1127" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="M1127" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81569,20 +81569,20 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K1128" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L1128" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1128" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K1129" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="L1129" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="M1129" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81663,11 +81663,11 @@
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81713,20 +81713,20 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1130" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L1130" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="M1130" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81785,20 +81785,20 @@
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1131" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1131" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1131" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81857,20 +81857,20 @@
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="K1132" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L1132" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1132" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81879,11 +81879,11 @@
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="K1133" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L1133" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1133" t="n">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81951,11 +81951,11 @@
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -82005,7 +82005,7 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="K1134" t="n">
         <v>250</v>
@@ -82014,7 +82014,7 @@
         <v>300</v>
       </c>
       <c r="M1134" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82023,11 +82023,11 @@
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82073,20 +82073,20 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>450</v>
+        <v>820</v>
       </c>
       <c r="K1135" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1135" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1135" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82095,11 +82095,11 @@
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82145,20 +82145,20 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>350</v>
+        <v>1250</v>
       </c>
       <c r="K1136" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1136" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1136" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82167,11 +82167,11 @@
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82221,7 +82221,7 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K1137" t="n">
         <v>200</v>
@@ -82239,7 +82239,7 @@
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1137" t="n">
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>1150</v>
+        <v>350</v>
       </c>
       <c r="K1138" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L1138" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1138" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82311,11 +82311,11 @@
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>778</v>
+        <v>200</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K1139" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="L1139" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1139" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82433,20 +82433,20 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="K1140" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L1140" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M1140" t="n">
-        <v>250</v>
+        <v>778</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>250</v>
+        <v>778</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82500,25 +82500,25 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>4600</v>
+        <v>2100</v>
       </c>
       <c r="K1141" t="n">
-        <v>180</v>
+        <v>570</v>
       </c>
       <c r="L1141" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M1141" t="n">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82572,25 +82572,25 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="K1142" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="L1142" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1142" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="Q1142" t="n">
         <v>1</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82644,25 +82644,25 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>1400</v>
+        <v>4600</v>
       </c>
       <c r="K1143" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="L1143" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M1143" t="n">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82671,11 +82671,11 @@
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82716,25 +82716,25 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="K1144" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="L1144" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="M1144" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82793,20 +82793,20 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K1145" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1145" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1145" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82865,20 +82865,20 @@
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K1146" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L1146" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M1146" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="Q1146" t="n">
         <v>1</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82937,20 +82937,20 @@
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="K1147" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1147" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1147" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="Q1147" t="n">
         <v>1</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -83009,20 +83009,20 @@
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K1148" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1148" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M1148" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="Q1148" t="n">
         <v>1</v>
@@ -83081,20 +83081,20 @@
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1149" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1149" t="n">
         <v>700</v>
       </c>
-      <c r="K1149" t="n">
-        <v>600</v>
-      </c>
       <c r="L1149" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1149" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83153,20 +83153,20 @@
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1150" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1150" t="n">
         <v>800</v>
       </c>
-      <c r="K1150" t="n">
-        <v>500</v>
-      </c>
-      <c r="L1150" t="n">
-        <v>500</v>
-      </c>
       <c r="M1150" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q1150" t="n">
         <v>1</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -83225,20 +83225,20 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>3800</v>
+        <v>700</v>
       </c>
       <c r="K1151" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L1151" t="n">
         <v>600</v>
       </c>
       <c r="M1151" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83247,11 +83247,11 @@
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="Q1151" t="n">
         <v>1</v>
@@ -83277,58 +83277,202 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1152" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1152" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1152" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1152" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1152" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1152" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1152" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1152" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1153" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1152" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1152" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H1152" t="inlineStr">
-        <is>
-          <t>Camote</t>
-        </is>
-      </c>
-      <c r="I1152" t="inlineStr">
+      <c r="E1153" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1153" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1153" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1153" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>570</v>
+      </c>
+      <c r="N1153" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1153" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P1153" t="n">
+        <v>570</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1153" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1154" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1154" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1154" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J1152" t="n">
+      <c r="J1154" t="n">
         <v>1200</v>
       </c>
-      <c r="K1152" t="n">
+      <c r="K1154" t="n">
         <v>450</v>
       </c>
-      <c r="L1152" t="n">
+      <c r="L1154" t="n">
         <v>450</v>
       </c>
-      <c r="M1152" t="n">
+      <c r="M1154" t="n">
         <v>450</v>
       </c>
-      <c r="N1152" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1152" t="inlineStr">
+      <c r="N1154" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1154" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P1152" t="n">
+      <c r="P1154" t="n">
         <v>450</v>
       </c>
-      <c r="Q1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1152" t="inlineStr">
+      <c r="Q1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1154" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1160"/>
+  <dimension ref="A1:R1165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K1100" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L1100" t="n">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="M1100" t="n">
-        <v>309</v>
+        <v>530</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79575,11 +79575,11 @@
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>309</v>
+        <v>530</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>1900</v>
+        <v>4200</v>
       </c>
       <c r="K1101" t="n">
-        <v>300</v>
+        <v>570</v>
       </c>
       <c r="L1101" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="M1101" t="n">
-        <v>312</v>
+        <v>582</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79647,11 +79647,11 @@
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>312</v>
+        <v>582</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79697,20 +79697,20 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="K1102" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L1102" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M1102" t="n">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K1103" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="L1103" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="M1103" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79791,11 +79791,11 @@
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1104" t="n">
         <v>400</v>
       </c>
       <c r="K1104" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="L1104" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="M1104" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79863,11 +79863,11 @@
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1105" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K1105" t="n">
         <v>300</v>
       </c>
-      <c r="K1105" t="n">
-        <v>250</v>
-      </c>
       <c r="L1105" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="M1105" t="n">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79935,11 +79935,11 @@
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K1106" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L1106" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="M1106" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80061,16 +80061,16 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K1107" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L1107" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M1107" t="n">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1108" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L1108" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="M1108" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80151,11 +80151,11 @@
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K1109" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L1109" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M1109" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80223,11 +80223,11 @@
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="K1110" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L1110" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1110" t="n">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80295,11 +80295,11 @@
       </c>
       <c r="O1110" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>1850</v>
+        <v>2200</v>
       </c>
       <c r="K1111" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1111" t="n">
         <v>300</v>
       </c>
-      <c r="L1111" t="n">
-        <v>350</v>
-      </c>
       <c r="M1111" t="n">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K1112" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1112" t="n">
         <v>300</v>
       </c>
-      <c r="L1112" t="n">
-        <v>350</v>
-      </c>
       <c r="M1112" t="n">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K1113" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1113" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1113" t="n">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80511,11 +80511,11 @@
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K1114" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1114" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1114" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80583,11 +80583,11 @@
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>550</v>
+        <v>2100</v>
       </c>
       <c r="K1115" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1115" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1115" t="n">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80655,11 +80655,11 @@
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>500</v>
+        <v>1850</v>
       </c>
       <c r="K1116" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1116" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1116" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80727,11 +80727,11 @@
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K1117" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1117" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1117" t="n">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80799,11 +80799,11 @@
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80853,16 +80853,16 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="K1118" t="n">
-        <v>570</v>
+        <v>300</v>
       </c>
       <c r="L1118" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M1118" t="n">
-        <v>588</v>
+        <v>324</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80871,11 +80871,11 @@
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>588</v>
+        <v>324</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K1119" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="L1119" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="M1119" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80943,11 +80943,11 @@
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="K1120" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L1120" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1120" t="n">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1121" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L1121" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M1121" t="n">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K1122" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L1122" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="M1122" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81159,11 +81159,11 @@
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="K1123" t="n">
-        <v>240</v>
+        <v>570</v>
       </c>
       <c r="L1123" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="M1123" t="n">
-        <v>256</v>
+        <v>588</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81231,11 +81231,11 @@
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>256</v>
+        <v>588</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K1124" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="L1124" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="M1124" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1125" t="n">
         <v>900</v>
       </c>
       <c r="K1125" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="L1125" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="M1125" t="n">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81375,11 +81375,11 @@
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="K1126" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="L1126" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M1126" t="n">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="K1127" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="L1127" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M1127" t="n">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81519,11 +81519,11 @@
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81573,16 +81573,16 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="K1128" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="L1128" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M1128" t="n">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K1129" t="n">
         <v>150</v>
       </c>
       <c r="L1129" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="M1129" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81663,11 +81663,11 @@
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81717,16 +81717,16 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K1130" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L1130" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="M1130" t="n">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81735,11 +81735,11 @@
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81785,20 +81785,20 @@
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>200</v>
+        <v>2800</v>
       </c>
       <c r="K1131" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="L1131" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="M1131" t="n">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81807,11 +81807,11 @@
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81857,20 +81857,20 @@
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="K1132" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="L1132" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="M1132" t="n">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81879,11 +81879,11 @@
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="K1133" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L1133" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="M1133" t="n">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81951,11 +81951,11 @@
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -82001,20 +82001,20 @@
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K1134" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L1134" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="M1134" t="n">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82023,11 +82023,11 @@
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82073,20 +82073,20 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K1135" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="L1135" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="M1135" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82095,11 +82095,11 @@
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82145,20 +82145,20 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="K1136" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L1136" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M1136" t="n">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82217,20 +82217,20 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="K1137" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="L1137" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M1137" t="n">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82239,11 +82239,11 @@
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="Q1137" t="n">
         <v>1</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K1138" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="L1138" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M1138" t="n">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82311,11 +82311,11 @@
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1139" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1139" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1139" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82383,11 +82383,11 @@
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82433,20 +82433,20 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>1350</v>
+        <v>500</v>
       </c>
       <c r="K1140" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="L1140" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="M1140" t="n">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82455,11 +82455,11 @@
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>820</v>
+        <v>1500</v>
       </c>
       <c r="K1141" t="n">
+        <v>230</v>
+      </c>
+      <c r="L1141" t="n">
         <v>250</v>
       </c>
-      <c r="L1141" t="n">
-        <v>300</v>
-      </c>
       <c r="M1141" t="n">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82527,11 +82527,11 @@
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82581,16 +82581,16 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>1250</v>
+        <v>1900</v>
       </c>
       <c r="K1142" t="n">
+        <v>240</v>
+      </c>
+      <c r="L1142" t="n">
         <v>250</v>
       </c>
-      <c r="L1142" t="n">
-        <v>300</v>
-      </c>
       <c r="M1142" t="n">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82599,11 +82599,11 @@
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="Q1142" t="n">
         <v>1</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K1143" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="L1143" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M1143" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82671,11 +82671,11 @@
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82725,16 +82725,16 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K1144" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L1144" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M1144" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82743,11 +82743,11 @@
       </c>
       <c r="O1144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82793,20 +82793,20 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="K1145" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1145" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1145" t="n">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82815,11 +82815,11 @@
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82865,20 +82865,20 @@
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>1150</v>
+        <v>820</v>
       </c>
       <c r="K1146" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="L1146" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M1146" t="n">
-        <v>778</v>
+        <v>273</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82887,11 +82887,11 @@
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>778</v>
+        <v>273</v>
       </c>
       <c r="Q1146" t="n">
         <v>1</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82937,20 +82937,20 @@
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>2100</v>
+        <v>1250</v>
       </c>
       <c r="K1147" t="n">
-        <v>570</v>
+        <v>250</v>
       </c>
       <c r="L1147" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M1147" t="n">
-        <v>583</v>
+        <v>268</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>583</v>
+        <v>268</v>
       </c>
       <c r="Q1147" t="n">
         <v>1</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -83009,20 +83009,20 @@
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K1148" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1148" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1148" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83031,11 +83031,11 @@
       </c>
       <c r="O1148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q1148" t="n">
         <v>1</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -83076,25 +83076,25 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>4600</v>
+        <v>350</v>
       </c>
       <c r="K1149" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L1149" t="n">
         <v>200</v>
       </c>
       <c r="M1149" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83103,11 +83103,11 @@
       </c>
       <c r="O1149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -83148,25 +83148,25 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="K1150" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L1150" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1150" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="Q1150" t="n">
         <v>1</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -83225,20 +83225,20 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>1400</v>
+        <v>1150</v>
       </c>
       <c r="K1151" t="n">
-        <v>260</v>
+        <v>750</v>
       </c>
       <c r="L1151" t="n">
-        <v>280</v>
+        <v>800</v>
       </c>
       <c r="M1151" t="n">
-        <v>271</v>
+        <v>778</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83247,11 +83247,11 @@
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>271</v>
+        <v>778</v>
       </c>
       <c r="Q1151" t="n">
         <v>1</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -83297,20 +83297,20 @@
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K1152" t="n">
-        <v>260</v>
+        <v>570</v>
       </c>
       <c r="L1152" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="M1152" t="n">
-        <v>268</v>
+        <v>583</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>268</v>
+        <v>583</v>
       </c>
       <c r="Q1152" t="n">
         <v>1</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -83369,20 +83369,20 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K1153" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1153" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M1153" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83391,11 +83391,11 @@
       </c>
       <c r="O1153" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1153" t="n">
         <v>1</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -83436,25 +83436,25 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>400</v>
+        <v>4600</v>
       </c>
       <c r="K1154" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L1154" t="n">
         <v>200</v>
       </c>
       <c r="M1154" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Q1154" t="n">
         <v>1</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -83508,25 +83508,25 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>1600</v>
+        <v>2900</v>
       </c>
       <c r="K1155" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="L1155" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="M1155" t="n">
-        <v>750</v>
+        <v>136</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83535,11 +83535,11 @@
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>750</v>
+        <v>136</v>
       </c>
       <c r="Q1155" t="n">
         <v>1</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -83585,20 +83585,20 @@
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1156" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="L1156" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="M1156" t="n">
-        <v>750</v>
+        <v>271</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83607,11 +83607,11 @@
       </c>
       <c r="O1156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>750</v>
+        <v>271</v>
       </c>
       <c r="Q1156" t="n">
         <v>1</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -83657,20 +83657,20 @@
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="K1157" t="n">
-        <v>600</v>
+        <v>260</v>
       </c>
       <c r="L1157" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="M1157" t="n">
-        <v>600</v>
+        <v>268</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83679,11 +83679,11 @@
       </c>
       <c r="O1157" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>600</v>
+        <v>268</v>
       </c>
       <c r="Q1157" t="n">
         <v>1</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -83729,20 +83729,20 @@
       </c>
       <c r="I1158" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K1158" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1158" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M1158" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83751,11 +83751,11 @@
       </c>
       <c r="O1158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q1158" t="n">
         <v>1</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -83801,20 +83801,20 @@
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="K1159" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L1159" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1159" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83823,11 +83823,11 @@
       </c>
       <c r="O1159" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="Q1159" t="n">
         <v>1</v>
@@ -83853,58 +83853,418 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1160" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1160" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1160" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1160" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1160" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1160" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1160" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1161" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1161" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1161" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1161" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1161" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1161" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1161" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1162" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1162" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1162" t="n">
+        <v>700</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>600</v>
+      </c>
+      <c r="N1162" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1162" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1162" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1162" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1163" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1163" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1163" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1163" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1163" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1163" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1163" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1163" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1163" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1164" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1160" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1160" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H1160" t="inlineStr">
-        <is>
-          <t>Camote</t>
-        </is>
-      </c>
-      <c r="I1160" t="inlineStr">
+      <c r="E1164" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1164" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1164" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1164" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>550</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>570</v>
+      </c>
+      <c r="N1164" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1164" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P1164" t="n">
+        <v>570</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1164" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1165" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1165" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J1160" t="n">
+      <c r="J1165" t="n">
         <v>1200</v>
       </c>
-      <c r="K1160" t="n">
+      <c r="K1165" t="n">
         <v>450</v>
       </c>
-      <c r="L1160" t="n">
+      <c r="L1165" t="n">
         <v>450</v>
       </c>
-      <c r="M1160" t="n">
+      <c r="M1165" t="n">
         <v>450</v>
       </c>
-      <c r="N1160" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1160" t="inlineStr">
+      <c r="N1165" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1165" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P1160" t="n">
+      <c r="P1165" t="n">
         <v>450</v>
       </c>
-      <c r="Q1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1160" t="inlineStr">
+      <c r="Q1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1165" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1172"/>
+  <dimension ref="A1:R1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72357,16 +72357,16 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>1100</v>
+        <v>4300</v>
       </c>
       <c r="K1000" t="n">
-        <v>240</v>
+        <v>570</v>
       </c>
       <c r="L1000" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="M1000" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="Q1000" t="n">
         <v>1</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K1001" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="L1001" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="M1001" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="Q1001" t="n">
         <v>1</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72492,25 +72492,25 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>400</v>
+        <v>4800</v>
       </c>
       <c r="K1002" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="L1002" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="M1002" t="n">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="Q1002" t="n">
         <v>1</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72564,25 +72564,25 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>600</v>
+        <v>7700</v>
       </c>
       <c r="K1003" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="L1003" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="M1003" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="Q1003" t="n">
         <v>1</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72636,25 +72636,25 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="K1004" t="n">
-        <v>550</v>
+        <v>40</v>
       </c>
       <c r="L1004" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="M1004" t="n">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="Q1004" t="n">
         <v>1</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72708,7 +72708,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="K1005" t="n">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="L1005" t="n">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="M1005" t="n">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="Q1005" t="n">
         <v>1</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44305</v>
+        <v>44246</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="K1006" t="n">
         <v>240</v>
       </c>
       <c r="L1006" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="M1006" t="n">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q1006" t="n">
         <v>1</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44305</v>
+        <v>44246</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="K1007" t="n">
         <v>230</v>
       </c>
       <c r="L1007" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M1007" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q1007" t="n">
         <v>1</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44305</v>
+        <v>44246</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K1008" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L1008" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="M1008" t="n">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="Q1008" t="n">
         <v>1</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44305</v>
+        <v>44246</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K1009" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="L1009" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M1009" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q1009" t="n">
         <v>1</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="K1010" t="n">
-        <v>160</v>
+        <v>550</v>
       </c>
       <c r="L1010" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="M1010" t="n">
-        <v>160</v>
+        <v>570</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>160</v>
+        <v>570</v>
       </c>
       <c r="Q1010" t="n">
         <v>1</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="K1011" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="L1011" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="M1011" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="Q1011" t="n">
         <v>1</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="K1012" t="n">
-        <v>1100</v>
+        <v>240</v>
       </c>
       <c r="L1012" t="n">
-        <v>1100</v>
+        <v>260</v>
       </c>
       <c r="M1012" t="n">
-        <v>1100</v>
+        <v>248</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>1100</v>
+        <v>248</v>
       </c>
       <c r="Q1012" t="n">
         <v>1</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73284,25 +73284,25 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="K1013" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="L1013" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M1013" t="n">
-        <v>700</v>
+        <v>238</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>700</v>
+        <v>238</v>
       </c>
       <c r="Q1013" t="n">
         <v>1</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73356,25 +73356,25 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="K1014" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="L1014" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M1014" t="n">
-        <v>700</v>
+        <v>245</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>700</v>
+        <v>245</v>
       </c>
       <c r="Q1014" t="n">
         <v>1</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73428,25 +73428,25 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K1015" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="L1015" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="M1015" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="Q1015" t="n">
         <v>1</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73500,25 +73500,25 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K1016" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="L1016" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="M1016" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>1700</v>
+        <v>350</v>
       </c>
       <c r="K1017" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L1017" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M1017" t="n">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="K1018" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="L1018" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="M1018" t="n">
-        <v>279</v>
+        <v>1100</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>279</v>
+        <v>1100</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="K1019" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L1019" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M1019" t="n">
-        <v>277</v>
+        <v>700</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>277</v>
+        <v>700</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73788,25 +73788,25 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>650</v>
+        <v>3300</v>
       </c>
       <c r="K1020" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L1020" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="M1020" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K1021" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L1021" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M1021" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73932,7 +73932,7 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1022" t="n">
         <v>500</v>
       </c>
-      <c r="K1022" t="n">
-        <v>200</v>
-      </c>
       <c r="L1022" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M1022" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K1023" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="L1023" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M1023" t="n">
-        <v>582</v>
+        <v>278</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>582</v>
+        <v>278</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="K1024" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="L1024" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="M1024" t="n">
-        <v>650</v>
+        <v>279</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74103,11 +74103,11 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>650</v>
+        <v>279</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K1025" t="n">
+        <v>250</v>
+      </c>
+      <c r="L1025" t="n">
         <v>300</v>
       </c>
-      <c r="L1025" t="n">
-        <v>350</v>
-      </c>
       <c r="M1025" t="n">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="K1026" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1026" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M1026" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K1027" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1027" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1027" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K1028" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="L1028" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="M1028" t="n">
-        <v>439</v>
+        <v>200</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>439</v>
+        <v>200</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74448,13 +74448,13 @@
         <v>1100</v>
       </c>
       <c r="K1029" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="L1029" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1029" t="n">
-        <v>443</v>
+        <v>582</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>443</v>
+        <v>582</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>3200</v>
+        <v>1300</v>
       </c>
       <c r="K1030" t="n">
-        <v>330</v>
+        <v>650</v>
       </c>
       <c r="L1030" t="n">
-        <v>370</v>
+        <v>650</v>
       </c>
       <c r="M1030" t="n">
-        <v>348</v>
+        <v>650</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74535,11 +74535,11 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>348</v>
+        <v>650</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K1031" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1031" t="n">
         <v>350</v>
       </c>
-      <c r="L1031" t="n">
-        <v>380</v>
-      </c>
       <c r="M1031" t="n">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1032" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L1032" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M1032" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74679,11 +74679,11 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K1033" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="L1033" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M1033" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="K1034" t="n">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="L1034" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="M1034" t="n">
-        <v>258</v>
+        <v>439</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>258</v>
+        <v>439</v>
       </c>
       <c r="Q1034" t="n">
         <v>1</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="K1035" t="n">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="L1035" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="M1035" t="n">
-        <v>249</v>
+        <v>443</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>249</v>
+        <v>443</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74945,20 +74945,20 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="K1036" t="n">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="L1036" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="M1036" t="n">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K1037" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="L1037" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="M1037" t="n">
-        <v>180</v>
+        <v>363</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75039,11 +75039,11 @@
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>180</v>
+        <v>363</v>
       </c>
       <c r="Q1037" t="n">
         <v>1</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75089,20 +75089,20 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K1038" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L1038" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="M1038" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75111,11 +75111,11 @@
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="Q1038" t="n">
         <v>1</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K1039" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="L1039" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="M1039" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75183,11 +75183,11 @@
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="Q1039" t="n">
         <v>1</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K1040" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L1040" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M1040" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75255,11 +75255,11 @@
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q1040" t="n">
         <v>1</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="K1041" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L1041" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M1041" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75327,11 +75327,11 @@
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="Q1041" t="n">
         <v>1</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K1042" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L1042" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M1042" t="n">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="Q1042" t="n">
         <v>1</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1043" t="n">
         <v>300</v>
       </c>
       <c r="K1043" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L1043" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M1043" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Q1043" t="n">
         <v>1</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1044" t="n">
         <v>500</v>
       </c>
       <c r="K1044" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="L1044" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M1044" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="Q1044" t="n">
         <v>1</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K1045" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="L1045" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M1045" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75615,11 +75615,11 @@
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Q1045" t="n">
         <v>1</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="K1046" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="L1046" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="M1046" t="n">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="Q1046" t="n">
         <v>1</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>200</v>
+        <v>2300</v>
       </c>
       <c r="K1047" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="L1047" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="M1047" t="n">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="Q1047" t="n">
         <v>1</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>290</v>
+        <v>2100</v>
       </c>
       <c r="K1048" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="L1048" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="M1048" t="n">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="Q1048" t="n">
         <v>1</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K1049" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="L1049" t="n">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="M1049" t="n">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75903,11 +75903,11 @@
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="Q1049" t="n">
         <v>1</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K1050" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L1050" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1050" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="Q1050" t="n">
         <v>1</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K1051" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="L1051" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="M1051" t="n">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="Q1051" t="n">
         <v>1</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K1052" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="L1052" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="M1052" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76119,11 +76119,11 @@
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="Q1052" t="n">
         <v>1</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K1053" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L1053" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M1053" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q1053" t="n">
         <v>1</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="K1054" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="L1054" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="M1054" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="Q1054" t="n">
         <v>1</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76313,20 +76313,20 @@
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>6100</v>
+        <v>1600</v>
       </c>
       <c r="K1055" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="L1055" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="M1055" t="n">
-        <v>551</v>
+        <v>267</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76335,11 +76335,11 @@
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>551</v>
+        <v>267</v>
       </c>
       <c r="Q1055" t="n">
         <v>1</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76385,20 +76385,20 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K1056" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="L1056" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M1056" t="n">
-        <v>450</v>
+        <v>279</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76407,11 +76407,11 @@
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>450</v>
+        <v>279</v>
       </c>
       <c r="Q1056" t="n">
         <v>1</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76452,7 +76452,7 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="K1057" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L1057" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="M1057" t="n">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="Q1057" t="n">
         <v>1</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76524,7 +76524,7 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="K1058" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="L1058" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M1058" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76551,11 +76551,11 @@
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="Q1058" t="n">
         <v>1</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76601,20 +76601,20 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>2550</v>
+        <v>300</v>
       </c>
       <c r="K1059" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1059" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1059" t="n">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76623,11 +76623,11 @@
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="Q1059" t="n">
         <v>1</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K1060" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="L1060" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="M1060" t="n">
-        <v>323</v>
+        <v>180</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>323</v>
+        <v>180</v>
       </c>
       <c r="Q1060" t="n">
         <v>1</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>1400</v>
+        <v>6100</v>
       </c>
       <c r="K1061" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="L1061" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="M1061" t="n">
-        <v>323</v>
+        <v>551</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76767,11 +76767,11 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>323</v>
+        <v>551</v>
       </c>
       <c r="Q1061" t="n">
         <v>1</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K1062" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L1062" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M1062" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q1062" t="n">
         <v>1</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76884,25 +76884,25 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>250</v>
+        <v>3300</v>
       </c>
       <c r="K1063" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L1063" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M1063" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76911,11 +76911,11 @@
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76956,25 +76956,25 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="K1064" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="L1064" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M1064" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77033,20 +77033,20 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>3100</v>
+        <v>2550</v>
       </c>
       <c r="K1065" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L1065" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M1065" t="n">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="K1066" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="L1066" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M1066" t="n">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77127,11 +77127,11 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="K1067" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L1067" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M1067" t="n">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77199,11 +77199,11 @@
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K1068" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1068" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M1068" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K1069" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L1069" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M1069" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77343,11 +77343,11 @@
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K1070" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1070" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M1070" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77415,11 +77415,11 @@
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>4500</v>
+        <v>3100</v>
       </c>
       <c r="K1071" t="n">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="L1071" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M1071" t="n">
-        <v>583</v>
+        <v>288</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77487,11 +77487,11 @@
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>583</v>
+        <v>288</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>1200</v>
+        <v>3400</v>
       </c>
       <c r="K1072" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="L1072" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="M1072" t="n">
-        <v>480</v>
+        <v>283</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77559,11 +77559,11 @@
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>480</v>
+        <v>283</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77604,7 +77604,7 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>5900</v>
+        <v>2700</v>
       </c>
       <c r="K1073" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="L1073" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="M1073" t="n">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77631,11 +77631,11 @@
       </c>
       <c r="O1073" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K1074" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="L1074" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="M1074" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77703,11 +77703,11 @@
       </c>
       <c r="O1074" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77748,25 +77748,25 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K1075" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L1075" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M1075" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77775,11 +77775,11 @@
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77820,25 +77820,25 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>3400</v>
+        <v>500</v>
       </c>
       <c r="K1076" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L1076" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="M1076" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77847,11 +77847,11 @@
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="Q1076" t="n">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77892,25 +77892,25 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="K1077" t="n">
-        <v>800</v>
+        <v>570</v>
       </c>
       <c r="L1077" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1077" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77919,11 +77919,11 @@
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="K1078" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="L1078" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="M1078" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77991,11 +77991,11 @@
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>1500</v>
+        <v>5900</v>
       </c>
       <c r="K1079" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="L1079" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="M1079" t="n">
-        <v>580</v>
+        <v>111</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78063,11 +78063,11 @@
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>580</v>
+        <v>111</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78108,25 +78108,25 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K1080" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="L1080" t="n">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="M1080" t="n">
-        <v>528</v>
+        <v>70</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78135,11 +78135,11 @@
       </c>
       <c r="O1080" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>528</v>
+        <v>70</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78180,25 +78180,25 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="K1081" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L1081" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M1081" t="n">
-        <v>309</v>
+        <v>900</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>309</v>
+        <v>900</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78252,25 +78252,25 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>800</v>
+        <v>3400</v>
       </c>
       <c r="K1082" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L1082" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M1082" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78279,11 +78279,11 @@
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78324,25 +78324,25 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K1083" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="L1083" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="M1083" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>4600</v>
+        <v>2300</v>
       </c>
       <c r="K1084" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="L1084" t="n">
-        <v>130</v>
+        <v>800</v>
       </c>
       <c r="M1084" t="n">
-        <v>126</v>
+        <v>800</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>126</v>
+        <v>800</v>
       </c>
       <c r="Q1084" t="n">
         <v>1</v>
@@ -78468,25 +78468,25 @@
       </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="K1085" t="n">
-        <v>90</v>
+        <v>550</v>
       </c>
       <c r="L1085" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="M1085" t="n">
-        <v>94</v>
+        <v>580</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78495,11 +78495,11 @@
       </c>
       <c r="O1085" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>94</v>
+        <v>580</v>
       </c>
       <c r="Q1085" t="n">
         <v>1</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="K1086" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="L1086" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M1086" t="n">
-        <v>588</v>
+        <v>528</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>588</v>
+        <v>528</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K1087" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L1087" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M1087" t="n">
-        <v>500</v>
+        <v>309</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78639,11 +78639,11 @@
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>500</v>
+        <v>309</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78684,25 +78684,25 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>6300</v>
+        <v>800</v>
       </c>
       <c r="K1088" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L1088" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="M1088" t="n">
-        <v>111</v>
+        <v>400</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78711,11 +78711,11 @@
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>111</v>
+        <v>400</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78761,20 +78761,20 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="K1089" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1089" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1089" t="n">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78828,25 +78828,25 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>2850</v>
+        <v>4600</v>
       </c>
       <c r="K1090" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="L1090" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="M1090" t="n">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78900,25 +78900,25 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="K1091" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="L1091" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="M1091" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78927,11 +78927,11 @@
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>480</v>
+        <v>3200</v>
       </c>
       <c r="K1092" t="n">
-        <v>200</v>
+        <v>570</v>
       </c>
       <c r="L1092" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M1092" t="n">
-        <v>200</v>
+        <v>588</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -78999,11 +78999,11 @@
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>200</v>
+        <v>588</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="K1093" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L1093" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="M1093" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79071,11 +79071,11 @@
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79116,25 +79116,25 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>800</v>
+        <v>6300</v>
       </c>
       <c r="K1094" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="L1094" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M1094" t="n">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79193,20 +79193,20 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="K1095" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="L1095" t="n">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="M1095" t="n">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79215,11 +79215,11 @@
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79269,7 +79269,7 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>1500</v>
+        <v>2850</v>
       </c>
       <c r="K1096" t="n">
         <v>300</v>
@@ -79287,7 +79287,7 @@
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Provincia de Colchagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1096" t="n">
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79337,20 +79337,20 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="K1097" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="L1097" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="M1097" t="n">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79409,20 +79409,20 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>3200</v>
+        <v>480</v>
       </c>
       <c r="K1098" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1098" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="M1098" t="n">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -79481,20 +79481,20 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1099" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K1099" t="n">
         <v>300</v>
       </c>
-      <c r="K1099" t="n">
-        <v>250</v>
-      </c>
       <c r="L1099" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="M1099" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79503,11 +79503,11 @@
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Provincia de Colchagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1100" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L1100" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M1100" t="n">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79575,11 +79575,11 @@
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K1101" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="L1101" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="M1101" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79697,20 +79697,20 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K1102" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L1102" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="M1102" t="n">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79719,11 +79719,11 @@
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Colchagua</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="K1103" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L1103" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="M1103" t="n">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79791,11 +79791,11 @@
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="K1104" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L1104" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="M1104" t="n">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79863,11 +79863,11 @@
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K1105" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="L1105" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M1105" t="n">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79935,11 +79935,11 @@
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Colchagua</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79985,20 +79985,20 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="K1106" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="L1106" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M1106" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K1107" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="L1107" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M1107" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K1108" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L1108" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M1108" t="n">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80151,11 +80151,11 @@
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80201,20 +80201,20 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K1109" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L1109" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M1109" t="n">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K1110" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L1110" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1110" t="n">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80295,11 +80295,11 @@
       </c>
       <c r="O1110" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K1111" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L1111" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M1111" t="n">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="K1112" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="L1112" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="M1112" t="n">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>2700</v>
+        <v>200</v>
       </c>
       <c r="K1113" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L1113" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="M1113" t="n">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80511,11 +80511,11 @@
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>3400</v>
+        <v>1900</v>
       </c>
       <c r="K1114" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L1114" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="M1114" t="n">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80583,11 +80583,11 @@
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K1115" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L1115" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="M1115" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80655,11 +80655,11 @@
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K1116" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L1116" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M1116" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80727,11 +80727,11 @@
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K1117" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="L1117" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="M1117" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>290</v>
+        <v>1500</v>
       </c>
       <c r="K1118" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="L1118" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="M1118" t="n">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>200</v>
+        <v>2700</v>
       </c>
       <c r="K1119" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="L1119" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="M1119" t="n">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>270</v>
+        <v>3400</v>
       </c>
       <c r="K1120" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="L1120" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="M1120" t="n">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>4100</v>
+        <v>300</v>
       </c>
       <c r="K1121" t="n">
-        <v>570</v>
+        <v>190</v>
       </c>
       <c r="L1121" t="n">
-        <v>600</v>
+        <v>190</v>
       </c>
       <c r="M1121" t="n">
-        <v>588</v>
+        <v>190</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81087,11 +81087,11 @@
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>588</v>
+        <v>190</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K1122" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1122" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M1122" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81159,11 +81159,11 @@
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81204,25 +81204,25 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>6200</v>
+        <v>600</v>
       </c>
       <c r="K1123" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="L1123" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="M1123" t="n">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81276,25 +81276,25 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>2000</v>
+        <v>290</v>
       </c>
       <c r="K1124" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="L1124" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="M1124" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="K1125" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="L1125" t="n">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="M1125" t="n">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81375,11 +81375,11 @@
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81425,20 +81425,20 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>1500</v>
+        <v>270</v>
       </c>
       <c r="K1126" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="L1126" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="M1126" t="n">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>200</v>
+        <v>4100</v>
       </c>
       <c r="K1127" t="n">
-        <v>200</v>
+        <v>570</v>
       </c>
       <c r="L1127" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M1127" t="n">
-        <v>200</v>
+        <v>588</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81519,11 +81519,11 @@
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>200</v>
+        <v>588</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81569,20 +81569,20 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K1128" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L1128" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M1128" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81636,25 +81636,25 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>190</v>
+        <v>6200</v>
       </c>
       <c r="K1129" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L1129" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M1129" t="n">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81663,11 +81663,11 @@
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81708,25 +81708,25 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>170</v>
+        <v>2000</v>
       </c>
       <c r="K1130" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L1130" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M1130" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Q1130" t="n">
         <v>1</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81789,16 +81789,16 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1131" t="n">
-        <v>750</v>
+        <v>270</v>
       </c>
       <c r="L1131" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="M1131" t="n">
-        <v>780</v>
+        <v>281</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81807,11 +81807,11 @@
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>780</v>
+        <v>281</v>
       </c>
       <c r="Q1131" t="n">
         <v>1</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81861,16 +81861,16 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="K1132" t="n">
-        <v>750</v>
+        <v>260</v>
       </c>
       <c r="L1132" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="M1132" t="n">
-        <v>778</v>
+        <v>272</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>778</v>
+        <v>272</v>
       </c>
       <c r="Q1132" t="n">
         <v>1</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81933,16 +81933,16 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>2700</v>
+        <v>200</v>
       </c>
       <c r="K1133" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L1133" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1133" t="n">
-        <v>574</v>
+        <v>200</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81951,11 +81951,11 @@
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>574</v>
+        <v>200</v>
       </c>
       <c r="Q1133" t="n">
         <v>1</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -82005,16 +82005,16 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>2900</v>
+        <v>300</v>
       </c>
       <c r="K1134" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L1134" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M1134" t="n">
-        <v>572</v>
+        <v>200</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>572</v>
+        <v>200</v>
       </c>
       <c r="Q1134" t="n">
         <v>1</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82077,16 +82077,16 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="K1135" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1135" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M1135" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82095,11 +82095,11 @@
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q1135" t="n">
         <v>1</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82149,16 +82149,16 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>800</v>
+        <v>170</v>
       </c>
       <c r="K1136" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="L1136" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="M1136" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="Q1136" t="n">
         <v>1</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82217,20 +82217,20 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="K1137" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L1137" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1137" t="n">
-        <v>571</v>
+        <v>780</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82239,11 +82239,11 @@
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>571</v>
+        <v>780</v>
       </c>
       <c r="Q1137" t="n">
         <v>1</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>2700</v>
+        <v>1350</v>
       </c>
       <c r="K1138" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L1138" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M1138" t="n">
-        <v>628</v>
+        <v>778</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82311,11 +82311,11 @@
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>628</v>
+        <v>778</v>
       </c>
       <c r="Q1138" t="n">
         <v>1</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82361,11 +82361,11 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="K1139" t="n">
         <v>550</v>
@@ -82374,7 +82374,7 @@
         <v>600</v>
       </c>
       <c r="M1139" t="n">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82383,11 +82383,11 @@
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="Q1139" t="n">
         <v>1</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82433,20 +82433,20 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="K1140" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L1140" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M1140" t="n">
-        <v>400</v>
+        <v>572</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82455,11 +82455,11 @@
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>400</v>
+        <v>572</v>
       </c>
       <c r="Q1140" t="n">
         <v>1</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82505,20 +82505,20 @@
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K1141" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L1141" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M1141" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q1141" t="n">
         <v>1</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82577,20 +82577,20 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1142" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="L1142" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="M1142" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="Q1142" t="n">
         <v>1</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="K1143" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L1143" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1143" t="n">
-        <v>426</v>
+        <v>571</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>426</v>
+        <v>571</v>
       </c>
       <c r="Q1143" t="n">
         <v>1</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82725,16 +82725,16 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="K1144" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L1144" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M1144" t="n">
-        <v>422</v>
+        <v>628</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>422</v>
+        <v>628</v>
       </c>
       <c r="Q1144" t="n">
         <v>1</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K1145" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L1145" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1145" t="n">
-        <v>420</v>
+        <v>570</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>420</v>
+        <v>570</v>
       </c>
       <c r="Q1145" t="n">
         <v>1</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82869,16 +82869,16 @@
         </is>
       </c>
       <c r="J1146" t="n">
+        <v>2300</v>
+      </c>
+      <c r="K1146" t="n">
         <v>400</v>
       </c>
-      <c r="K1146" t="n">
-        <v>350</v>
-      </c>
       <c r="L1146" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M1146" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q1146" t="n">
         <v>1</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82941,16 +82941,16 @@
         </is>
       </c>
       <c r="J1147" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K1147" t="n">
         <v>500</v>
       </c>
-      <c r="K1147" t="n">
-        <v>350</v>
-      </c>
       <c r="L1147" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M1147" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q1147" t="n">
         <v>1</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -83013,16 +83013,16 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1148" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L1148" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M1148" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q1148" t="n">
         <v>1</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -83081,20 +83081,20 @@
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K1149" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L1149" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M1149" t="n">
-        <v>272</v>
+        <v>426</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>272</v>
+        <v>426</v>
       </c>
       <c r="Q1149" t="n">
         <v>1</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -83153,20 +83153,20 @@
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K1150" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L1150" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M1150" t="n">
-        <v>271</v>
+        <v>422</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>271</v>
+        <v>422</v>
       </c>
       <c r="Q1150" t="n">
         <v>1</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -83225,20 +83225,20 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>580</v>
+        <v>1500</v>
       </c>
       <c r="K1151" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L1151" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M1151" t="n">
-        <v>278</v>
+        <v>420</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>278</v>
+        <v>420</v>
       </c>
       <c r="Q1151" t="n">
         <v>1</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -83297,20 +83297,20 @@
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1152" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L1152" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M1152" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q1152" t="n">
         <v>1</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -83369,20 +83369,20 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K1153" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L1153" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M1153" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q1153" t="n">
         <v>1</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -83441,20 +83441,20 @@
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="K1154" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L1154" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M1154" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q1154" t="n">
         <v>1</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -83517,16 +83517,16 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K1155" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L1155" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1155" t="n">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83535,11 +83535,11 @@
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="Q1155" t="n">
         <v>1</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K1156" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L1156" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1156" t="n">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83607,11 +83607,11 @@
       </c>
       <c r="O1156" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="Q1156" t="n">
         <v>1</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -83657,20 +83657,20 @@
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1157" t="n">
+        <v>580</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>250</v>
+      </c>
+      <c r="L1157" t="n">
         <v>300</v>
       </c>
-      <c r="K1157" t="n">
-        <v>160</v>
-      </c>
-      <c r="L1157" t="n">
-        <v>160</v>
-      </c>
       <c r="M1157" t="n">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="Q1157" t="n">
         <v>1</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1158" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1158" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1158" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83751,11 +83751,11 @@
       </c>
       <c r="O1158" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1158" t="n">
         <v>1</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -83801,20 +83801,20 @@
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K1159" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L1159" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1159" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q1159" t="n">
         <v>1</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -83873,20 +83873,20 @@
       </c>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>680</v>
+        <v>170</v>
       </c>
       <c r="K1160" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L1160" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1160" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83895,11 +83895,11 @@
       </c>
       <c r="O1160" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q1160" t="n">
         <v>1</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -83949,7 +83949,7 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K1161" t="n">
         <v>230</v>
@@ -83958,7 +83958,7 @@
         <v>250</v>
       </c>
       <c r="M1161" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83967,11 +83967,11 @@
       </c>
       <c r="O1161" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q1161" t="n">
         <v>1</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K1162" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L1162" t="n">
         <v>250</v>
       </c>
       <c r="M1162" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q1162" t="n">
         <v>1</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -84093,16 +84093,16 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K1163" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="L1163" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M1163" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84111,11 +84111,11 @@
       </c>
       <c r="O1163" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q1163" t="n">
         <v>1</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K1164" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="L1164" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="M1164" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="Q1164" t="n">
         <v>1</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -84233,20 +84233,20 @@
       </c>
       <c r="I1165" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>2900</v>
+        <v>880</v>
       </c>
       <c r="K1165" t="n">
-        <v>570</v>
+        <v>350</v>
       </c>
       <c r="L1165" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M1165" t="n">
-        <v>583</v>
+        <v>350</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84255,11 +84255,11 @@
       </c>
       <c r="O1165" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>583</v>
+        <v>350</v>
       </c>
       <c r="Q1165" t="n">
         <v>1</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -84305,20 +84305,20 @@
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="K1166" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="L1166" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="M1166" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84327,11 +84327,11 @@
       </c>
       <c r="O1166" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="Q1166" t="n">
         <v>1</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -84377,20 +84377,20 @@
       </c>
       <c r="I1167" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K1167" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="L1167" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M1167" t="n">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84403,7 +84403,7 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="Q1167" t="n">
         <v>1</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -84449,20 +84449,20 @@
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K1168" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="L1168" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M1168" t="n">
-        <v>379</v>
+        <v>243</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84471,11 +84471,11 @@
       </c>
       <c r="O1168" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>379</v>
+        <v>243</v>
       </c>
       <c r="Q1168" t="n">
         <v>1</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -84521,20 +84521,20 @@
       </c>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1169" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="L1169" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="M1169" t="n">
-        <v>379</v>
+        <v>170</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84543,11 +84543,11 @@
       </c>
       <c r="O1169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>379</v>
+        <v>170</v>
       </c>
       <c r="Q1169" t="n">
         <v>1</v>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -84593,20 +84593,20 @@
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K1170" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="L1170" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="M1170" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84615,11 +84615,11 @@
       </c>
       <c r="O1170" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="Q1170" t="n">
         <v>1</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -84665,20 +84665,20 @@
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>300</v>
+        <v>2900</v>
       </c>
       <c r="K1171" t="n">
-        <v>300</v>
+        <v>570</v>
       </c>
       <c r="L1171" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M1171" t="n">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84687,11 +84687,11 @@
       </c>
       <c r="O1171" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="Q1171" t="n">
         <v>1</v>
@@ -84717,58 +84717,490 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1172" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1172" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>480</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>480</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>480</v>
+      </c>
+      <c r="N1172" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1172" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P1172" t="n">
+        <v>480</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1172" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1173" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E1172" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1172" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H1172" t="inlineStr">
-        <is>
-          <t>Camote</t>
-        </is>
-      </c>
-      <c r="I1172" t="inlineStr">
+      <c r="E1173" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1173" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1173" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1173" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>350</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>371</v>
+      </c>
+      <c r="N1173" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1173" t="inlineStr">
+        <is>
+          <t>Provincia de Maipo</t>
+        </is>
+      </c>
+      <c r="P1173" t="n">
+        <v>371</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1173" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1174" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1174" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1174" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1174" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>350</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>379</v>
+      </c>
+      <c r="N1174" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1174" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1174" t="n">
+        <v>379</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1174" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1175" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1175" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1175" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>350</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>379</v>
+      </c>
+      <c r="N1175" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1175" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1175" t="n">
+        <v>379</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1175" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1176" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1176" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1176" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J1172" t="n">
+      <c r="J1176" t="n">
+        <v>400</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1176" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1176" t="inlineStr">
+        <is>
+          <t>Provincia de Maipo</t>
+        </is>
+      </c>
+      <c r="P1176" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1176" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1177" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1177" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1177" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1177" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1177" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1177" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1177" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1178" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1178" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1178" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1178" t="n">
         <v>250</v>
       </c>
-      <c r="K1172" t="n">
+      <c r="K1178" t="n">
         <v>300</v>
       </c>
-      <c r="L1172" t="n">
+      <c r="L1178" t="n">
         <v>300</v>
       </c>
-      <c r="M1172" t="n">
+      <c r="M1178" t="n">
         <v>300</v>
       </c>
-      <c r="N1172" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1172" t="inlineStr">
+      <c r="N1178" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1178" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P1172" t="n">
+      <c r="P1178" t="n">
         <v>300</v>
       </c>
-      <c r="Q1172" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1172" t="inlineStr">
+      <c r="Q1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1178" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1309"/>
+  <dimension ref="A1:R1315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1221" t="n">
         <v>13</v>
@@ -88265,20 +88265,20 @@
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>500</v>
+        <v>2570</v>
       </c>
       <c r="K1221" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L1221" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="M1221" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88287,11 +88287,11 @@
       </c>
       <c r="O1221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="Q1221" t="n">
         <v>1</v>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1222" t="n">
         <v>13</v>
@@ -88337,20 +88337,20 @@
       </c>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>900</v>
+        <v>1630</v>
       </c>
       <c r="K1222" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L1222" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M1222" t="n">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="Q1222" t="n">
         <v>1</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1223" t="n">
         <v>13</v>
@@ -88409,20 +88409,20 @@
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>300</v>
+        <v>780</v>
       </c>
       <c r="K1223" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="L1223" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M1223" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
@@ -88431,11 +88431,11 @@
       </c>
       <c r="O1223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q1223" t="n">
         <v>1</v>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E1224" t="n">
         <v>13</v>
@@ -88481,20 +88481,20 @@
       </c>
       <c r="I1224" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>750</v>
+        <v>560</v>
       </c>
       <c r="K1224" t="n">
-        <v>540</v>
+        <v>370</v>
       </c>
       <c r="L1224" t="n">
-        <v>570</v>
+        <v>370</v>
       </c>
       <c r="M1224" t="n">
-        <v>554</v>
+        <v>370</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
@@ -88503,11 +88503,11 @@
       </c>
       <c r="O1224" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>554</v>
+        <v>370</v>
       </c>
       <c r="Q1224" t="n">
         <v>1</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E1225" t="n">
         <v>13</v>
@@ -88548,25 +88548,25 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="K1225" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="L1225" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="M1225" t="n">
-        <v>568</v>
+        <v>166</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
@@ -88579,7 +88579,7 @@
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>568</v>
+        <v>166</v>
       </c>
       <c r="Q1225" t="n">
         <v>1</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -88620,25 +88620,25 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>1700</v>
+        <v>820</v>
       </c>
       <c r="K1226" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="L1226" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="M1226" t="n">
-        <v>426</v>
+        <v>120</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88647,11 +88647,11 @@
       </c>
       <c r="O1226" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>426</v>
+        <v>120</v>
       </c>
       <c r="Q1226" t="n">
         <v>1</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1227" t="n">
         <v>13</v>
@@ -88697,20 +88697,20 @@
       </c>
       <c r="I1227" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K1227" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L1227" t="n">
         <v>450</v>
       </c>
       <c r="M1227" t="n">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="Q1227" t="n">
         <v>1</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1228" t="n">
         <v>13</v>
@@ -88769,20 +88769,20 @@
       </c>
       <c r="I1228" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K1228" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1228" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1228" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88791,11 +88791,11 @@
       </c>
       <c r="O1228" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q1228" t="n">
         <v>1</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1229" t="n">
         <v>13</v>
@@ -88845,16 +88845,16 @@
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K1229" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L1229" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M1229" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
@@ -88867,7 +88867,7 @@
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q1229" t="n">
         <v>1</v>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1230" t="n">
         <v>13</v>
@@ -88913,20 +88913,20 @@
       </c>
       <c r="I1230" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>3800</v>
+        <v>750</v>
       </c>
       <c r="K1230" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="L1230" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="M1230" t="n">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
@@ -88935,11 +88935,11 @@
       </c>
       <c r="O1230" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="Q1230" t="n">
         <v>1</v>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1231" t="n">
         <v>13</v>
@@ -88985,20 +88985,20 @@
       </c>
       <c r="I1231" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K1231" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L1231" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="M1231" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89007,11 +89007,11 @@
       </c>
       <c r="O1231" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="Q1231" t="n">
         <v>1</v>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1232" t="n">
         <v>13</v>
@@ -89057,20 +89057,20 @@
       </c>
       <c r="I1232" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="K1232" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L1232" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M1232" t="n">
-        <v>293</v>
+        <v>426</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89079,11 +89079,11 @@
       </c>
       <c r="O1232" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>293</v>
+        <v>426</v>
       </c>
       <c r="Q1232" t="n">
         <v>1</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1233" t="n">
         <v>13</v>
@@ -89129,20 +89129,20 @@
       </c>
       <c r="I1233" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K1233" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="L1233" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M1233" t="n">
-        <v>295</v>
+        <v>423</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
@@ -89155,7 +89155,7 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>295</v>
+        <v>423</v>
       </c>
       <c r="Q1233" t="n">
         <v>1</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1234" t="n">
         <v>13</v>
@@ -89201,20 +89201,20 @@
       </c>
       <c r="I1234" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1234" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L1234" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M1234" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89223,11 +89223,11 @@
       </c>
       <c r="O1234" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="Q1234" t="n">
         <v>1</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -89273,20 +89273,20 @@
       </c>
       <c r="I1235" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1235" t="n">
+        <v>700</v>
+      </c>
+      <c r="K1235" t="n">
         <v>250</v>
       </c>
-      <c r="K1235" t="n">
-        <v>230</v>
-      </c>
       <c r="L1235" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M1235" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89299,7 +89299,7 @@
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="Q1235" t="n">
         <v>1</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -89345,20 +89345,20 @@
       </c>
       <c r="I1236" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="K1236" t="n">
-        <v>280</v>
+        <v>550</v>
       </c>
       <c r="L1236" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M1236" t="n">
-        <v>293</v>
+        <v>570</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89367,11 +89367,11 @@
       </c>
       <c r="O1236" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>293</v>
+        <v>570</v>
       </c>
       <c r="Q1236" t="n">
         <v>1</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E1237" t="n">
         <v>13</v>
@@ -89417,20 +89417,20 @@
       </c>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="K1237" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="L1237" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M1237" t="n">
-        <v>289</v>
+        <v>450</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89439,11 +89439,11 @@
       </c>
       <c r="O1237" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>289</v>
+        <v>450</v>
       </c>
       <c r="Q1237" t="n">
         <v>1</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1238" t="n">
         <v>13</v>
@@ -89489,20 +89489,20 @@
       </c>
       <c r="I1238" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="K1238" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L1238" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1238" t="n">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89515,7 +89515,7 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="Q1238" t="n">
         <v>1</v>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1239" t="n">
         <v>13</v>
@@ -89561,20 +89561,20 @@
       </c>
       <c r="I1239" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K1239" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="L1239" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1239" t="n">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89587,7 +89587,7 @@
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="Q1239" t="n">
         <v>1</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44533</v>
+        <v>44293</v>
       </c>
       <c r="E1240" t="n">
         <v>13</v>
@@ -89633,20 +89633,20 @@
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>2900</v>
+        <v>300</v>
       </c>
       <c r="K1240" t="n">
-        <v>770</v>
+        <v>220</v>
       </c>
       <c r="L1240" t="n">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="M1240" t="n">
-        <v>783</v>
+        <v>220</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89655,11 +89655,11 @@
       </c>
       <c r="O1240" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>783</v>
+        <v>220</v>
       </c>
       <c r="Q1240" t="n">
         <v>1</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44533</v>
+        <v>44293</v>
       </c>
       <c r="E1241" t="n">
         <v>13</v>
@@ -89705,20 +89705,20 @@
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>3400</v>
+        <v>250</v>
       </c>
       <c r="K1241" t="n">
-        <v>680</v>
+        <v>230</v>
       </c>
       <c r="L1241" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="M1241" t="n">
-        <v>689</v>
+        <v>230</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89727,11 +89727,11 @@
       </c>
       <c r="O1241" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>689</v>
+        <v>230</v>
       </c>
       <c r="Q1241" t="n">
         <v>1</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1242" t="n">
         <v>13</v>
@@ -89777,20 +89777,20 @@
       </c>
       <c r="I1242" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="K1242" t="n">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="L1242" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M1242" t="n">
-        <v>700</v>
+        <v>293</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89799,11 +89799,11 @@
       </c>
       <c r="O1242" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>700</v>
+        <v>293</v>
       </c>
       <c r="Q1242" t="n">
         <v>1</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1243" t="n">
         <v>13</v>
@@ -89849,20 +89849,20 @@
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="K1243" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="L1243" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M1243" t="n">
-        <v>600</v>
+        <v>289</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89871,11 +89871,11 @@
       </c>
       <c r="O1243" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>600</v>
+        <v>289</v>
       </c>
       <c r="Q1243" t="n">
         <v>1</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E1244" t="n">
         <v>13</v>
@@ -89921,20 +89921,20 @@
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="K1244" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="L1244" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1244" t="n">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89943,11 +89943,11 @@
       </c>
       <c r="O1244" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="Q1244" t="n">
         <v>1</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E1245" t="n">
         <v>13</v>
@@ -89993,20 +89993,20 @@
       </c>
       <c r="I1245" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K1245" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L1245" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1245" t="n">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90015,11 +90015,11 @@
       </c>
       <c r="O1245" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="Q1245" t="n">
         <v>1</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1246" t="n">
         <v>13</v>
@@ -90065,20 +90065,20 @@
       </c>
       <c r="I1246" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>400</v>
+        <v>2900</v>
       </c>
       <c r="K1246" t="n">
-        <v>200</v>
+        <v>770</v>
       </c>
       <c r="L1246" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M1246" t="n">
-        <v>200</v>
+        <v>783</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90087,11 +90087,11 @@
       </c>
       <c r="O1246" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>200</v>
+        <v>783</v>
       </c>
       <c r="Q1246" t="n">
         <v>1</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1247" t="n">
         <v>13</v>
@@ -90137,20 +90137,20 @@
       </c>
       <c r="I1247" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>600</v>
+        <v>3400</v>
       </c>
       <c r="K1247" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="L1247" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="M1247" t="n">
-        <v>200</v>
+        <v>689</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90159,11 +90159,11 @@
       </c>
       <c r="O1247" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>200</v>
+        <v>689</v>
       </c>
       <c r="Q1247" t="n">
         <v>1</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44494</v>
+        <v>44533</v>
       </c>
       <c r="E1248" t="n">
         <v>13</v>
@@ -90209,20 +90209,20 @@
       </c>
       <c r="I1248" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>7800</v>
+        <v>800</v>
       </c>
       <c r="K1248" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L1248" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1248" t="n">
-        <v>571</v>
+        <v>700</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>571</v>
+        <v>700</v>
       </c>
       <c r="Q1248" t="n">
         <v>1</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44494</v>
+        <v>44533</v>
       </c>
       <c r="E1249" t="n">
         <v>13</v>
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="K1249" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1249" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M1249" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90303,11 +90303,11 @@
       </c>
       <c r="O1249" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q1249" t="n">
         <v>1</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1250" t="n">
         <v>13</v>
@@ -90353,20 +90353,20 @@
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="K1250" t="n">
+        <v>290</v>
+      </c>
+      <c r="L1250" t="n">
         <v>300</v>
       </c>
-      <c r="L1250" t="n">
-        <v>350</v>
-      </c>
       <c r="M1250" t="n">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90375,11 +90375,11 @@
       </c>
       <c r="O1250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="Q1250" t="n">
         <v>1</v>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1251" t="n">
         <v>13</v>
@@ -90425,20 +90425,20 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K1251" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1251" t="n">
         <v>300</v>
       </c>
-      <c r="L1251" t="n">
-        <v>350</v>
-      </c>
       <c r="M1251" t="n">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90447,11 +90447,11 @@
       </c>
       <c r="O1251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="Q1251" t="n">
         <v>1</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1252" t="n">
         <v>13</v>
@@ -90497,20 +90497,20 @@
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1252" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1252" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1252" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90519,11 +90519,11 @@
       </c>
       <c r="O1252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q1252" t="n">
         <v>1</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1253" t="n">
         <v>13</v>
@@ -90569,20 +90569,20 @@
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K1253" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1253" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1253" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90591,11 +90591,11 @@
       </c>
       <c r="O1253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q1253" t="n">
         <v>1</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44390</v>
+        <v>44494</v>
       </c>
       <c r="E1254" t="n">
         <v>13</v>
@@ -90641,20 +90641,20 @@
       </c>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>1800</v>
+        <v>7800</v>
       </c>
       <c r="K1254" t="n">
-        <v>280</v>
+        <v>550</v>
       </c>
       <c r="L1254" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M1254" t="n">
-        <v>287</v>
+        <v>571</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90663,11 +90663,11 @@
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>287</v>
+        <v>571</v>
       </c>
       <c r="Q1254" t="n">
         <v>1</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44390</v>
+        <v>44494</v>
       </c>
       <c r="E1255" t="n">
         <v>13</v>
@@ -90713,20 +90713,20 @@
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="K1255" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L1255" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="M1255" t="n">
-        <v>309</v>
+        <v>450</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90735,11 +90735,11 @@
       </c>
       <c r="O1255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>309</v>
+        <v>450</v>
       </c>
       <c r="Q1255" t="n">
         <v>1</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1256" t="n">
         <v>13</v>
@@ -90785,20 +90785,20 @@
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K1256" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L1256" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="M1256" t="n">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90807,11 +90807,11 @@
       </c>
       <c r="O1256" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="Q1256" t="n">
         <v>1</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1257" t="n">
         <v>13</v>
@@ -90857,20 +90857,20 @@
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="K1257" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L1257" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M1257" t="n">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="Q1257" t="n">
         <v>1</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1258" t="n">
         <v>13</v>
@@ -90929,20 +90929,20 @@
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K1258" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="L1258" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M1258" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90951,11 +90951,11 @@
       </c>
       <c r="O1258" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q1258" t="n">
         <v>1</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1259" t="n">
         <v>13</v>
@@ -91001,20 +91001,20 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K1259" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="L1259" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="M1259" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="Q1259" t="n">
         <v>1</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1260" t="n">
         <v>13</v>
@@ -91073,20 +91073,20 @@
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K1260" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L1260" t="n">
         <v>300</v>
       </c>
       <c r="M1260" t="n">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91095,11 +91095,11 @@
       </c>
       <c r="O1260" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q1260" t="n">
         <v>1</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1261" t="n">
         <v>13</v>
@@ -91145,20 +91145,20 @@
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="K1261" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1261" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="M1261" t="n">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91167,11 +91167,11 @@
       </c>
       <c r="O1261" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="Q1261" t="n">
         <v>1</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1262" t="n">
         <v>13</v>
@@ -91217,20 +91217,20 @@
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K1262" t="n">
         <v>200</v>
       </c>
       <c r="L1262" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M1262" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91239,11 +91239,11 @@
       </c>
       <c r="O1262" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q1262" t="n">
         <v>1</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1263" t="n">
         <v>13</v>
@@ -91289,20 +91289,20 @@
       </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="K1263" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L1263" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M1263" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91311,11 +91311,11 @@
       </c>
       <c r="O1263" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q1263" t="n">
         <v>1</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44277</v>
+        <v>44390</v>
       </c>
       <c r="E1264" t="n">
         <v>13</v>
@@ -91361,20 +91361,20 @@
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>1900</v>
+        <v>150</v>
       </c>
       <c r="K1264" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1264" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="M1264" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91383,11 +91383,11 @@
       </c>
       <c r="O1264" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="Q1264" t="n">
         <v>1</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44277</v>
+        <v>44390</v>
       </c>
       <c r="E1265" t="n">
         <v>13</v>
@@ -91433,20 +91433,20 @@
       </c>
       <c r="I1265" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K1265" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="L1265" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="M1265" t="n">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91455,11 +91455,11 @@
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="Q1265" t="n">
         <v>1</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1266" t="n">
         <v>13</v>
@@ -91509,16 +91509,16 @@
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="K1266" t="n">
+        <v>250</v>
+      </c>
+      <c r="L1266" t="n">
         <v>300</v>
       </c>
-      <c r="L1266" t="n">
-        <v>320</v>
-      </c>
       <c r="M1266" t="n">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91527,11 +91527,11 @@
       </c>
       <c r="O1266" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="Q1266" t="n">
         <v>1</v>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1267" t="n">
         <v>13</v>
@@ -91577,20 +91577,20 @@
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1267" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>250</v>
+      </c>
+      <c r="L1267" t="n">
         <v>300</v>
       </c>
-      <c r="K1267" t="n">
-        <v>220</v>
-      </c>
-      <c r="L1267" t="n">
-        <v>220</v>
-      </c>
       <c r="M1267" t="n">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91599,11 +91599,11 @@
       </c>
       <c r="O1267" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="Q1267" t="n">
         <v>1</v>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1268" t="n">
         <v>13</v>
@@ -91653,16 +91653,16 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K1268" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L1268" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="M1268" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91671,11 +91671,11 @@
       </c>
       <c r="O1268" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="Q1268" t="n">
         <v>1</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1269" t="n">
         <v>13</v>
@@ -91725,16 +91725,16 @@
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K1269" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L1269" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="M1269" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91743,11 +91743,11 @@
       </c>
       <c r="O1269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="Q1269" t="n">
         <v>1</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1270" t="n">
         <v>13</v>
@@ -91793,20 +91793,20 @@
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>4200</v>
+        <v>1900</v>
       </c>
       <c r="K1270" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L1270" t="n">
-        <v>650</v>
+        <v>320</v>
       </c>
       <c r="M1270" t="n">
-        <v>621</v>
+        <v>312</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91815,11 +91815,11 @@
       </c>
       <c r="O1270" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>621</v>
+        <v>312</v>
       </c>
       <c r="Q1270" t="n">
         <v>1</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1271" t="n">
         <v>13</v>
@@ -91865,20 +91865,20 @@
       </c>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="K1271" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L1271" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="M1271" t="n">
-        <v>500</v>
+        <v>309</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91887,11 +91887,11 @@
       </c>
       <c r="O1271" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>500</v>
+        <v>309</v>
       </c>
       <c r="Q1271" t="n">
         <v>1</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1272" t="n">
         <v>13</v>
@@ -91932,25 +91932,25 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="K1272" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="L1272" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="M1272" t="n">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91963,7 +91963,7 @@
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="Q1272" t="n">
         <v>1</v>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1273" t="n">
         <v>13</v>
@@ -92004,25 +92004,25 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K1273" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="L1273" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="M1273" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92031,11 +92031,11 @@
       </c>
       <c r="O1273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="Q1273" t="n">
         <v>1</v>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E1274" t="n">
         <v>13</v>
@@ -92081,20 +92081,20 @@
       </c>
       <c r="I1274" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>3100</v>
+        <v>250</v>
       </c>
       <c r="K1274" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="L1274" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M1274" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92103,11 +92103,11 @@
       </c>
       <c r="O1274" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="Q1274" t="n">
         <v>1</v>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E1275" t="n">
         <v>13</v>
@@ -92153,20 +92153,20 @@
       </c>
       <c r="I1275" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>3400</v>
+        <v>600</v>
       </c>
       <c r="K1275" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="L1275" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="M1275" t="n">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92179,7 +92179,7 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="Q1275" t="n">
         <v>1</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1276" t="n">
         <v>13</v>
@@ -92225,20 +92225,20 @@
       </c>
       <c r="I1276" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="K1276" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="L1276" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M1276" t="n">
-        <v>288</v>
+        <v>621</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92247,11 +92247,11 @@
       </c>
       <c r="O1276" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>288</v>
+        <v>621</v>
       </c>
       <c r="Q1276" t="n">
         <v>1</v>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1277" t="n">
         <v>13</v>
@@ -92297,20 +92297,20 @@
       </c>
       <c r="I1277" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1277" t="n">
+        <v>100</v>
+      </c>
+      <c r="K1277" t="n">
         <v>500</v>
       </c>
-      <c r="K1277" t="n">
-        <v>200</v>
-      </c>
       <c r="L1277" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M1277" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
@@ -92319,11 +92319,11 @@
       </c>
       <c r="O1277" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q1277" t="n">
         <v>1</v>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1278" t="n">
         <v>13</v>
@@ -92364,25 +92364,25 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>300</v>
+        <v>4400</v>
       </c>
       <c r="K1278" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="L1278" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="M1278" t="n">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92395,7 +92395,7 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="Q1278" t="n">
         <v>1</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1279" t="n">
         <v>13</v>
@@ -92436,7 +92436,7 @@
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
@@ -92445,16 +92445,16 @@
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K1279" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L1279" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M1279" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92463,11 +92463,11 @@
       </c>
       <c r="O1279" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="Q1279" t="n">
         <v>1</v>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1280" t="n">
         <v>13</v>
@@ -92517,16 +92517,16 @@
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="K1280" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="L1280" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1280" t="n">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92535,11 +92535,11 @@
       </c>
       <c r="O1280" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="Q1280" t="n">
         <v>1</v>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1281" t="n">
         <v>13</v>
@@ -92589,16 +92589,16 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>1500</v>
+        <v>3400</v>
       </c>
       <c r="K1281" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="L1281" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M1281" t="n">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92607,11 +92607,11 @@
       </c>
       <c r="O1281" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="Q1281" t="n">
         <v>1</v>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1282" t="n">
         <v>13</v>
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K1282" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="L1282" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="M1282" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92679,11 +92679,11 @@
       </c>
       <c r="O1282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="Q1282" t="n">
         <v>1</v>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1283" t="n">
         <v>13</v>
@@ -92733,16 +92733,16 @@
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1283" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L1283" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="M1283" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92751,11 +92751,11 @@
       </c>
       <c r="O1283" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q1283" t="n">
         <v>1</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1284" t="n">
         <v>13</v>
@@ -92805,16 +92805,16 @@
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K1284" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L1284" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M1284" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92823,11 +92823,11 @@
       </c>
       <c r="O1284" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q1284" t="n">
         <v>1</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1285" t="n">
         <v>13</v>
@@ -92880,13 +92880,13 @@
         <v>500</v>
       </c>
       <c r="K1285" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L1285" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="M1285" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
@@ -92895,11 +92895,11 @@
       </c>
       <c r="O1285" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q1285" t="n">
         <v>1</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1286" t="n">
         <v>13</v>
@@ -92940,7 +92940,7 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
@@ -92949,16 +92949,16 @@
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>4300</v>
+        <v>2800</v>
       </c>
       <c r="K1286" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="L1286" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="M1286" t="n">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92971,7 +92971,7 @@
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="Q1286" t="n">
         <v>1</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1287" t="n">
         <v>13</v>
@@ -93012,25 +93012,25 @@
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K1287" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="L1287" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="M1287" t="n">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93039,11 +93039,11 @@
       </c>
       <c r="O1287" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="Q1287" t="n">
         <v>1</v>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1288" t="n">
         <v>13</v>
@@ -93093,16 +93093,16 @@
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="K1288" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="L1288" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="M1288" t="n">
-        <v>480</v>
+        <v>248</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93115,7 +93115,7 @@
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>480</v>
+        <v>248</v>
       </c>
       <c r="Q1288" t="n">
         <v>1</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1289" t="n">
         <v>13</v>
@@ -93161,20 +93161,20 @@
       </c>
       <c r="I1289" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>3900</v>
+        <v>400</v>
       </c>
       <c r="K1289" t="n">
-        <v>470</v>
+        <v>190</v>
       </c>
       <c r="L1289" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="M1289" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93183,11 +93183,11 @@
       </c>
       <c r="O1289" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="Q1289" t="n">
         <v>1</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1290" t="n">
         <v>13</v>
@@ -93237,16 +93237,16 @@
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="K1290" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1290" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1290" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93255,11 +93255,11 @@
       </c>
       <c r="O1290" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q1290" t="n">
         <v>1</v>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1291" t="n">
         <v>13</v>
@@ -93305,20 +93305,20 @@
       </c>
       <c r="I1291" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K1291" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="L1291" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="M1291" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93327,11 +93327,11 @@
       </c>
       <c r="O1291" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q1291" t="n">
         <v>1</v>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1292" t="n">
         <v>13</v>
@@ -93372,25 +93372,25 @@
       </c>
       <c r="H1292" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1292" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>500</v>
+        <v>4300</v>
       </c>
       <c r="K1292" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L1292" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M1292" t="n">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93399,11 +93399,11 @@
       </c>
       <c r="O1292" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="Q1292" t="n">
         <v>1</v>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44384</v>
+        <v>44503</v>
       </c>
       <c r="E1293" t="n">
         <v>13</v>
@@ -93444,25 +93444,25 @@
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1293" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>530</v>
+        <v>1200</v>
       </c>
       <c r="K1293" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="L1293" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="M1293" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93475,7 +93475,7 @@
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="Q1293" t="n">
         <v>1</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1294" t="n">
         <v>13</v>
@@ -93525,16 +93525,16 @@
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="K1294" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="L1294" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M1294" t="n">
-        <v>242</v>
+        <v>480</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93547,7 +93547,7 @@
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>242</v>
+        <v>480</v>
       </c>
       <c r="Q1294" t="n">
         <v>1</v>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1295" t="n">
         <v>13</v>
@@ -93593,20 +93593,20 @@
       </c>
       <c r="I1295" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>380</v>
+        <v>3900</v>
       </c>
       <c r="K1295" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="L1295" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M1295" t="n">
-        <v>200</v>
+        <v>483</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93615,11 +93615,11 @@
       </c>
       <c r="O1295" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>200</v>
+        <v>483</v>
       </c>
       <c r="Q1295" t="n">
         <v>1</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1296" t="n">
         <v>13</v>
@@ -93669,16 +93669,16 @@
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>940</v>
+        <v>2000</v>
       </c>
       <c r="K1296" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1296" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="M1296" t="n">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93691,7 +93691,7 @@
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Q1296" t="n">
         <v>1</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1297" t="n">
         <v>13</v>
@@ -93737,20 +93737,20 @@
       </c>
       <c r="I1297" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="K1297" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="L1297" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M1297" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93759,11 +93759,11 @@
       </c>
       <c r="O1297" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q1297" t="n">
         <v>1</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1298" t="n">
         <v>13</v>
@@ -93813,16 +93813,16 @@
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="K1298" t="n">
         <v>150</v>
       </c>
       <c r="L1298" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="M1298" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93835,7 +93835,7 @@
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Q1298" t="n">
         <v>1</v>
@@ -93876,7 +93876,7 @@
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1299" t="inlineStr">
@@ -93885,16 +93885,16 @@
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="K1299" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L1299" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M1299" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
@@ -93907,7 +93907,7 @@
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="Q1299" t="n">
         <v>1</v>
@@ -93948,25 +93948,25 @@
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>290</v>
+        <v>1150</v>
       </c>
       <c r="K1300" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="L1300" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="M1300" t="n">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93975,11 +93975,11 @@
       </c>
       <c r="O1300" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="Q1300" t="n">
         <v>1</v>
@@ -94020,25 +94020,25 @@
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1301" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="K1301" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="L1301" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="M1301" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
@@ -94051,7 +94051,7 @@
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="Q1301" t="n">
         <v>1</v>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1302" t="n">
         <v>13</v>
@@ -94097,20 +94097,20 @@
       </c>
       <c r="I1302" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>3400</v>
+        <v>940</v>
       </c>
       <c r="K1302" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="L1302" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="M1302" t="n">
-        <v>583</v>
+        <v>212</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94119,11 +94119,11 @@
       </c>
       <c r="O1302" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>583</v>
+        <v>212</v>
       </c>
       <c r="Q1302" t="n">
         <v>1</v>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1303" t="n">
         <v>13</v>
@@ -94169,20 +94169,20 @@
       </c>
       <c r="I1303" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>1100</v>
+        <v>240</v>
       </c>
       <c r="K1303" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="L1303" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="M1303" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94191,11 +94191,11 @@
       </c>
       <c r="O1303" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="Q1303" t="n">
         <v>1</v>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1304" t="n">
         <v>13</v>
@@ -94241,20 +94241,20 @@
       </c>
       <c r="I1304" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>1300</v>
+        <v>510</v>
       </c>
       <c r="K1304" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="L1304" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="M1304" t="n">
-        <v>288</v>
+        <v>163</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94263,11 +94263,11 @@
       </c>
       <c r="O1304" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>288</v>
+        <v>163</v>
       </c>
       <c r="Q1304" t="n">
         <v>1</v>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1305" t="n">
         <v>13</v>
@@ -94308,25 +94308,25 @@
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>1400</v>
+        <v>460</v>
       </c>
       <c r="K1305" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="L1305" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="M1305" t="n">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
@@ -94335,11 +94335,11 @@
       </c>
       <c r="O1305" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="Q1305" t="n">
         <v>1</v>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1306" t="n">
         <v>13</v>
@@ -94380,25 +94380,25 @@
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K1306" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="L1306" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="M1306" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94411,7 +94411,7 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="Q1306" t="n">
         <v>1</v>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1307" t="n">
         <v>13</v>
@@ -94452,25 +94452,25 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K1307" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="L1307" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="M1307" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94479,11 +94479,11 @@
       </c>
       <c r="O1307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="Q1307" t="n">
         <v>1</v>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="E1308" t="n">
         <v>13</v>
@@ -94533,7 +94533,7 @@
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>4900</v>
+        <v>3400</v>
       </c>
       <c r="K1308" t="n">
         <v>570</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="E1309" t="n">
         <v>13</v>
@@ -94608,31 +94608,463 @@
         <v>1100</v>
       </c>
       <c r="K1309" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1309" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1309" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P1309" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1309" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1310" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1310" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1310" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1310" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J1310" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>288</v>
+      </c>
+      <c r="N1310" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1310" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1310" t="n">
+        <v>288</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1310" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1311" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1311" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1311" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1311" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J1311" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>289</v>
+      </c>
+      <c r="N1311" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1311" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1311" t="n">
+        <v>289</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1311" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1312" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1312" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J1312" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>220</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>220</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>220</v>
+      </c>
+      <c r="N1312" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1312" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1312" t="n">
+        <v>220</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1312" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1313" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1313" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1313" t="inlineStr">
+        <is>
+          <t>2a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J1313" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>230</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>230</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>230</v>
+      </c>
+      <c r="N1313" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1313" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1313" t="n">
+        <v>230</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1313" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1314" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1314" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1314" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1314" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1314" t="n">
+        <v>4900</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>570</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>583</v>
+      </c>
+      <c r="N1314" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1314" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P1314" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1314" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1315" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1315" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1315" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1315" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K1315" t="n">
         <v>480</v>
       </c>
-      <c r="L1309" t="n">
+      <c r="L1315" t="n">
         <v>480</v>
       </c>
-      <c r="M1309" t="n">
+      <c r="M1315" t="n">
         <v>480</v>
       </c>
-      <c r="N1309" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1309" t="inlineStr">
+      <c r="N1315" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1315" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P1309" t="n">
+      <c r="P1315" t="n">
         <v>480</v>
       </c>
-      <c r="Q1309" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1309" t="inlineStr">
+      <c r="Q1315" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1315" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1329"/>
+  <dimension ref="A1:R1335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1257" t="n">
         <v>13</v>
@@ -90857,11 +90857,11 @@
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="K1257" t="n">
         <v>350</v>
@@ -90870,7 +90870,7 @@
         <v>400</v>
       </c>
       <c r="M1257" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q1257" t="n">
         <v>1</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1258" t="n">
         <v>13</v>
@@ -90929,20 +90929,20 @@
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>1700</v>
+        <v>1480</v>
       </c>
       <c r="K1258" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="L1258" t="n">
         <v>400</v>
       </c>
       <c r="M1258" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90955,7 +90955,7 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="Q1258" t="n">
         <v>1</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1259" t="n">
         <v>13</v>
@@ -91001,20 +91001,20 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K1259" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L1259" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M1259" t="n">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="Q1259" t="n">
         <v>1</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1260" t="n">
         <v>13</v>
@@ -91073,20 +91073,20 @@
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>450</v>
+        <v>1500</v>
       </c>
       <c r="K1260" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L1260" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="M1260" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="Q1260" t="n">
         <v>1</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44385</v>
+        <v>44585</v>
       </c>
       <c r="E1261" t="n">
         <v>13</v>
@@ -91145,20 +91145,20 @@
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>1350</v>
+        <v>650</v>
       </c>
       <c r="K1261" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L1261" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1261" t="n">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91167,11 +91167,11 @@
       </c>
       <c r="O1261" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="Q1261" t="n">
         <v>1</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44385</v>
+        <v>44585</v>
       </c>
       <c r="E1262" t="n">
         <v>13</v>
@@ -91217,20 +91217,20 @@
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>2200</v>
+        <v>980</v>
       </c>
       <c r="K1262" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="L1262" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M1262" t="n">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91243,7 +91243,7 @@
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="Q1262" t="n">
         <v>1</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44385</v>
+        <v>44560</v>
       </c>
       <c r="E1263" t="n">
         <v>13</v>
@@ -91289,20 +91289,20 @@
       </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="K1263" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="L1263" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M1263" t="n">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91311,11 +91311,11 @@
       </c>
       <c r="O1263" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="Q1263" t="n">
         <v>1</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44385</v>
+        <v>44560</v>
       </c>
       <c r="E1264" t="n">
         <v>13</v>
@@ -91361,20 +91361,20 @@
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K1264" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="L1264" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M1264" t="n">
-        <v>191</v>
+        <v>372</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91387,7 +91387,7 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>191</v>
+        <v>372</v>
       </c>
       <c r="Q1264" t="n">
         <v>1</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44385</v>
+        <v>44560</v>
       </c>
       <c r="E1265" t="n">
         <v>13</v>
@@ -91433,20 +91433,20 @@
       </c>
       <c r="I1265" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K1265" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="L1265" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="M1265" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91455,11 +91455,11 @@
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="Q1265" t="n">
         <v>1</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44385</v>
+        <v>44560</v>
       </c>
       <c r="E1266" t="n">
         <v>13</v>
@@ -91505,20 +91505,20 @@
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K1266" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="L1266" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="M1266" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91531,7 +91531,7 @@
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="Q1266" t="n">
         <v>1</v>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1267" t="n">
         <v>13</v>
@@ -91572,25 +91572,25 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>3300</v>
+        <v>1350</v>
       </c>
       <c r="K1267" t="n">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="L1267" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M1267" t="n">
-        <v>800</v>
+        <v>233</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91599,11 +91599,11 @@
       </c>
       <c r="O1267" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>800</v>
+        <v>233</v>
       </c>
       <c r="Q1267" t="n">
         <v>1</v>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1268" t="n">
         <v>13</v>
@@ -91644,25 +91644,25 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K1268" t="n">
-        <v>750</v>
+        <v>230</v>
       </c>
       <c r="L1268" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M1268" t="n">
-        <v>750</v>
+        <v>238</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91675,7 +91675,7 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>750</v>
+        <v>238</v>
       </c>
       <c r="Q1268" t="n">
         <v>1</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E1269" t="n">
         <v>13</v>
@@ -91721,20 +91721,20 @@
       </c>
       <c r="I1269" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>3800</v>
+        <v>650</v>
       </c>
       <c r="K1269" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="L1269" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="M1269" t="n">
-        <v>822</v>
+        <v>192</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91743,11 +91743,11 @@
       </c>
       <c r="O1269" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>822</v>
+        <v>192</v>
       </c>
       <c r="Q1269" t="n">
         <v>1</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E1270" t="n">
         <v>13</v>
@@ -91793,20 +91793,20 @@
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K1270" t="n">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="L1270" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M1270" t="n">
-        <v>700</v>
+        <v>191</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91815,11 +91815,11 @@
       </c>
       <c r="O1270" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>700</v>
+        <v>191</v>
       </c>
       <c r="Q1270" t="n">
         <v>1</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E1271" t="n">
         <v>13</v>
@@ -91860,25 +91860,25 @@
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>7200</v>
+        <v>250</v>
       </c>
       <c r="K1271" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L1271" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M1271" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91887,11 +91887,11 @@
       </c>
       <c r="O1271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q1271" t="n">
         <v>1</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E1272" t="n">
         <v>13</v>
@@ -91932,25 +91932,25 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="K1272" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L1272" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M1272" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91963,7 +91963,7 @@
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Q1272" t="n">
         <v>1</v>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44414</v>
+        <v>44162</v>
       </c>
       <c r="E1273" t="n">
         <v>13</v>
@@ -92004,25 +92004,25 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="K1273" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L1273" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="M1273" t="n">
-        <v>359</v>
+        <v>800</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92035,7 +92035,7 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>359</v>
+        <v>800</v>
       </c>
       <c r="Q1273" t="n">
         <v>1</v>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44414</v>
+        <v>44162</v>
       </c>
       <c r="E1274" t="n">
         <v>13</v>
@@ -92076,25 +92076,25 @@
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="K1274" t="n">
-        <v>270</v>
+        <v>750</v>
       </c>
       <c r="L1274" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M1274" t="n">
-        <v>283</v>
+        <v>750</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92107,7 +92107,7 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>283</v>
+        <v>750</v>
       </c>
       <c r="Q1274" t="n">
         <v>1</v>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1275" t="n">
         <v>13</v>
@@ -92153,20 +92153,20 @@
       </c>
       <c r="I1275" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="K1275" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L1275" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="M1275" t="n">
-        <v>200</v>
+        <v>822</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92175,11 +92175,11 @@
       </c>
       <c r="O1275" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>200</v>
+        <v>822</v>
       </c>
       <c r="Q1275" t="n">
         <v>1</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E1276" t="n">
         <v>13</v>
@@ -92225,20 +92225,20 @@
       </c>
       <c r="I1276" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="K1276" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="L1276" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M1276" t="n">
-        <v>289</v>
+        <v>700</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92247,11 +92247,11 @@
       </c>
       <c r="O1276" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>289</v>
+        <v>700</v>
       </c>
       <c r="Q1276" t="n">
         <v>1</v>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E1277" t="n">
         <v>13</v>
@@ -92292,25 +92292,25 @@
       </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>1400</v>
+        <v>7200</v>
       </c>
       <c r="K1277" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="L1277" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="M1277" t="n">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
@@ -92323,7 +92323,7 @@
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="Q1277" t="n">
         <v>1</v>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E1278" t="n">
         <v>13</v>
@@ -92364,25 +92364,25 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K1278" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L1278" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M1278" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92391,11 +92391,11 @@
       </c>
       <c r="O1278" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q1278" t="n">
         <v>1</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1279" t="n">
         <v>13</v>
@@ -92441,20 +92441,20 @@
       </c>
       <c r="I1279" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K1279" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L1279" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="M1279" t="n">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92467,7 +92467,7 @@
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="Q1279" t="n">
         <v>1</v>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44306</v>
+        <v>44414</v>
       </c>
       <c r="E1280" t="n">
         <v>13</v>
@@ -92513,20 +92513,20 @@
       </c>
       <c r="I1280" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K1280" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="L1280" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="M1280" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92535,11 +92535,11 @@
       </c>
       <c r="O1280" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="Q1280" t="n">
         <v>1</v>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44306</v>
+        <v>44414</v>
       </c>
       <c r="E1281" t="n">
         <v>13</v>
@@ -92585,20 +92585,20 @@
       </c>
       <c r="I1281" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="K1281" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L1281" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1281" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92611,7 +92611,7 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q1281" t="n">
         <v>1</v>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1282" t="n">
         <v>13</v>
@@ -92657,20 +92657,20 @@
       </c>
       <c r="I1282" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="K1282" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L1282" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M1282" t="n">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92679,11 +92679,11 @@
       </c>
       <c r="O1282" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="Q1282" t="n">
         <v>1</v>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1283" t="n">
         <v>13</v>
@@ -92729,20 +92729,20 @@
       </c>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K1283" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="L1283" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="M1283" t="n">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92751,11 +92751,11 @@
       </c>
       <c r="O1283" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="Q1283" t="n">
         <v>1</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1284" t="n">
         <v>13</v>
@@ -92801,20 +92801,20 @@
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K1284" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L1284" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="M1284" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92823,11 +92823,11 @@
       </c>
       <c r="O1284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="Q1284" t="n">
         <v>1</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1285" t="n">
         <v>13</v>
@@ -92873,20 +92873,20 @@
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1285" t="n">
         <v>300</v>
       </c>
       <c r="K1285" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="L1285" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M1285" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
@@ -92895,11 +92895,11 @@
       </c>
       <c r="O1285" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="Q1285" t="n">
         <v>1</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1286" t="n">
         <v>13</v>
@@ -92945,20 +92945,20 @@
       </c>
       <c r="I1286" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>950</v>
+        <v>1700</v>
       </c>
       <c r="K1286" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L1286" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="M1286" t="n">
-        <v>474</v>
+        <v>255</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92971,7 +92971,7 @@
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>474</v>
+        <v>255</v>
       </c>
       <c r="Q1286" t="n">
         <v>1</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1287" t="n">
         <v>13</v>
@@ -93017,20 +93017,20 @@
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="K1287" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="L1287" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M1287" t="n">
-        <v>471</v>
+        <v>238</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93039,11 +93039,11 @@
       </c>
       <c r="O1287" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>471</v>
+        <v>238</v>
       </c>
       <c r="Q1287" t="n">
         <v>1</v>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1288" t="n">
         <v>13</v>
@@ -93089,20 +93089,20 @@
       </c>
       <c r="I1288" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="K1288" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L1288" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="M1288" t="n">
-        <v>479</v>
+        <v>258</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93111,11 +93111,11 @@
       </c>
       <c r="O1288" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>479</v>
+        <v>258</v>
       </c>
       <c r="Q1288" t="n">
         <v>1</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1289" t="n">
         <v>13</v>
@@ -93161,20 +93161,20 @@
       </c>
       <c r="I1289" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K1289" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="L1289" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="M1289" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93187,7 +93187,7 @@
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Q1289" t="n">
         <v>1</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1290" t="n">
         <v>13</v>
@@ -93233,20 +93233,20 @@
       </c>
       <c r="I1290" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K1290" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="L1290" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="M1290" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93255,11 +93255,11 @@
       </c>
       <c r="O1290" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Q1290" t="n">
         <v>1</v>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1291" t="n">
         <v>13</v>
@@ -93305,20 +93305,20 @@
       </c>
       <c r="I1291" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K1291" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="L1291" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="M1291" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93327,11 +93327,11 @@
       </c>
       <c r="O1291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="Q1291" t="n">
         <v>1</v>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1292" t="n">
         <v>13</v>
@@ -93377,20 +93377,20 @@
       </c>
       <c r="I1292" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>2100</v>
+        <v>950</v>
       </c>
       <c r="K1292" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="L1292" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="M1292" t="n">
-        <v>279</v>
+        <v>474</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93399,11 +93399,11 @@
       </c>
       <c r="O1292" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>279</v>
+        <v>474</v>
       </c>
       <c r="Q1292" t="n">
         <v>1</v>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1293" t="n">
         <v>13</v>
@@ -93449,20 +93449,20 @@
       </c>
       <c r="I1293" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="K1293" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="L1293" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="M1293" t="n">
-        <v>275</v>
+        <v>471</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93471,11 +93471,11 @@
       </c>
       <c r="O1293" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>275</v>
+        <v>471</v>
       </c>
       <c r="Q1293" t="n">
         <v>1</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1294" t="n">
         <v>13</v>
@@ -93521,20 +93521,20 @@
       </c>
       <c r="I1294" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="K1294" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="L1294" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M1294" t="n">
-        <v>200</v>
+        <v>479</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93543,11 +93543,11 @@
       </c>
       <c r="O1294" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>200</v>
+        <v>479</v>
       </c>
       <c r="Q1294" t="n">
         <v>1</v>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1295" t="n">
         <v>13</v>
@@ -93593,20 +93593,20 @@
       </c>
       <c r="I1295" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K1295" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L1295" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M1295" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93615,11 +93615,11 @@
       </c>
       <c r="O1295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q1295" t="n">
         <v>1</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44428</v>
+        <v>44189</v>
       </c>
       <c r="E1296" t="n">
         <v>13</v>
@@ -93665,20 +93665,20 @@
       </c>
       <c r="I1296" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>1350</v>
+        <v>250</v>
       </c>
       <c r="K1296" t="n">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="L1296" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M1296" t="n">
-        <v>582</v>
+        <v>400</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93687,11 +93687,11 @@
       </c>
       <c r="O1296" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>582</v>
+        <v>400</v>
       </c>
       <c r="Q1296" t="n">
         <v>1</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44428</v>
+        <v>44189</v>
       </c>
       <c r="E1297" t="n">
         <v>13</v>
@@ -93737,20 +93737,20 @@
       </c>
       <c r="I1297" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>3300</v>
+        <v>500</v>
       </c>
       <c r="K1297" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="L1297" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M1297" t="n">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93763,7 +93763,7 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="Q1297" t="n">
         <v>1</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1298" t="n">
         <v>13</v>
@@ -93809,20 +93809,20 @@
       </c>
       <c r="I1298" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="K1298" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="L1298" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M1298" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93831,11 +93831,11 @@
       </c>
       <c r="O1298" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="Q1298" t="n">
         <v>1</v>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E1299" t="n">
         <v>13</v>
@@ -93881,20 +93881,20 @@
       </c>
       <c r="I1299" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="K1299" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L1299" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M1299" t="n">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
@@ -93903,11 +93903,11 @@
       </c>
       <c r="O1299" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="Q1299" t="n">
         <v>1</v>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E1300" t="n">
         <v>13</v>
@@ -93953,20 +93953,20 @@
       </c>
       <c r="I1300" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>2600</v>
+        <v>300</v>
       </c>
       <c r="K1300" t="n">
         <v>200</v>
       </c>
       <c r="L1300" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="M1300" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93975,11 +93975,11 @@
       </c>
       <c r="O1300" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q1300" t="n">
         <v>1</v>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E1301" t="n">
         <v>13</v>
@@ -94025,20 +94025,20 @@
       </c>
       <c r="I1301" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1301" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1301" t="n">
         <v>200</v>
       </c>
-      <c r="K1301" t="n">
-        <v>150</v>
-      </c>
       <c r="L1301" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M1301" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
@@ -94047,11 +94047,11 @@
       </c>
       <c r="O1301" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1301" t="n">
         <v>1</v>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1302" t="n">
         <v>13</v>
@@ -94097,20 +94097,20 @@
       </c>
       <c r="I1302" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>400</v>
+        <v>1350</v>
       </c>
       <c r="K1302" t="n">
-        <v>140</v>
+        <v>570</v>
       </c>
       <c r="L1302" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="M1302" t="n">
-        <v>140</v>
+        <v>582</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94123,7 +94123,7 @@
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>140</v>
+        <v>582</v>
       </c>
       <c r="Q1302" t="n">
         <v>1</v>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44302</v>
+        <v>44428</v>
       </c>
       <c r="E1303" t="n">
         <v>13</v>
@@ -94169,20 +94169,20 @@
       </c>
       <c r="I1303" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>1400</v>
+        <v>3300</v>
       </c>
       <c r="K1303" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="L1303" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="M1303" t="n">
-        <v>271</v>
+        <v>408</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94191,11 +94191,11 @@
       </c>
       <c r="O1303" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>271</v>
+        <v>408</v>
       </c>
       <c r="Q1303" t="n">
         <v>1</v>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44302</v>
+        <v>44428</v>
       </c>
       <c r="E1304" t="n">
         <v>13</v>
@@ -94241,20 +94241,20 @@
       </c>
       <c r="I1304" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K1304" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="L1304" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="M1304" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94267,7 +94267,7 @@
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q1304" t="n">
         <v>1</v>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1305" t="n">
         <v>13</v>
@@ -94313,20 +94313,20 @@
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K1305" t="n">
         <v>200</v>
       </c>
       <c r="L1305" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M1305" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
@@ -94335,11 +94335,11 @@
       </c>
       <c r="O1305" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q1305" t="n">
         <v>1</v>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1306" t="n">
         <v>13</v>
@@ -94385,20 +94385,20 @@
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="K1306" t="n">
         <v>200</v>
       </c>
       <c r="L1306" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M1306" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94411,7 +94411,7 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q1306" t="n">
         <v>1</v>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="E1307" t="n">
         <v>13</v>
@@ -94457,20 +94457,20 @@
       </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="K1307" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L1307" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="M1307" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94483,7 +94483,7 @@
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="Q1307" t="n">
         <v>1</v>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="E1308" t="n">
         <v>13</v>
@@ -94529,20 +94529,20 @@
       </c>
       <c r="I1308" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K1308" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="L1308" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="M1308" t="n">
-        <v>329</v>
+        <v>140</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94551,11 +94551,11 @@
       </c>
       <c r="O1308" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>329</v>
+        <v>140</v>
       </c>
       <c r="Q1308" t="n">
         <v>1</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1309" t="n">
         <v>13</v>
@@ -94601,20 +94601,20 @@
       </c>
       <c r="I1309" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1309" t="n">
         <v>1400</v>
       </c>
       <c r="K1309" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="L1309" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M1309" t="n">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94623,11 +94623,11 @@
       </c>
       <c r="O1309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="Q1309" t="n">
         <v>1</v>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1310" t="n">
         <v>13</v>
@@ -94673,20 +94673,20 @@
       </c>
       <c r="I1310" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>1430</v>
+        <v>2200</v>
       </c>
       <c r="K1310" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="L1310" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M1310" t="n">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94695,11 +94695,11 @@
       </c>
       <c r="O1310" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="Q1310" t="n">
         <v>1</v>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1311" t="n">
         <v>13</v>
@@ -94745,20 +94745,20 @@
       </c>
       <c r="I1311" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K1311" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1311" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1311" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94767,11 +94767,11 @@
       </c>
       <c r="O1311" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q1311" t="n">
         <v>1</v>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1312" t="n">
         <v>13</v>
@@ -94817,20 +94817,20 @@
       </c>
       <c r="I1312" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K1312" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L1312" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1312" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94839,11 +94839,11 @@
       </c>
       <c r="O1312" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q1312" t="n">
         <v>1</v>
@@ -94889,20 +94889,20 @@
       </c>
       <c r="I1313" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K1313" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1313" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1313" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94911,11 +94911,11 @@
       </c>
       <c r="O1313" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="Q1313" t="n">
         <v>1</v>
@@ -94961,20 +94961,20 @@
       </c>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="K1314" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1314" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1314" t="n">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94983,11 +94983,11 @@
       </c>
       <c r="O1314" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="Q1314" t="n">
         <v>1</v>
@@ -95028,7 +95028,7 @@
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1315" t="inlineStr">
@@ -95037,16 +95037,16 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K1315" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L1315" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M1315" t="n">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95055,11 +95055,11 @@
       </c>
       <c r="O1315" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="Q1315" t="n">
         <v>1</v>
@@ -95100,25 +95100,25 @@
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>500</v>
+        <v>1430</v>
       </c>
       <c r="K1316" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="L1316" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="M1316" t="n">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95127,11 +95127,11 @@
       </c>
       <c r="O1316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="Q1316" t="n">
         <v>1</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1317" t="n">
         <v>13</v>
@@ -95177,20 +95177,20 @@
       </c>
       <c r="I1317" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>1030</v>
+        <v>600</v>
       </c>
       <c r="K1317" t="n">
         <v>250</v>
       </c>
       <c r="L1317" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M1317" t="n">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95203,7 +95203,7 @@
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="Q1317" t="n">
         <v>1</v>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1318" t="n">
         <v>13</v>
@@ -95249,20 +95249,20 @@
       </c>
       <c r="I1318" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K1318" t="n">
         <v>250</v>
       </c>
       <c r="L1318" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M1318" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95271,11 +95271,11 @@
       </c>
       <c r="O1318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q1318" t="n">
         <v>1</v>
@@ -95301,7 +95301,7 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1319" t="n">
         <v>13</v>
@@ -95321,20 +95321,20 @@
       </c>
       <c r="I1319" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K1319" t="n">
         <v>250</v>
       </c>
       <c r="L1319" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M1319" t="n">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95343,11 +95343,11 @@
       </c>
       <c r="O1319" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="Q1319" t="n">
         <v>1</v>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1320" t="n">
         <v>13</v>
@@ -95393,20 +95393,20 @@
       </c>
       <c r="I1320" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="K1320" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L1320" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M1320" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95415,11 +95415,11 @@
       </c>
       <c r="O1320" t="inlineStr">
         <is>
-          <t>Provincia de Maipo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1320" t="n">
         <v>1</v>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1321" t="n">
         <v>13</v>
@@ -95460,25 +95460,25 @@
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K1321" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L1321" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M1321" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95487,11 +95487,11 @@
       </c>
       <c r="O1321" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="Q1321" t="n">
         <v>1</v>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1322" t="n">
         <v>13</v>
@@ -95532,25 +95532,25 @@
       </c>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I1322" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1322" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L1322" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M1322" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95559,11 +95559,11 @@
       </c>
       <c r="O1322" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="Q1322" t="n">
         <v>1</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1323" t="n">
         <v>13</v>
@@ -95609,20 +95609,20 @@
       </c>
       <c r="I1323" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>2000</v>
+        <v>1030</v>
       </c>
       <c r="K1323" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L1323" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M1323" t="n">
-        <v>480</v>
+        <v>273</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95631,11 +95631,11 @@
       </c>
       <c r="O1323" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>480</v>
+        <v>273</v>
       </c>
       <c r="Q1323" t="n">
         <v>1</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1324" t="n">
         <v>13</v>
@@ -95681,20 +95681,20 @@
       </c>
       <c r="I1324" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K1324" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L1324" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M1324" t="n">
-        <v>423</v>
+        <v>278</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95707,7 +95707,7 @@
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>423</v>
+        <v>278</v>
       </c>
       <c r="Q1324" t="n">
         <v>1</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1325" t="n">
         <v>13</v>
@@ -95753,20 +95753,20 @@
       </c>
       <c r="I1325" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K1325" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L1325" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M1325" t="n">
-        <v>400</v>
+        <v>271</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95775,11 +95775,11 @@
       </c>
       <c r="O1325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>400</v>
+        <v>271</v>
       </c>
       <c r="Q1325" t="n">
         <v>1</v>
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1326" t="n">
         <v>13</v>
@@ -95825,20 +95825,20 @@
       </c>
       <c r="I1326" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="K1326" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L1326" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M1326" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95847,11 +95847,11 @@
       </c>
       <c r="O1326" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Maipo</t>
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q1326" t="n">
         <v>1</v>
@@ -95877,7 +95877,7 @@
         </is>
       </c>
       <c r="D1327" s="2" t="n">
-        <v>44392</v>
+        <v>44274</v>
       </c>
       <c r="E1327" t="n">
         <v>13</v>
@@ -95897,20 +95897,20 @@
       </c>
       <c r="I1327" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>2200</v>
+        <v>250</v>
       </c>
       <c r="K1327" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L1327" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M1327" t="n">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95923,7 +95923,7 @@
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="Q1327" t="n">
         <v>1</v>
@@ -95949,7 +95949,7 @@
         </is>
       </c>
       <c r="D1328" s="2" t="n">
-        <v>44392</v>
+        <v>44274</v>
       </c>
       <c r="E1328" t="n">
         <v>13</v>
@@ -95969,20 +95969,20 @@
       </c>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1328" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1328" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="L1328" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="M1328" t="n">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
@@ -95991,11 +95991,11 @@
       </c>
       <c r="O1328" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="Q1328" t="n">
         <v>1</v>
@@ -96021,58 +96021,490 @@
         </is>
       </c>
       <c r="D1329" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1329" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1329" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1329" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1329" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>480</v>
+      </c>
+      <c r="N1329" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1329" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1329" t="n">
+        <v>480</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1329" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1330" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1330" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1330" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1330" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>400</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>450</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>423</v>
+      </c>
+      <c r="N1330" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1330" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1330" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1330" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1331" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1331" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1331" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1331" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1331" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>400</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1331" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1331" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1331" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1331" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1332" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1332" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1332" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1332" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1332" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>350</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>350</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>350</v>
+      </c>
+      <c r="N1332" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1332" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1332" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1332" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1333" s="2" t="n">
         <v>44392</v>
       </c>
-      <c r="E1329" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1329" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G1329" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>Camote</t>
-        </is>
-      </c>
-      <c r="I1329" t="inlineStr">
+      <c r="E1333" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1333" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1333" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1333" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1333" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>280</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>292</v>
+      </c>
+      <c r="N1333" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1333" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1333" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1333" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1334" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1334" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1334" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J1334" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>220</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>230</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>226</v>
+      </c>
+      <c r="N1334" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1334" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1334" t="n">
+        <v>226</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1334" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1335" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1335" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1335" t="inlineStr">
         <is>
           <t>3a (guarda)</t>
         </is>
       </c>
-      <c r="J1329" t="n">
+      <c r="J1335" t="n">
         <v>250</v>
       </c>
-      <c r="K1329" t="n">
+      <c r="K1335" t="n">
         <v>160</v>
       </c>
-      <c r="L1329" t="n">
+      <c r="L1335" t="n">
         <v>160</v>
       </c>
-      <c r="M1329" t="n">
+      <c r="M1335" t="n">
         <v>160</v>
       </c>
-      <c r="N1329" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1329" t="inlineStr">
+      <c r="N1335" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1335" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P1329" t="n">
+      <c r="P1335" t="n">
         <v>160</v>
       </c>
-      <c r="Q1329" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1329" t="inlineStr">
+      <c r="Q1335" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1335" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1357"/>
+  <dimension ref="A1:R1363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96885,7 +96885,7 @@
         </is>
       </c>
       <c r="D1341" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1341" t="n">
         <v>13</v>
@@ -96905,20 +96905,20 @@
       </c>
       <c r="I1341" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1341" t="n">
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="K1341" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="L1341" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="M1341" t="n">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="N1341" t="inlineStr">
         <is>
@@ -96927,11 +96927,11 @@
       </c>
       <c r="O1341" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1341" t="n">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="Q1341" t="n">
         <v>1</v>
@@ -96957,7 +96957,7 @@
         </is>
       </c>
       <c r="D1342" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1342" t="n">
         <v>13</v>
@@ -96977,20 +96977,20 @@
       </c>
       <c r="I1342" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1342" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K1342" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="L1342" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="M1342" t="n">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="N1342" t="inlineStr">
         <is>
@@ -97003,7 +97003,7 @@
         </is>
       </c>
       <c r="P1342" t="n">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="Q1342" t="n">
         <v>1</v>
@@ -97029,7 +97029,7 @@
         </is>
       </c>
       <c r="D1343" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1343" t="n">
         <v>13</v>
@@ -97049,20 +97049,20 @@
       </c>
       <c r="I1343" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1343" t="n">
-        <v>400</v>
+        <v>1440</v>
       </c>
       <c r="K1343" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L1343" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M1343" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N1343" t="inlineStr">
         <is>
@@ -97071,11 +97071,11 @@
       </c>
       <c r="O1343" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1343" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="Q1343" t="n">
         <v>1</v>
@@ -97101,7 +97101,7 @@
         </is>
       </c>
       <c r="D1344" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1344" t="n">
         <v>13</v>
@@ -97121,20 +97121,20 @@
       </c>
       <c r="I1344" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1344" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K1344" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L1344" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M1344" t="n">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="N1344" t="inlineStr">
         <is>
@@ -97147,7 +97147,7 @@
         </is>
       </c>
       <c r="P1344" t="n">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="Q1344" t="n">
         <v>1</v>
@@ -97173,7 +97173,7 @@
         </is>
       </c>
       <c r="D1345" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1345" t="n">
         <v>13</v>
@@ -97193,20 +97193,20 @@
       </c>
       <c r="I1345" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1345" t="n">
+        <v>850</v>
+      </c>
+      <c r="K1345" t="n">
         <v>250</v>
       </c>
-      <c r="K1345" t="n">
-        <v>150</v>
-      </c>
       <c r="L1345" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M1345" t="n">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="N1345" t="inlineStr">
         <is>
@@ -97215,11 +97215,11 @@
       </c>
       <c r="O1345" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1345" t="n">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="Q1345" t="n">
         <v>1</v>
@@ -97245,7 +97245,7 @@
         </is>
       </c>
       <c r="D1346" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1346" t="n">
         <v>13</v>
@@ -97265,20 +97265,20 @@
       </c>
       <c r="I1346" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J1346" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="K1346" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="L1346" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M1346" t="n">
-        <v>520</v>
+        <v>289</v>
       </c>
       <c r="N1346" t="inlineStr">
         <is>
@@ -97287,11 +97287,11 @@
       </c>
       <c r="O1346" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1346" t="n">
-        <v>520</v>
+        <v>289</v>
       </c>
       <c r="Q1346" t="n">
         <v>1</v>
@@ -97317,7 +97317,7 @@
         </is>
       </c>
       <c r="D1347" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1347" t="n">
         <v>13</v>
@@ -97337,20 +97337,20 @@
       </c>
       <c r="I1347" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1347" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="K1347" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="L1347" t="n">
-        <v>550</v>
+        <v>290</v>
       </c>
       <c r="M1347" t="n">
-        <v>530</v>
+        <v>279</v>
       </c>
       <c r="N1347" t="inlineStr">
         <is>
@@ -97359,11 +97359,11 @@
       </c>
       <c r="O1347" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1347" t="n">
-        <v>530</v>
+        <v>279</v>
       </c>
       <c r="Q1347" t="n">
         <v>1</v>
@@ -97389,7 +97389,7 @@
         </is>
       </c>
       <c r="D1348" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1348" t="n">
         <v>13</v>
@@ -97409,20 +97409,20 @@
       </c>
       <c r="I1348" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J1348" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K1348" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="L1348" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="M1348" t="n">
-        <v>450</v>
+        <v>267</v>
       </c>
       <c r="N1348" t="inlineStr">
         <is>
@@ -97431,11 +97431,11 @@
       </c>
       <c r="O1348" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1348" t="n">
-        <v>450</v>
+        <v>267</v>
       </c>
       <c r="Q1348" t="n">
         <v>1</v>
@@ -97461,7 +97461,7 @@
         </is>
       </c>
       <c r="D1349" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1349" t="n">
         <v>13</v>
@@ -97481,20 +97481,20 @@
       </c>
       <c r="I1349" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1349" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K1349" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L1349" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="M1349" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N1349" t="inlineStr">
         <is>
@@ -97503,11 +97503,11 @@
       </c>
       <c r="O1349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1349" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="Q1349" t="n">
         <v>1</v>
@@ -97533,7 +97533,7 @@
         </is>
       </c>
       <c r="D1350" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1350" t="n">
         <v>13</v>
@@ -97553,20 +97553,20 @@
       </c>
       <c r="I1350" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J1350" t="n">
-        <v>2360</v>
+        <v>300</v>
       </c>
       <c r="K1350" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1350" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="M1350" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="N1350" t="inlineStr">
         <is>
@@ -97575,11 +97575,11 @@
       </c>
       <c r="O1350" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1350" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="Q1350" t="n">
         <v>1</v>
@@ -97605,7 +97605,7 @@
         </is>
       </c>
       <c r="D1351" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1351" t="n">
         <v>13</v>
@@ -97625,20 +97625,20 @@
       </c>
       <c r="I1351" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J1351" t="n">
-        <v>3200</v>
+        <v>250</v>
       </c>
       <c r="K1351" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="L1351" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="M1351" t="n">
-        <v>519</v>
+        <v>150</v>
       </c>
       <c r="N1351" t="inlineStr">
         <is>
@@ -97651,7 +97651,7 @@
         </is>
       </c>
       <c r="P1351" t="n">
-        <v>519</v>
+        <v>150</v>
       </c>
       <c r="Q1351" t="n">
         <v>1</v>
@@ -97677,7 +97677,7 @@
         </is>
       </c>
       <c r="D1352" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1352" t="n">
         <v>13</v>
@@ -97697,20 +97697,20 @@
       </c>
       <c r="I1352" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1352" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="K1352" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L1352" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M1352" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="N1352" t="inlineStr">
         <is>
@@ -97723,7 +97723,7 @@
         </is>
       </c>
       <c r="P1352" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="Q1352" t="n">
         <v>1</v>
@@ -97749,7 +97749,7 @@
         </is>
       </c>
       <c r="D1353" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1353" t="n">
         <v>13</v>
@@ -97769,20 +97769,20 @@
       </c>
       <c r="I1353" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1353" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="K1353" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L1353" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M1353" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="N1353" t="inlineStr">
         <is>
@@ -97795,7 +97795,7 @@
         </is>
       </c>
       <c r="P1353" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="Q1353" t="n">
         <v>1</v>
@@ -97821,7 +97821,7 @@
         </is>
       </c>
       <c r="D1354" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1354" t="n">
         <v>13</v>
@@ -97836,25 +97836,25 @@
       </c>
       <c r="H1354" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1354" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1354" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K1354" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L1354" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="M1354" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N1354" t="inlineStr">
         <is>
@@ -97863,11 +97863,11 @@
       </c>
       <c r="O1354" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1354" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q1354" t="n">
         <v>1</v>
@@ -97893,7 +97893,7 @@
         </is>
       </c>
       <c r="D1355" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1355" t="n">
         <v>13</v>
@@ -97908,25 +97908,25 @@
       </c>
       <c r="H1355" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1355" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J1355" t="n">
-        <v>4400</v>
+        <v>100</v>
       </c>
       <c r="K1355" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L1355" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="M1355" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N1355" t="inlineStr">
         <is>
@@ -97939,7 +97939,7 @@
         </is>
       </c>
       <c r="P1355" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="Q1355" t="n">
         <v>1</v>
@@ -97965,7 +97965,7 @@
         </is>
       </c>
       <c r="D1356" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1356" t="n">
         <v>13</v>
@@ -97980,25 +97980,25 @@
       </c>
       <c r="H1356" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I1356" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J1356" t="n">
-        <v>1200</v>
+        <v>2360</v>
       </c>
       <c r="K1356" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L1356" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M1356" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="N1356" t="inlineStr">
         <is>
@@ -98007,11 +98007,11 @@
       </c>
       <c r="O1356" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1356" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="Q1356" t="n">
         <v>1</v>
@@ -98037,58 +98037,490 @@
         </is>
       </c>
       <c r="D1357" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1357" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1357" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1357" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1357" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>550</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>519</v>
+      </c>
+      <c r="N1357" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1357" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1357" t="n">
+        <v>519</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1357" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1358" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1358" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1358" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1358" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1358" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>400</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1358" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1358" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1358" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1358" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1359" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1359" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1359" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I1359" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1359" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>400</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1359" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1359" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1359" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1359" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1360" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1357" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1357" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G1357" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H1357" t="inlineStr">
+      <c r="E1360" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1360" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1360" t="inlineStr">
         <is>
           <t>Paine</t>
         </is>
       </c>
-      <c r="I1357" t="inlineStr">
+      <c r="I1360" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1360" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>850</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>850</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>850</v>
+      </c>
+      <c r="N1360" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1360" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1360" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1360" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1361" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1361" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1361" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I1361" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1361" t="n">
+        <v>4400</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>850</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>850</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>850</v>
+      </c>
+      <c r="N1361" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1361" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1361" t="n">
+        <v>850</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1361" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1362" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1362" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1362" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I1362" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J1357" t="n">
+      <c r="J1362" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>750</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>750</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>750</v>
+      </c>
+      <c r="N1362" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1362" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P1362" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1362" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1363" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G1363" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H1363" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I1363" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J1363" t="n">
         <v>2200</v>
       </c>
-      <c r="K1357" t="n">
+      <c r="K1363" t="n">
         <v>780</v>
       </c>
-      <c r="L1357" t="n">
+      <c r="L1363" t="n">
         <v>780</v>
       </c>
-      <c r="M1357" t="n">
+      <c r="M1363" t="n">
         <v>780</v>
       </c>
-      <c r="N1357" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O1357" t="inlineStr">
+      <c r="N1363" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O1363" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P1357" t="n">
+      <c r="P1363" t="n">
         <v>780</v>
       </c>
-      <c r="Q1357" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1357" t="inlineStr">
+      <c r="Q1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1363" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
